--- a/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9250118390415938</v>
+        <v>0.9250118390415935</v>
       </c>
       <c r="D2">
         <v>1.029395963017075</v>
       </c>
       <c r="E2">
-        <v>0.9405862097397849</v>
+        <v>0.9405862097397845</v>
       </c>
       <c r="F2">
-        <v>0.923184990358722</v>
+        <v>0.9231849903587215</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.042255652977061</v>
       </c>
       <c r="J2">
-        <v>0.9496926783127824</v>
+        <v>0.9496926783127819</v>
       </c>
       <c r="K2">
         <v>1.040460410170473</v>
       </c>
       <c r="L2">
-        <v>0.9529403982231399</v>
+        <v>0.9529403982231396</v>
       </c>
       <c r="M2">
-        <v>0.9358294269750469</v>
+        <v>0.9358294269750465</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.939316128527273</v>
+        <v>0.9393161285272724</v>
       </c>
       <c r="D3">
-        <v>1.033652624782848</v>
+        <v>1.033652624782849</v>
       </c>
       <c r="E3">
-        <v>0.9529387833032611</v>
+        <v>0.9529387833032608</v>
       </c>
       <c r="F3">
-        <v>0.9384427479417278</v>
+        <v>0.9384427479417272</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0450490111497</v>
+        <v>1.045049011149701</v>
       </c>
       <c r="J3">
-        <v>0.9616098677786772</v>
+        <v>0.961609867778677</v>
       </c>
       <c r="K3">
         <v>1.043872286051303</v>
       </c>
       <c r="L3">
-        <v>0.9642114706870325</v>
+        <v>0.9642114706870323</v>
       </c>
       <c r="M3">
-        <v>0.9499289562333818</v>
+        <v>0.9499289562333814</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9480099788718316</v>
+        <v>0.9480099788718314</v>
       </c>
       <c r="D4">
         <v>1.036269653790822</v>
       </c>
       <c r="E4">
-        <v>0.9604582549821328</v>
+        <v>0.9604582549821331</v>
       </c>
       <c r="F4">
-        <v>0.9477278714890585</v>
+        <v>0.9477278714890586</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.046731798604746</v>
       </c>
       <c r="J4">
-        <v>0.9688440467810518</v>
+        <v>0.9688440467810517</v>
       </c>
       <c r="K4">
-        <v>1.045949189043756</v>
+        <v>1.045949189043757</v>
       </c>
       <c r="L4">
-        <v>0.9710585644694713</v>
+        <v>0.9710585644694714</v>
       </c>
       <c r="M4">
-        <v>0.9585009885338323</v>
+        <v>0.9585009885338324</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9515453925375921</v>
+        <v>0.9515453925375922</v>
       </c>
       <c r="D5">
         <v>1.037339736528737</v>
       </c>
       <c r="E5">
-        <v>0.9635186160079887</v>
+        <v>0.9635186160079886</v>
       </c>
       <c r="F5">
-        <v>0.9515066411108765</v>
+        <v>0.9515066411108763</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047411886328066</v>
+        <v>1.047411886328067</v>
       </c>
       <c r="J5">
-        <v>0.9717835552755772</v>
+        <v>0.9717835552755774</v>
       </c>
       <c r="K5">
         <v>1.046793618876087</v>
       </c>
       <c r="L5">
-        <v>0.9738419981145623</v>
+        <v>0.9738419981145622</v>
       </c>
       <c r="M5">
-        <v>0.9619875104195365</v>
+        <v>0.9619875104195361</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.952132382581486</v>
+        <v>0.9521323825814844</v>
       </c>
       <c r="D6">
-        <v>1.037517713235428</v>
+        <v>1.037517713235429</v>
       </c>
       <c r="E6">
-        <v>0.9640268721955302</v>
+        <v>0.9640268721955285</v>
       </c>
       <c r="F6">
-        <v>0.9521342094996323</v>
+        <v>0.9521342094996306</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.047524536111274</v>
       </c>
       <c r="J6">
-        <v>0.9722714644767056</v>
+        <v>0.9722714644767043</v>
       </c>
       <c r="K6">
-        <v>1.046933786730945</v>
+        <v>1.046933786730946</v>
       </c>
       <c r="L6">
-        <v>0.9743040724129658</v>
+        <v>0.9743040724129639</v>
       </c>
       <c r="M6">
-        <v>0.962566421317431</v>
+        <v>0.9625664213174293</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9480576709470153</v>
+        <v>0.9480576709470142</v>
       </c>
       <c r="D7">
-        <v>1.036284067342558</v>
+        <v>1.036284067342557</v>
       </c>
       <c r="E7">
-        <v>0.9604995290515863</v>
+        <v>0.9604995290515852</v>
       </c>
       <c r="F7">
-        <v>0.9477788346985776</v>
+        <v>0.9477788346985766</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.046740990495946</v>
       </c>
       <c r="J7">
-        <v>0.9688837096848884</v>
+        <v>0.9688837096848874</v>
       </c>
       <c r="K7">
-        <v>1.045960582019713</v>
+        <v>1.045960582019712</v>
       </c>
       <c r="L7">
-        <v>0.9710961166434888</v>
+        <v>0.9710961166434876</v>
       </c>
       <c r="M7">
-        <v>0.9585480184768665</v>
+        <v>0.9585480184768652</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9299724649966933</v>
+        <v>0.9299724649966924</v>
       </c>
       <c r="D8">
         <v>1.030864783401512</v>
       </c>
       <c r="E8">
-        <v>0.9448672171112344</v>
+        <v>0.9448672171112337</v>
       </c>
       <c r="F8">
-        <v>0.9284737921406783</v>
+        <v>0.9284737921406773</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043227162969583</v>
+        <v>1.043227162969582</v>
       </c>
       <c r="J8">
-        <v>0.9538272455527982</v>
+        <v>0.9538272455527975</v>
       </c>
       <c r="K8">
         <v>1.041642292193149</v>
       </c>
       <c r="L8">
-        <v>0.9568496784212013</v>
+        <v>0.9568496784212004</v>
       </c>
       <c r="M8">
-        <v>0.9407184870249025</v>
+        <v>0.9407184870249017</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.8929097420957208</v>
+        <v>0.8929097420957216</v>
       </c>
       <c r="D9">
-        <v>1.020103876042739</v>
+        <v>1.020103876042738</v>
       </c>
       <c r="E9">
-        <v>0.9129562068906302</v>
+        <v>0.9129562068906311</v>
       </c>
       <c r="F9">
-        <v>0.8890083839076099</v>
+        <v>0.8890083839076108</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035934656018536</v>
       </c>
       <c r="J9">
-        <v>0.922906898647518</v>
+        <v>0.9229068986475187</v>
       </c>
       <c r="K9">
         <v>1.032878990230906</v>
       </c>
       <c r="L9">
-        <v>0.9276392614991065</v>
+        <v>0.9276392614991071</v>
       </c>
       <c r="M9">
-        <v>0.9042015867806051</v>
+        <v>0.9042015867806062</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8629149277454677</v>
+        <v>0.8629149277454681</v>
       </c>
       <c r="D10">
         <v>1.011801736756268</v>
       </c>
       <c r="E10">
-        <v>0.8872633593266279</v>
+        <v>0.887263359326628</v>
       </c>
       <c r="F10">
-        <v>0.8571240139883497</v>
+        <v>0.8571240139883496</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.030044942672258</v>
       </c>
       <c r="J10">
-        <v>0.897864319683838</v>
+        <v>0.8978643196838383</v>
       </c>
       <c r="K10">
         <v>1.025961127187771</v>
       </c>
       <c r="L10">
-        <v>0.9040174717240537</v>
+        <v>0.9040174717240539</v>
       </c>
       <c r="M10">
-        <v>0.8746608246496304</v>
+        <v>0.8746608246496302</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,10 +763,10 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8479891649742974</v>
+        <v>0.8479891649742975</v>
       </c>
       <c r="D11">
-        <v>1.007823461309503</v>
+        <v>1.007823461309502</v>
       </c>
       <c r="E11">
         <v>0.8745264447448501</v>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027143646450701</v>
+        <v>1.0271436464507</v>
       </c>
       <c r="J11">
         <v>0.8854085956541268</v>
@@ -787,10 +787,10 @@
         <v>1.022599331511066</v>
       </c>
       <c r="L11">
-        <v>0.8922780950048237</v>
+        <v>0.8922780950048235</v>
       </c>
       <c r="M11">
-        <v>0.8599623593976797</v>
+        <v>0.8599623593976796</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8420561257074571</v>
+        <v>0.8420561257074584</v>
       </c>
       <c r="D12">
         <v>1.006272007201674</v>
       </c>
       <c r="E12">
-        <v>0.869472889101189</v>
+        <v>0.8694728891011904</v>
       </c>
       <c r="F12">
-        <v>0.8349611039609049</v>
+        <v>0.8349611039609062</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.025998210318521</v>
       </c>
       <c r="J12">
-        <v>0.8804596930275573</v>
+        <v>0.8804596930275587</v>
       </c>
       <c r="K12">
         <v>1.021280023924693</v>
       </c>
       <c r="L12">
-        <v>0.887615392215815</v>
+        <v>0.8876153922158163</v>
       </c>
       <c r="M12">
-        <v>0.8541196024841231</v>
+        <v>0.8541196024841243</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8433485513686734</v>
+        <v>0.8433485513686695</v>
       </c>
       <c r="D13">
-        <v>1.006608489617043</v>
+        <v>1.006608489617042</v>
       </c>
       <c r="E13">
-        <v>0.8705732655544804</v>
+        <v>0.8705732655544768</v>
       </c>
       <c r="F13">
-        <v>0.8363343365152042</v>
+        <v>0.8363343365152002</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026247306450578</v>
+        <v>1.026247306450577</v>
       </c>
       <c r="J13">
-        <v>0.8815376061992402</v>
+        <v>0.8815376061992365</v>
       </c>
       <c r="K13">
-        <v>1.021566554779531</v>
+        <v>1.021566554779529</v>
       </c>
       <c r="L13">
-        <v>0.8886308953440951</v>
+        <v>0.8886308953440917</v>
       </c>
       <c r="M13">
-        <v>0.8553923709998758</v>
+        <v>0.8553923709998718</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8475074304100646</v>
+        <v>0.8475074304100647</v>
       </c>
       <c r="D14">
         <v>1.0076968456052</v>
       </c>
       <c r="E14">
-        <v>0.8741159167793702</v>
+        <v>0.8741159167793704</v>
       </c>
       <c r="F14">
         <v>0.8407531737737032</v>
@@ -901,10 +901,10 @@
         <v>1.022491836316797</v>
       </c>
       <c r="L14">
-        <v>0.8918994204634499</v>
+        <v>0.8918994204634501</v>
       </c>
       <c r="M14">
-        <v>0.8594879589232322</v>
+        <v>0.859487958923232</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8500144966386732</v>
+        <v>0.8500144966386719</v>
       </c>
       <c r="D15">
         <v>1.008357022496653</v>
       </c>
       <c r="E15">
-        <v>0.876252795571833</v>
+        <v>0.8762527955718317</v>
       </c>
       <c r="F15">
-        <v>0.8434169228415933</v>
+        <v>0.8434169228415922</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.027535751694871</v>
       </c>
       <c r="J15">
-        <v>0.8870983144956843</v>
+        <v>0.8870983144956832</v>
       </c>
       <c r="K15">
         <v>1.023051978258094</v>
       </c>
       <c r="L15">
-        <v>0.893870295704067</v>
+        <v>0.8938702957040658</v>
       </c>
       <c r="M15">
-        <v>0.8619568519320554</v>
+        <v>0.8619568519320543</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8638574138544693</v>
+        <v>0.8638574138544697</v>
       </c>
       <c r="D16">
-        <v>1.012056477644837</v>
+        <v>1.012056477644836</v>
       </c>
       <c r="E16">
-        <v>0.8880687394400596</v>
+        <v>0.88806873944006</v>
       </c>
       <c r="F16">
-        <v>0.85812550205101</v>
+        <v>0.8581255020510102</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.030228975208775</v>
       </c>
       <c r="J16">
-        <v>0.8986510501903819</v>
+        <v>0.8986510501903823</v>
       </c>
       <c r="K16">
         <v>1.026175359411704</v>
       </c>
       <c r="L16">
-        <v>0.9047591571167783</v>
+        <v>0.9047591571167786</v>
       </c>
       <c r="M16">
-        <v>0.8755889665795669</v>
+        <v>0.875588966579567</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8719668502546143</v>
+        <v>0.8719668502546146</v>
       </c>
       <c r="D17">
-        <v>1.014265214498756</v>
+        <v>1.014265214498757</v>
       </c>
       <c r="E17">
-        <v>0.8950037696335384</v>
+        <v>0.8950037696335386</v>
       </c>
       <c r="F17">
-        <v>0.8667433028929334</v>
+        <v>0.8667433028929338</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031815854365477</v>
+        <v>1.031815854365478</v>
       </c>
       <c r="J17">
-        <v>0.9054210300115109</v>
+        <v>0.9054210300115112</v>
       </c>
       <c r="K17">
-        <v>1.028027661999167</v>
+        <v>1.028027661999168</v>
       </c>
       <c r="L17">
-        <v>0.9111425576252092</v>
+        <v>0.9111425576252095</v>
       </c>
       <c r="M17">
-        <v>0.8835751119421251</v>
+        <v>0.8835751119421253</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8765183639586414</v>
+        <v>0.8765183639586418</v>
       </c>
       <c r="D18">
         <v>1.015517915272126</v>
       </c>
       <c r="E18">
-        <v>0.8989002295077705</v>
+        <v>0.8989002295077712</v>
       </c>
       <c r="F18">
-        <v>0.8715808381386569</v>
+        <v>0.8715808381386575</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032708867963053</v>
       </c>
       <c r="J18">
-        <v>0.9092211601852564</v>
+        <v>0.9092211601852571</v>
       </c>
       <c r="K18">
         <v>1.02907405947884</v>
       </c>
       <c r="L18">
-        <v>0.914726539135273</v>
+        <v>0.9147265391352736</v>
       </c>
       <c r="M18">
-        <v>0.8880575686558697</v>
+        <v>0.8880575686558705</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8780422598115377</v>
+        <v>0.8780422598115375</v>
       </c>
       <c r="D19">
         <v>1.015939387124814</v>
       </c>
       <c r="E19">
-        <v>0.9002054540731146</v>
+        <v>0.9002054540731145</v>
       </c>
       <c r="F19">
         <v>0.8732006345733011</v>
@@ -1082,10 +1082,10 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033008183098188</v>
+        <v>1.033008183098187</v>
       </c>
       <c r="J19">
-        <v>0.9104935224968572</v>
+        <v>0.9104935224968571</v>
       </c>
       <c r="K19">
         <v>1.029425444043371</v>
@@ -1094,7 +1094,7 @@
         <v>0.9159266711314499</v>
       </c>
       <c r="M19">
-        <v>0.8895583727117173</v>
+        <v>0.8895583727117171</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8711158115880449</v>
+        <v>0.871115811588047</v>
       </c>
       <c r="D20">
-        <v>1.014032014872958</v>
+        <v>1.014032014872959</v>
       </c>
       <c r="E20">
-        <v>0.8942755365727497</v>
+        <v>0.8942755365727515</v>
       </c>
       <c r="F20">
-        <v>0.8658388461609008</v>
+        <v>0.8658388461609027</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.031649053948505</v>
       </c>
       <c r="J20">
-        <v>0.9047105097866809</v>
+        <v>0.9047105097866829</v>
       </c>
       <c r="K20">
-        <v>1.027832535489996</v>
+        <v>1.027832535489997</v>
       </c>
       <c r="L20">
-        <v>0.9104725199888417</v>
+        <v>0.9104725199888435</v>
       </c>
       <c r="M20">
-        <v>0.8827369984442909</v>
+        <v>0.8827369984442929</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1161,7 +1161,7 @@
         <v>1.026815983856723</v>
       </c>
       <c r="J21">
-        <v>0.8839949055759169</v>
+        <v>0.883994905575917</v>
       </c>
       <c r="K21">
         <v>1.022221478316164</v>
@@ -1170,7 +1170,7 @@
         <v>0.8909460716518587</v>
       </c>
       <c r="M21">
-        <v>0.8582935267107283</v>
+        <v>0.8582935267107284</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8283410269845309</v>
+        <v>0.8283410269845295</v>
       </c>
       <c r="D22">
         <v>1.002752992704224</v>
       </c>
       <c r="E22">
-        <v>0.857812195774213</v>
+        <v>0.8578121957742117</v>
       </c>
       <c r="F22">
-        <v>0.8203871129324253</v>
+        <v>0.8203871129324234</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.023370560940151</v>
       </c>
       <c r="J22">
-        <v>0.8690262713355342</v>
+        <v>0.869026271335533</v>
       </c>
       <c r="K22">
         <v>1.018270108839924</v>
       </c>
       <c r="L22">
-        <v>0.8768463611062186</v>
+        <v>0.8768463611062173</v>
       </c>
       <c r="M22">
-        <v>0.8406125537667832</v>
+        <v>0.8406125537667817</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8381301954364394</v>
+        <v>0.8381301954364418</v>
       </c>
       <c r="D23">
-        <v>1.005254993386514</v>
+        <v>1.005254993386515</v>
       </c>
       <c r="E23">
-        <v>0.8661319488478635</v>
+        <v>0.8661319488478659</v>
       </c>
       <c r="F23">
-        <v>0.8307896121249766</v>
+        <v>0.8307896121249795</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025243047066693</v>
+        <v>1.025243047066694</v>
       </c>
       <c r="J23">
-        <v>0.8771858659043048</v>
+        <v>0.8771858659043071</v>
       </c>
       <c r="K23">
-        <v>1.020412645562021</v>
+        <v>1.020412645562022</v>
       </c>
       <c r="L23">
-        <v>0.8845313611004481</v>
+        <v>0.8845313611004504</v>
       </c>
       <c r="M23">
-        <v>0.8502533400899386</v>
+        <v>0.8502533400899412</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8715009045578033</v>
+        <v>0.8715009045578016</v>
       </c>
       <c r="D24">
         <v>1.014137496712786</v>
       </c>
       <c r="E24">
-        <v>0.8946050475798454</v>
+        <v>0.8946050475798434</v>
       </c>
       <c r="F24">
-        <v>0.8662481084330118</v>
+        <v>0.8662481084330099</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031724523551521</v>
+        <v>1.031724523551522</v>
       </c>
       <c r="J24">
-        <v>0.9050320173249633</v>
+        <v>0.9050320173249616</v>
       </c>
       <c r="K24">
         <v>1.027920808827507</v>
       </c>
       <c r="L24">
-        <v>0.9107757066701978</v>
+        <v>0.9107757066701959</v>
       </c>
       <c r="M24">
-        <v>0.8831162423453197</v>
+        <v>0.8831162423453177</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9032557564823506</v>
+        <v>0.9032557564823522</v>
       </c>
       <c r="D25">
         <v>1.023055816879813</v>
       </c>
       <c r="E25">
-        <v>0.921846600137796</v>
+        <v>0.9218466001377976</v>
       </c>
       <c r="F25">
-        <v>0.9000151185570553</v>
+        <v>0.9000151185570568</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.037974546802142</v>
       </c>
       <c r="J25">
-        <v>0.9315435063827163</v>
+        <v>0.9315435063827181</v>
       </c>
       <c r="K25">
-        <v>1.035306461550786</v>
+        <v>1.035306461550787</v>
       </c>
       <c r="L25">
-        <v>0.9357927772790354</v>
+        <v>0.9357927772790373</v>
       </c>
       <c r="M25">
-        <v>0.9143929750091957</v>
+        <v>0.9143929750091976</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9250118390415935</v>
+        <v>0.9250118390415938</v>
       </c>
       <c r="D2">
         <v>1.029395963017075</v>
       </c>
       <c r="E2">
-        <v>0.9405862097397845</v>
+        <v>0.9405862097397849</v>
       </c>
       <c r="F2">
-        <v>0.9231849903587215</v>
+        <v>0.923184990358722</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.042255652977061</v>
       </c>
       <c r="J2">
-        <v>0.9496926783127819</v>
+        <v>0.9496926783127824</v>
       </c>
       <c r="K2">
         <v>1.040460410170473</v>
       </c>
       <c r="L2">
-        <v>0.9529403982231396</v>
+        <v>0.9529403982231399</v>
       </c>
       <c r="M2">
-        <v>0.9358294269750465</v>
+        <v>0.9358294269750469</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9393161285272724</v>
+        <v>0.939316128527273</v>
       </c>
       <c r="D3">
-        <v>1.033652624782849</v>
+        <v>1.033652624782848</v>
       </c>
       <c r="E3">
-        <v>0.9529387833032608</v>
+        <v>0.9529387833032611</v>
       </c>
       <c r="F3">
-        <v>0.9384427479417272</v>
+        <v>0.9384427479417278</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045049011149701</v>
+        <v>1.0450490111497</v>
       </c>
       <c r="J3">
-        <v>0.961609867778677</v>
+        <v>0.9616098677786772</v>
       </c>
       <c r="K3">
         <v>1.043872286051303</v>
       </c>
       <c r="L3">
-        <v>0.9642114706870323</v>
+        <v>0.9642114706870325</v>
       </c>
       <c r="M3">
-        <v>0.9499289562333814</v>
+        <v>0.9499289562333818</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9480099788718314</v>
+        <v>0.9480099788718316</v>
       </c>
       <c r="D4">
         <v>1.036269653790822</v>
       </c>
       <c r="E4">
-        <v>0.9604582549821331</v>
+        <v>0.9604582549821328</v>
       </c>
       <c r="F4">
-        <v>0.9477278714890586</v>
+        <v>0.9477278714890585</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.046731798604746</v>
       </c>
       <c r="J4">
-        <v>0.9688440467810517</v>
+        <v>0.9688440467810518</v>
       </c>
       <c r="K4">
-        <v>1.045949189043757</v>
+        <v>1.045949189043756</v>
       </c>
       <c r="L4">
-        <v>0.9710585644694714</v>
+        <v>0.9710585644694713</v>
       </c>
       <c r="M4">
-        <v>0.9585009885338324</v>
+        <v>0.9585009885338323</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9515453925375922</v>
+        <v>0.9515453925375921</v>
       </c>
       <c r="D5">
         <v>1.037339736528737</v>
       </c>
       <c r="E5">
-        <v>0.9635186160079886</v>
+        <v>0.9635186160079887</v>
       </c>
       <c r="F5">
-        <v>0.9515066411108763</v>
+        <v>0.9515066411108765</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047411886328067</v>
+        <v>1.047411886328066</v>
       </c>
       <c r="J5">
-        <v>0.9717835552755774</v>
+        <v>0.9717835552755772</v>
       </c>
       <c r="K5">
         <v>1.046793618876087</v>
       </c>
       <c r="L5">
-        <v>0.9738419981145622</v>
+        <v>0.9738419981145623</v>
       </c>
       <c r="M5">
-        <v>0.9619875104195361</v>
+        <v>0.9619875104195365</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9521323825814844</v>
+        <v>0.952132382581486</v>
       </c>
       <c r="D6">
-        <v>1.037517713235429</v>
+        <v>1.037517713235428</v>
       </c>
       <c r="E6">
-        <v>0.9640268721955285</v>
+        <v>0.9640268721955302</v>
       </c>
       <c r="F6">
-        <v>0.9521342094996306</v>
+        <v>0.9521342094996323</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.047524536111274</v>
       </c>
       <c r="J6">
-        <v>0.9722714644767043</v>
+        <v>0.9722714644767056</v>
       </c>
       <c r="K6">
-        <v>1.046933786730946</v>
+        <v>1.046933786730945</v>
       </c>
       <c r="L6">
-        <v>0.9743040724129639</v>
+        <v>0.9743040724129658</v>
       </c>
       <c r="M6">
-        <v>0.9625664213174293</v>
+        <v>0.962566421317431</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9480576709470142</v>
+        <v>0.9480576709470153</v>
       </c>
       <c r="D7">
-        <v>1.036284067342557</v>
+        <v>1.036284067342558</v>
       </c>
       <c r="E7">
-        <v>0.9604995290515852</v>
+        <v>0.9604995290515863</v>
       </c>
       <c r="F7">
-        <v>0.9477788346985766</v>
+        <v>0.9477788346985776</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.046740990495946</v>
       </c>
       <c r="J7">
-        <v>0.9688837096848874</v>
+        <v>0.9688837096848884</v>
       </c>
       <c r="K7">
-        <v>1.045960582019712</v>
+        <v>1.045960582019713</v>
       </c>
       <c r="L7">
-        <v>0.9710961166434876</v>
+        <v>0.9710961166434888</v>
       </c>
       <c r="M7">
-        <v>0.9585480184768652</v>
+        <v>0.9585480184768665</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9299724649966924</v>
+        <v>0.9299724649966933</v>
       </c>
       <c r="D8">
         <v>1.030864783401512</v>
       </c>
       <c r="E8">
-        <v>0.9448672171112337</v>
+        <v>0.9448672171112344</v>
       </c>
       <c r="F8">
-        <v>0.9284737921406773</v>
+        <v>0.9284737921406783</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043227162969582</v>
+        <v>1.043227162969583</v>
       </c>
       <c r="J8">
-        <v>0.9538272455527975</v>
+        <v>0.9538272455527982</v>
       </c>
       <c r="K8">
         <v>1.041642292193149</v>
       </c>
       <c r="L8">
-        <v>0.9568496784212004</v>
+        <v>0.9568496784212013</v>
       </c>
       <c r="M8">
-        <v>0.9407184870249017</v>
+        <v>0.9407184870249025</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8929097420957216</v>
+        <v>0.8929097420957208</v>
       </c>
       <c r="D9">
-        <v>1.020103876042738</v>
+        <v>1.020103876042739</v>
       </c>
       <c r="E9">
-        <v>0.9129562068906311</v>
+        <v>0.9129562068906302</v>
       </c>
       <c r="F9">
-        <v>0.8890083839076108</v>
+        <v>0.8890083839076099</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035934656018536</v>
       </c>
       <c r="J9">
-        <v>0.9229068986475187</v>
+        <v>0.922906898647518</v>
       </c>
       <c r="K9">
         <v>1.032878990230906</v>
       </c>
       <c r="L9">
-        <v>0.9276392614991071</v>
+        <v>0.9276392614991065</v>
       </c>
       <c r="M9">
-        <v>0.9042015867806062</v>
+        <v>0.9042015867806051</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8629149277454681</v>
+        <v>0.8629149277454677</v>
       </c>
       <c r="D10">
         <v>1.011801736756268</v>
       </c>
       <c r="E10">
-        <v>0.887263359326628</v>
+        <v>0.8872633593266279</v>
       </c>
       <c r="F10">
-        <v>0.8571240139883496</v>
+        <v>0.8571240139883497</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.030044942672258</v>
       </c>
       <c r="J10">
-        <v>0.8978643196838383</v>
+        <v>0.897864319683838</v>
       </c>
       <c r="K10">
         <v>1.025961127187771</v>
       </c>
       <c r="L10">
-        <v>0.9040174717240539</v>
+        <v>0.9040174717240537</v>
       </c>
       <c r="M10">
-        <v>0.8746608246496302</v>
+        <v>0.8746608246496304</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,10 +763,10 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8479891649742975</v>
+        <v>0.8479891649742974</v>
       </c>
       <c r="D11">
-        <v>1.007823461309502</v>
+        <v>1.007823461309503</v>
       </c>
       <c r="E11">
         <v>0.8745264447448501</v>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0271436464507</v>
+        <v>1.027143646450701</v>
       </c>
       <c r="J11">
         <v>0.8854085956541268</v>
@@ -787,10 +787,10 @@
         <v>1.022599331511066</v>
       </c>
       <c r="L11">
-        <v>0.8922780950048235</v>
+        <v>0.8922780950048237</v>
       </c>
       <c r="M11">
-        <v>0.8599623593976796</v>
+        <v>0.8599623593976797</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8420561257074584</v>
+        <v>0.8420561257074571</v>
       </c>
       <c r="D12">
         <v>1.006272007201674</v>
       </c>
       <c r="E12">
-        <v>0.8694728891011904</v>
+        <v>0.869472889101189</v>
       </c>
       <c r="F12">
-        <v>0.8349611039609062</v>
+        <v>0.8349611039609049</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.025998210318521</v>
       </c>
       <c r="J12">
-        <v>0.8804596930275587</v>
+        <v>0.8804596930275573</v>
       </c>
       <c r="K12">
         <v>1.021280023924693</v>
       </c>
       <c r="L12">
-        <v>0.8876153922158163</v>
+        <v>0.887615392215815</v>
       </c>
       <c r="M12">
-        <v>0.8541196024841243</v>
+        <v>0.8541196024841231</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8433485513686695</v>
+        <v>0.8433485513686734</v>
       </c>
       <c r="D13">
-        <v>1.006608489617042</v>
+        <v>1.006608489617043</v>
       </c>
       <c r="E13">
-        <v>0.8705732655544768</v>
+        <v>0.8705732655544804</v>
       </c>
       <c r="F13">
-        <v>0.8363343365152002</v>
+        <v>0.8363343365152042</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026247306450577</v>
+        <v>1.026247306450578</v>
       </c>
       <c r="J13">
-        <v>0.8815376061992365</v>
+        <v>0.8815376061992402</v>
       </c>
       <c r="K13">
-        <v>1.021566554779529</v>
+        <v>1.021566554779531</v>
       </c>
       <c r="L13">
-        <v>0.8886308953440917</v>
+        <v>0.8886308953440951</v>
       </c>
       <c r="M13">
-        <v>0.8553923709998718</v>
+        <v>0.8553923709998758</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8475074304100647</v>
+        <v>0.8475074304100646</v>
       </c>
       <c r="D14">
         <v>1.0076968456052</v>
       </c>
       <c r="E14">
-        <v>0.8741159167793704</v>
+        <v>0.8741159167793702</v>
       </c>
       <c r="F14">
         <v>0.8407531737737032</v>
@@ -901,10 +901,10 @@
         <v>1.022491836316797</v>
       </c>
       <c r="L14">
-        <v>0.8918994204634501</v>
+        <v>0.8918994204634499</v>
       </c>
       <c r="M14">
-        <v>0.859487958923232</v>
+        <v>0.8594879589232322</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8500144966386719</v>
+        <v>0.8500144966386732</v>
       </c>
       <c r="D15">
         <v>1.008357022496653</v>
       </c>
       <c r="E15">
-        <v>0.8762527955718317</v>
+        <v>0.876252795571833</v>
       </c>
       <c r="F15">
-        <v>0.8434169228415922</v>
+        <v>0.8434169228415933</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.027535751694871</v>
       </c>
       <c r="J15">
-        <v>0.8870983144956832</v>
+        <v>0.8870983144956843</v>
       </c>
       <c r="K15">
         <v>1.023051978258094</v>
       </c>
       <c r="L15">
-        <v>0.8938702957040658</v>
+        <v>0.893870295704067</v>
       </c>
       <c r="M15">
-        <v>0.8619568519320543</v>
+        <v>0.8619568519320554</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8638574138544697</v>
+        <v>0.8638574138544693</v>
       </c>
       <c r="D16">
-        <v>1.012056477644836</v>
+        <v>1.012056477644837</v>
       </c>
       <c r="E16">
-        <v>0.88806873944006</v>
+        <v>0.8880687394400596</v>
       </c>
       <c r="F16">
-        <v>0.8581255020510102</v>
+        <v>0.85812550205101</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.030228975208775</v>
       </c>
       <c r="J16">
-        <v>0.8986510501903823</v>
+        <v>0.8986510501903819</v>
       </c>
       <c r="K16">
         <v>1.026175359411704</v>
       </c>
       <c r="L16">
-        <v>0.9047591571167786</v>
+        <v>0.9047591571167783</v>
       </c>
       <c r="M16">
-        <v>0.875588966579567</v>
+        <v>0.8755889665795669</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8719668502546146</v>
+        <v>0.8719668502546143</v>
       </c>
       <c r="D17">
-        <v>1.014265214498757</v>
+        <v>1.014265214498756</v>
       </c>
       <c r="E17">
-        <v>0.8950037696335386</v>
+        <v>0.8950037696335384</v>
       </c>
       <c r="F17">
-        <v>0.8667433028929338</v>
+        <v>0.8667433028929334</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031815854365478</v>
+        <v>1.031815854365477</v>
       </c>
       <c r="J17">
-        <v>0.9054210300115112</v>
+        <v>0.9054210300115109</v>
       </c>
       <c r="K17">
-        <v>1.028027661999168</v>
+        <v>1.028027661999167</v>
       </c>
       <c r="L17">
-        <v>0.9111425576252095</v>
+        <v>0.9111425576252092</v>
       </c>
       <c r="M17">
-        <v>0.8835751119421253</v>
+        <v>0.8835751119421251</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8765183639586418</v>
+        <v>0.8765183639586414</v>
       </c>
       <c r="D18">
         <v>1.015517915272126</v>
       </c>
       <c r="E18">
-        <v>0.8989002295077712</v>
+        <v>0.8989002295077705</v>
       </c>
       <c r="F18">
-        <v>0.8715808381386575</v>
+        <v>0.8715808381386569</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032708867963053</v>
       </c>
       <c r="J18">
-        <v>0.9092211601852571</v>
+        <v>0.9092211601852564</v>
       </c>
       <c r="K18">
         <v>1.02907405947884</v>
       </c>
       <c r="L18">
-        <v>0.9147265391352736</v>
+        <v>0.914726539135273</v>
       </c>
       <c r="M18">
-        <v>0.8880575686558705</v>
+        <v>0.8880575686558697</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8780422598115375</v>
+        <v>0.8780422598115377</v>
       </c>
       <c r="D19">
         <v>1.015939387124814</v>
       </c>
       <c r="E19">
-        <v>0.9002054540731145</v>
+        <v>0.9002054540731146</v>
       </c>
       <c r="F19">
         <v>0.8732006345733011</v>
@@ -1082,10 +1082,10 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033008183098187</v>
+        <v>1.033008183098188</v>
       </c>
       <c r="J19">
-        <v>0.9104935224968571</v>
+        <v>0.9104935224968572</v>
       </c>
       <c r="K19">
         <v>1.029425444043371</v>
@@ -1094,7 +1094,7 @@
         <v>0.9159266711314499</v>
       </c>
       <c r="M19">
-        <v>0.8895583727117171</v>
+        <v>0.8895583727117173</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.871115811588047</v>
+        <v>0.8711158115880449</v>
       </c>
       <c r="D20">
-        <v>1.014032014872959</v>
+        <v>1.014032014872958</v>
       </c>
       <c r="E20">
-        <v>0.8942755365727515</v>
+        <v>0.8942755365727497</v>
       </c>
       <c r="F20">
-        <v>0.8658388461609027</v>
+        <v>0.8658388461609008</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.031649053948505</v>
       </c>
       <c r="J20">
-        <v>0.9047105097866829</v>
+        <v>0.9047105097866809</v>
       </c>
       <c r="K20">
-        <v>1.027832535489997</v>
+        <v>1.027832535489996</v>
       </c>
       <c r="L20">
-        <v>0.9104725199888435</v>
+        <v>0.9104725199888417</v>
       </c>
       <c r="M20">
-        <v>0.8827369984442929</v>
+        <v>0.8827369984442909</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1161,7 +1161,7 @@
         <v>1.026815983856723</v>
       </c>
       <c r="J21">
-        <v>0.883994905575917</v>
+        <v>0.8839949055759169</v>
       </c>
       <c r="K21">
         <v>1.022221478316164</v>
@@ -1170,7 +1170,7 @@
         <v>0.8909460716518587</v>
       </c>
       <c r="M21">
-        <v>0.8582935267107284</v>
+        <v>0.8582935267107283</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8283410269845295</v>
+        <v>0.8283410269845309</v>
       </c>
       <c r="D22">
         <v>1.002752992704224</v>
       </c>
       <c r="E22">
-        <v>0.8578121957742117</v>
+        <v>0.857812195774213</v>
       </c>
       <c r="F22">
-        <v>0.8203871129324234</v>
+        <v>0.8203871129324253</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.023370560940151</v>
       </c>
       <c r="J22">
-        <v>0.869026271335533</v>
+        <v>0.8690262713355342</v>
       </c>
       <c r="K22">
         <v>1.018270108839924</v>
       </c>
       <c r="L22">
-        <v>0.8768463611062173</v>
+        <v>0.8768463611062186</v>
       </c>
       <c r="M22">
-        <v>0.8406125537667817</v>
+        <v>0.8406125537667832</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8381301954364418</v>
+        <v>0.8381301954364394</v>
       </c>
       <c r="D23">
-        <v>1.005254993386515</v>
+        <v>1.005254993386514</v>
       </c>
       <c r="E23">
-        <v>0.8661319488478659</v>
+        <v>0.8661319488478635</v>
       </c>
       <c r="F23">
-        <v>0.8307896121249795</v>
+        <v>0.8307896121249766</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025243047066694</v>
+        <v>1.025243047066693</v>
       </c>
       <c r="J23">
-        <v>0.8771858659043071</v>
+        <v>0.8771858659043048</v>
       </c>
       <c r="K23">
-        <v>1.020412645562022</v>
+        <v>1.020412645562021</v>
       </c>
       <c r="L23">
-        <v>0.8845313611004504</v>
+        <v>0.8845313611004481</v>
       </c>
       <c r="M23">
-        <v>0.8502533400899412</v>
+        <v>0.8502533400899386</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8715009045578016</v>
+        <v>0.8715009045578033</v>
       </c>
       <c r="D24">
         <v>1.014137496712786</v>
       </c>
       <c r="E24">
-        <v>0.8946050475798434</v>
+        <v>0.8946050475798454</v>
       </c>
       <c r="F24">
-        <v>0.8662481084330099</v>
+        <v>0.8662481084330118</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031724523551522</v>
+        <v>1.031724523551521</v>
       </c>
       <c r="J24">
-        <v>0.9050320173249616</v>
+        <v>0.9050320173249633</v>
       </c>
       <c r="K24">
         <v>1.027920808827507</v>
       </c>
       <c r="L24">
-        <v>0.9107757066701959</v>
+        <v>0.9107757066701978</v>
       </c>
       <c r="M24">
-        <v>0.8831162423453177</v>
+        <v>0.8831162423453197</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9032557564823522</v>
+        <v>0.9032557564823506</v>
       </c>
       <c r="D25">
         <v>1.023055816879813</v>
       </c>
       <c r="E25">
-        <v>0.9218466001377976</v>
+        <v>0.921846600137796</v>
       </c>
       <c r="F25">
-        <v>0.9000151185570568</v>
+        <v>0.9000151185570553</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.037974546802142</v>
       </c>
       <c r="J25">
-        <v>0.9315435063827181</v>
+        <v>0.9315435063827163</v>
       </c>
       <c r="K25">
-        <v>1.035306461550787</v>
+        <v>1.035306461550786</v>
       </c>
       <c r="L25">
-        <v>0.9357927772790373</v>
+        <v>0.9357927772790354</v>
       </c>
       <c r="M25">
-        <v>0.9143929750091976</v>
+        <v>0.9143929750091957</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9250118390415938</v>
+        <v>0.9250985486656638</v>
       </c>
       <c r="D2">
-        <v>1.029395963017075</v>
+        <v>1.029408874605142</v>
       </c>
       <c r="E2">
-        <v>0.9405862097397849</v>
+        <v>0.9406633288438324</v>
       </c>
       <c r="F2">
-        <v>0.923184990358722</v>
+        <v>0.9232704962300639</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042255652977061</v>
+        <v>1.042268204508091</v>
       </c>
       <c r="J2">
-        <v>0.9496926783127824</v>
+        <v>0.9497761667968303</v>
       </c>
       <c r="K2">
-        <v>1.040460410170473</v>
+        <v>1.040473154515289</v>
       </c>
       <c r="L2">
-        <v>0.9529403982231399</v>
+        <v>0.9530162617069626</v>
       </c>
       <c r="M2">
-        <v>0.9358294269750469</v>
+        <v>0.9359134720761403</v>
+      </c>
+      <c r="N2">
+        <v>0.967853056699483</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.939316128527273</v>
+        <v>0.9393857568478255</v>
       </c>
       <c r="D3">
-        <v>1.033652624782848</v>
+        <v>1.033662958602671</v>
       </c>
       <c r="E3">
-        <v>0.9529387833032611</v>
+        <v>0.9530008916231222</v>
       </c>
       <c r="F3">
-        <v>0.9384427479417278</v>
+        <v>0.9385112669187843</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0450490111497</v>
+        <v>1.045059077736398</v>
       </c>
       <c r="J3">
-        <v>0.9616098677786772</v>
+        <v>0.9616772417705095</v>
       </c>
       <c r="K3">
-        <v>1.043872286051303</v>
+        <v>1.043882498101154</v>
       </c>
       <c r="L3">
-        <v>0.9642114706870325</v>
+        <v>0.9642726818865809</v>
       </c>
       <c r="M3">
-        <v>0.9499289562333818</v>
+        <v>0.9499964462066012</v>
+      </c>
+      <c r="N3">
+        <v>0.975998073045506</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9480099788718316</v>
+        <v>0.9480697701764164</v>
       </c>
       <c r="D4">
-        <v>1.036269653790822</v>
+        <v>1.036278510527107</v>
       </c>
       <c r="E4">
-        <v>0.9604582549821328</v>
+        <v>0.9605116939689073</v>
       </c>
       <c r="F4">
-        <v>0.9477278714890585</v>
+        <v>0.9477866456699066</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046731798604746</v>
+        <v>1.046740437524632</v>
       </c>
       <c r="J4">
-        <v>0.9688440467810518</v>
+        <v>0.9689020691469848</v>
       </c>
       <c r="K4">
-        <v>1.045949189043756</v>
+        <v>1.045957947895093</v>
       </c>
       <c r="L4">
-        <v>0.9710585644694713</v>
+        <v>0.9711112901787939</v>
       </c>
       <c r="M4">
-        <v>0.9585009885338323</v>
+        <v>0.9585589514446176</v>
+      </c>
+      <c r="N4">
+        <v>0.9809410613017434</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9515453925375921</v>
+        <v>0.9516012897444124</v>
       </c>
       <c r="D5">
-        <v>1.037339736528737</v>
+        <v>1.037348010134607</v>
       </c>
       <c r="E5">
-        <v>0.9635186160079887</v>
+        <v>0.9635686183281642</v>
       </c>
       <c r="F5">
-        <v>0.9515066411108765</v>
+        <v>0.951561565537919</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047411886328066</v>
+        <v>1.047419960782712</v>
       </c>
       <c r="J5">
-        <v>0.9717835552755772</v>
+        <v>0.9718378609214938</v>
       </c>
       <c r="K5">
-        <v>1.046793618876087</v>
+        <v>1.046801803540369</v>
       </c>
       <c r="L5">
-        <v>0.9738419981145623</v>
+        <v>0.9738913551292725</v>
       </c>
       <c r="M5">
-        <v>0.9619875104195365</v>
+        <v>0.9620417033819825</v>
+      </c>
+      <c r="N5">
+        <v>0.9829491913701478</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.952132382581486</v>
+        <v>0.9521876389011183</v>
       </c>
       <c r="D6">
-        <v>1.037517713235428</v>
+        <v>1.037525890958316</v>
       </c>
       <c r="E6">
-        <v>0.9640268721955302</v>
+        <v>0.9640763086566992</v>
       </c>
       <c r="F6">
-        <v>0.9521342094996323</v>
+        <v>0.9521885007685458</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047524536111274</v>
+        <v>1.047532517703928</v>
       </c>
       <c r="J6">
-        <v>0.9722714644767056</v>
+        <v>0.9723251576172669</v>
       </c>
       <c r="K6">
-        <v>1.046933786730945</v>
+        <v>1.046941876955072</v>
       </c>
       <c r="L6">
-        <v>0.9743040724129658</v>
+        <v>0.9743528744882703</v>
       </c>
       <c r="M6">
-        <v>0.962566421317431</v>
+        <v>0.9626199939054878</v>
+      </c>
+      <c r="N6">
+        <v>0.9832824830518806</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9480576709470153</v>
+        <v>0.948117409326048</v>
       </c>
       <c r="D7">
-        <v>1.036284067342558</v>
+        <v>1.036292916147255</v>
       </c>
       <c r="E7">
-        <v>0.9604995290515863</v>
+        <v>0.9605529213478662</v>
       </c>
       <c r="F7">
-        <v>0.9477788346985776</v>
+        <v>0.9478375565265249</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046740990495946</v>
+        <v>1.046749621741441</v>
       </c>
       <c r="J7">
-        <v>0.9688837096848884</v>
+        <v>0.9689416815925983</v>
       </c>
       <c r="K7">
-        <v>1.045960582019713</v>
+        <v>1.045969333063018</v>
       </c>
       <c r="L7">
-        <v>0.9710961166434888</v>
+        <v>0.9711487966046956</v>
       </c>
       <c r="M7">
-        <v>0.9585480184768665</v>
+        <v>0.958605930143854</v>
+      </c>
+      <c r="N7">
+        <v>0.9809681586883445</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9299724649966933</v>
+        <v>0.9300531156518174</v>
       </c>
       <c r="D8">
-        <v>1.030864783401512</v>
+        <v>1.030876778831852</v>
       </c>
       <c r="E8">
-        <v>0.9448672171112344</v>
+        <v>0.9449390180407173</v>
       </c>
       <c r="F8">
-        <v>0.9284737921406783</v>
+        <v>0.9285532631497441</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043227162969583</v>
+        <v>1.043238832221485</v>
       </c>
       <c r="J8">
-        <v>0.9538272455527982</v>
+        <v>0.9539050356934012</v>
       </c>
       <c r="K8">
-        <v>1.041642292193149</v>
+        <v>1.041654137052942</v>
       </c>
       <c r="L8">
-        <v>0.9568496784212013</v>
+        <v>0.9569203563984874</v>
       </c>
       <c r="M8">
-        <v>0.9407184870249025</v>
+        <v>0.9407966580875472</v>
+      </c>
+      <c r="N8">
+        <v>0.9706791462092966</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8929097420957208</v>
+        <v>0.8930398577475369</v>
       </c>
       <c r="D9">
-        <v>1.020103876042739</v>
+        <v>1.020123398730872</v>
       </c>
       <c r="E9">
-        <v>0.9129562068906302</v>
+        <v>0.9130712165389077</v>
       </c>
       <c r="F9">
-        <v>0.8890083839076099</v>
+        <v>0.8891374092708678</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035934656018536</v>
+        <v>1.035953550807466</v>
       </c>
       <c r="J9">
-        <v>0.922906898647518</v>
+        <v>0.9230306749823262</v>
       </c>
       <c r="K9">
-        <v>1.032878990230906</v>
+        <v>1.032898211925196</v>
       </c>
       <c r="L9">
-        <v>0.9276392614991065</v>
+        <v>0.9277519063341824</v>
       </c>
       <c r="M9">
-        <v>0.9042015867806051</v>
+        <v>0.9043277656260154</v>
+      </c>
+      <c r="N9">
+        <v>0.9495417987863559</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8629149277454677</v>
+        <v>0.8630943680278089</v>
       </c>
       <c r="D10">
-        <v>1.011801736756268</v>
+        <v>1.011828839986465</v>
       </c>
       <c r="E10">
-        <v>0.8872633593266279</v>
+        <v>0.8874209920141596</v>
       </c>
       <c r="F10">
-        <v>0.8571240139883497</v>
+        <v>0.8573030485785981</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030044942672258</v>
+        <v>1.030071075550541</v>
       </c>
       <c r="J10">
-        <v>0.897864319683838</v>
+        <v>0.8980328653911952</v>
       </c>
       <c r="K10">
-        <v>1.025961127187771</v>
+        <v>1.025987755755196</v>
       </c>
       <c r="L10">
-        <v>0.9040174717240537</v>
+        <v>0.9041711989993305</v>
       </c>
       <c r="M10">
-        <v>0.8746608246496304</v>
+        <v>0.8748349884789797</v>
+      </c>
+      <c r="N10">
+        <v>0.9324261969390026</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8479891649742974</v>
+        <v>0.8481975827990305</v>
       </c>
       <c r="D11">
-        <v>1.007823461309503</v>
+        <v>1.007855034082892</v>
       </c>
       <c r="E11">
-        <v>0.8745264447448501</v>
+        <v>0.8747089190498166</v>
       </c>
       <c r="F11">
-        <v>0.8412650157105517</v>
+        <v>0.8414736733546083</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027143646450701</v>
+        <v>1.027174035915179</v>
       </c>
       <c r="J11">
-        <v>0.8854085956541268</v>
+        <v>0.8856030181314977</v>
       </c>
       <c r="K11">
-        <v>1.022599331511066</v>
+        <v>1.022630320880812</v>
       </c>
       <c r="L11">
-        <v>0.8922780950048237</v>
+        <v>0.8924556507158827</v>
       </c>
       <c r="M11">
-        <v>0.8599623593976797</v>
+        <v>0.8601647635722406</v>
+      </c>
+      <c r="N11">
+        <v>0.9239176596316578</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8420561257074571</v>
+        <v>0.8422771023747065</v>
       </c>
       <c r="D12">
-        <v>1.006272007201674</v>
+        <v>1.006305518476159</v>
       </c>
       <c r="E12">
-        <v>0.869472889101189</v>
+        <v>0.8696660878080462</v>
       </c>
       <c r="F12">
-        <v>0.8349611039609049</v>
+        <v>0.8351826508636664</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025998210318521</v>
+        <v>1.026030444152717</v>
       </c>
       <c r="J12">
-        <v>0.8804596930275573</v>
+        <v>0.8806652452713447</v>
       </c>
       <c r="K12">
-        <v>1.021280023924693</v>
+        <v>1.021312903616977</v>
       </c>
       <c r="L12">
-        <v>0.887615392215815</v>
+        <v>0.8878032127834029</v>
       </c>
       <c r="M12">
-        <v>0.8541196024841231</v>
+        <v>0.8543342569946364</v>
+      </c>
+      <c r="N12">
+        <v>0.92053824102834</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8433485513686734</v>
+        <v>0.8435667366750798</v>
       </c>
       <c r="D13">
-        <v>1.006608489617043</v>
+        <v>1.00664157000218</v>
       </c>
       <c r="E13">
-        <v>0.8705732655544804</v>
+        <v>0.8707640827303444</v>
       </c>
       <c r="F13">
-        <v>0.8363343365152042</v>
+        <v>0.8365530160830038</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026247306450578</v>
+        <v>1.026279130398053</v>
       </c>
       <c r="J13">
-        <v>0.8815376061992402</v>
+        <v>0.8817406889078839</v>
       </c>
       <c r="K13">
-        <v>1.021566554779531</v>
+        <v>1.021599014337037</v>
       </c>
       <c r="L13">
-        <v>0.8886308953440951</v>
+        <v>0.8888164375023956</v>
       </c>
       <c r="M13">
-        <v>0.8553923709998758</v>
+        <v>0.8556043021550496</v>
+      </c>
+      <c r="N13">
+        <v>0.9212742424200753</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8475074304100646</v>
+        <v>0.8477168441286718</v>
       </c>
       <c r="D14">
-        <v>1.0076968456052</v>
+        <v>1.007728572080773</v>
       </c>
       <c r="E14">
-        <v>0.8741159167793702</v>
+        <v>0.8742992424068651</v>
       </c>
       <c r="F14">
-        <v>0.8407531737737032</v>
+        <v>0.8409628524318428</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02705046209638</v>
+        <v>1.027080997834031</v>
       </c>
       <c r="J14">
-        <v>0.8850067121913932</v>
+        <v>0.8852020190354251</v>
       </c>
       <c r="K14">
-        <v>1.022491836316797</v>
+        <v>1.022522975588556</v>
       </c>
       <c r="L14">
-        <v>0.8918994204634499</v>
+        <v>0.8920777914784859</v>
       </c>
       <c r="M14">
-        <v>0.8594879589232322</v>
+        <v>0.859691334288418</v>
+      </c>
+      <c r="N14">
+        <v>0.9236432009088476</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8500144966386732</v>
+        <v>0.8502187716825276</v>
       </c>
       <c r="D15">
-        <v>1.008357022496653</v>
+        <v>1.008387955935512</v>
       </c>
       <c r="E15">
-        <v>0.876252795571833</v>
+        <v>0.8764317268050268</v>
       </c>
       <c r="F15">
-        <v>0.8434169228415933</v>
+        <v>0.8436213352445359</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027535751694871</v>
+        <v>1.027565532658065</v>
       </c>
       <c r="J15">
-        <v>0.8870983144956843</v>
+        <v>0.8872890547242047</v>
       </c>
       <c r="K15">
-        <v>1.023051978258094</v>
+        <v>1.023082344061181</v>
       </c>
       <c r="L15">
-        <v>0.893870295704067</v>
+        <v>0.8940444573661195</v>
       </c>
       <c r="M15">
-        <v>0.8619568519320554</v>
+        <v>0.8621552165337429</v>
+      </c>
+      <c r="N15">
+        <v>0.9250716722780064</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8638574138544693</v>
+        <v>0.8640351370078773</v>
       </c>
       <c r="D16">
-        <v>1.012056477644837</v>
+        <v>1.012083316261533</v>
       </c>
       <c r="E16">
-        <v>0.8880687394400596</v>
+        <v>0.8882248956550214</v>
       </c>
       <c r="F16">
-        <v>0.85812550205101</v>
+        <v>0.8583027866273762</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030228975208775</v>
+        <v>1.030254855870659</v>
       </c>
       <c r="J16">
-        <v>0.8986510501903819</v>
+        <v>0.8988180533266179</v>
       </c>
       <c r="K16">
-        <v>1.026175359411704</v>
+        <v>1.026201729682437</v>
       </c>
       <c r="L16">
-        <v>0.9047591571167783</v>
+        <v>0.904911465695611</v>
       </c>
       <c r="M16">
-        <v>0.8755889665795669</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.875761458097575</v>
+      </c>
+      <c r="N16">
+        <v>0.932963739023289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8719668502546143</v>
+        <v>0.8721302906503637</v>
       </c>
       <c r="D17">
-        <v>1.014265214498756</v>
+        <v>1.014289853655074</v>
       </c>
       <c r="E17">
-        <v>0.8950037696335384</v>
+        <v>0.8951476248070924</v>
       </c>
       <c r="F17">
-        <v>0.8667433028929334</v>
+        <v>0.866906055602255</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031815854365477</v>
+        <v>1.031839637528631</v>
       </c>
       <c r="J17">
-        <v>0.9054210300115109</v>
+        <v>0.9055751597831466</v>
       </c>
       <c r="K17">
-        <v>1.028027661999167</v>
+        <v>1.028051884692722</v>
       </c>
       <c r="L17">
-        <v>0.9111425576252092</v>
+        <v>0.9112830349539963</v>
       </c>
       <c r="M17">
-        <v>0.8835751119421251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8837336984996198</v>
+      </c>
+      <c r="N17">
+        <v>0.9375899091899904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8765183639586414</v>
+        <v>0.8766741504083041</v>
       </c>
       <c r="D18">
-        <v>1.015517915272126</v>
+        <v>1.015541377123146</v>
       </c>
       <c r="E18">
-        <v>0.8989002295077705</v>
+        <v>0.8990374777049259</v>
       </c>
       <c r="F18">
-        <v>0.8715808381386569</v>
+        <v>0.8717358218072577</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032708867963053</v>
+        <v>1.032731527527362</v>
       </c>
       <c r="J18">
-        <v>0.9092211601852564</v>
+        <v>0.9093683589373598</v>
       </c>
       <c r="K18">
-        <v>1.02907405947884</v>
+        <v>1.029097132138531</v>
       </c>
       <c r="L18">
-        <v>0.914726539135273</v>
+        <v>0.914860652918164</v>
       </c>
       <c r="M18">
-        <v>0.8880575686558697</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8882087074446984</v>
+      </c>
+      <c r="N18">
+        <v>0.940187028799745</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8780422598115377</v>
+        <v>0.8781955381414621</v>
       </c>
       <c r="D19">
-        <v>1.015939387124814</v>
+        <v>1.015962463427796</v>
       </c>
       <c r="E19">
-        <v>0.9002054540731146</v>
+        <v>0.9003405349091089</v>
       </c>
       <c r="F19">
-        <v>0.8732006345733011</v>
+        <v>0.8733530752723037</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033008183098188</v>
+        <v>1.033030474557613</v>
       </c>
       <c r="J19">
-        <v>0.9104935224968572</v>
+        <v>0.9106384449408841</v>
       </c>
       <c r="K19">
-        <v>1.029425444043371</v>
+        <v>1.029448140002774</v>
       </c>
       <c r="L19">
-        <v>0.9159266711314499</v>
+        <v>0.9160586959934031</v>
       </c>
       <c r="M19">
-        <v>0.8895583727117173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8897070715137886</v>
+      </c>
+      <c r="N19">
+        <v>0.9410566476473766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8711158115880449</v>
+        <v>0.8712807110534997</v>
       </c>
       <c r="D20">
-        <v>1.014032014872958</v>
+        <v>1.014056878575986</v>
       </c>
       <c r="E20">
-        <v>0.8942755365727497</v>
+        <v>0.8944206500315477</v>
       </c>
       <c r="F20">
-        <v>0.8658388461609008</v>
+        <v>0.8660030813572324</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031649053948505</v>
+        <v>1.031673051342623</v>
       </c>
       <c r="J20">
-        <v>0.9047105097866809</v>
+        <v>0.9048659582077799</v>
       </c>
       <c r="K20">
-        <v>1.027832535489996</v>
+        <v>1.027856977487237</v>
       </c>
       <c r="L20">
-        <v>0.9104725199888417</v>
+        <v>0.9106142085208169</v>
       </c>
       <c r="M20">
-        <v>0.8827369984442909</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8828970050642222</v>
+      </c>
+      <c r="N20">
+        <v>0.9371043453336471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8462945350138292</v>
+        <v>0.8465064743990972</v>
       </c>
       <c r="D21">
-        <v>1.007378559498261</v>
+        <v>1.007410675791274</v>
       </c>
       <c r="E21">
-        <v>0.8730824613182292</v>
+        <v>0.8732679452685833</v>
       </c>
       <c r="F21">
-        <v>0.8394644722079591</v>
+        <v>0.8396767410831291</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026815983856723</v>
+        <v>1.026846890542791</v>
       </c>
       <c r="J21">
-        <v>0.8839949055759169</v>
+        <v>0.8841924538383316</v>
       </c>
       <c r="K21">
-        <v>1.022221478316164</v>
+        <v>1.022252997751532</v>
       </c>
       <c r="L21">
-        <v>0.8909460716518587</v>
+        <v>0.8911265093111357</v>
       </c>
       <c r="M21">
-        <v>0.8582935267107283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8584993652787419</v>
+      </c>
+      <c r="N21">
+        <v>0.9229522278209203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8283410269845309</v>
+        <v>0.8285937468065588</v>
       </c>
       <c r="D22">
-        <v>1.002752992704224</v>
+        <v>1.002791403854535</v>
       </c>
       <c r="E22">
-        <v>0.857812195774213</v>
+        <v>0.8580323966722402</v>
       </c>
       <c r="F22">
-        <v>0.8203871129324253</v>
+        <v>0.8206413639610438</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023370560940151</v>
+        <v>1.023407453135732</v>
       </c>
       <c r="J22">
-        <v>0.8690262713355342</v>
+        <v>0.8692597492928587</v>
       </c>
       <c r="K22">
-        <v>1.018270108839924</v>
+        <v>1.018307764571226</v>
       </c>
       <c r="L22">
-        <v>0.8768463611062186</v>
+        <v>0.8770599752067881</v>
       </c>
       <c r="M22">
-        <v>0.8406125537667832</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8408582002443027</v>
+      </c>
+      <c r="N22">
+        <v>0.9127339572860681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8381301954364394</v>
+        <v>0.8383598512941249</v>
       </c>
       <c r="D23">
-        <v>1.005254993386514</v>
+        <v>1.005289844478185</v>
       </c>
       <c r="E23">
-        <v>0.8661319488478635</v>
+        <v>0.8663325449628987</v>
       </c>
       <c r="F23">
-        <v>0.8307896121249766</v>
+        <v>0.8310200834832298</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025243047066693</v>
+        <v>1.025276555146184</v>
       </c>
       <c r="J23">
-        <v>0.8771858659043048</v>
+        <v>0.8773990818562442</v>
       </c>
       <c r="K23">
-        <v>1.020412645562021</v>
+        <v>1.020446831478274</v>
       </c>
       <c r="L23">
-        <v>0.8845313611004481</v>
+        <v>0.884726255012671</v>
       </c>
       <c r="M23">
-        <v>0.8502533400899386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8504764643784472</v>
+      </c>
+      <c r="N23">
+        <v>0.918303098895054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8715009045578033</v>
+        <v>0.8716651426818808</v>
       </c>
       <c r="D24">
-        <v>1.014137496712786</v>
+        <v>1.014162258632852</v>
       </c>
       <c r="E24">
-        <v>0.8946050475798454</v>
+        <v>0.8947495907526343</v>
       </c>
       <c r="F24">
-        <v>0.8662481084330118</v>
+        <v>0.8664116716157045</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031724523551521</v>
+        <v>1.031748423841398</v>
       </c>
       <c r="J24">
-        <v>0.9050320173249633</v>
+        <v>0.905186868154169</v>
       </c>
       <c r="K24">
-        <v>1.027920808827507</v>
+        <v>1.027945151419951</v>
       </c>
       <c r="L24">
-        <v>0.9107757066701978</v>
+        <v>0.9109168462830759</v>
       </c>
       <c r="M24">
-        <v>0.8831162423453197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8832756052926877</v>
+      </c>
+      <c r="N24">
+        <v>0.9373240599417528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9032557564823506</v>
+        <v>0.9033709997297052</v>
       </c>
       <c r="D25">
-        <v>1.023055816879813</v>
+        <v>1.023073066068404</v>
       </c>
       <c r="E25">
-        <v>0.921846600137796</v>
+        <v>0.9219486684471015</v>
       </c>
       <c r="F25">
-        <v>0.9000151185570553</v>
+        <v>0.9001291778345704</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037974546802142</v>
+        <v>1.037991264261894</v>
       </c>
       <c r="J25">
-        <v>0.9315435063827163</v>
+        <v>0.9316535803558423</v>
       </c>
       <c r="K25">
-        <v>1.035306461550786</v>
+        <v>1.035323458076017</v>
       </c>
       <c r="L25">
-        <v>0.9357927772790354</v>
+        <v>0.9358928902065634</v>
       </c>
       <c r="M25">
-        <v>0.9143929750091957</v>
+        <v>0.9145047072191018</v>
+      </c>
+      <c r="N25">
+        <v>0.9554460132551448</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9250985486656638</v>
+        <v>1.002002075589615</v>
       </c>
       <c r="D2">
-        <v>1.029408874605142</v>
+        <v>1.051535301357227</v>
       </c>
       <c r="E2">
-        <v>0.9406633288438324</v>
+        <v>1.020053549046161</v>
       </c>
       <c r="F2">
-        <v>0.9232704962300639</v>
+        <v>1.042177869468887</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042268204508091</v>
+        <v>1.063779672711006</v>
       </c>
       <c r="J2">
-        <v>0.9497761667968303</v>
+        <v>1.024123069374343</v>
       </c>
       <c r="K2">
-        <v>1.040473154515289</v>
+        <v>1.062320488858586</v>
       </c>
       <c r="L2">
-        <v>0.9530162617069626</v>
+        <v>1.031240400413408</v>
       </c>
       <c r="M2">
-        <v>0.9359134720761403</v>
+        <v>1.053079283670038</v>
       </c>
       <c r="N2">
-        <v>0.967853056699483</v>
+        <v>1.025577441601412</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9393857568478255</v>
+        <v>1.015726660486365</v>
       </c>
       <c r="D3">
-        <v>1.033662958602671</v>
+        <v>1.058741594104173</v>
       </c>
       <c r="E3">
-        <v>0.9530008916231222</v>
+        <v>1.031441676135708</v>
       </c>
       <c r="F3">
-        <v>0.9385112669187843</v>
+        <v>1.052139268990343</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045059077736398</v>
+        <v>1.067273224369786</v>
       </c>
       <c r="J3">
-        <v>0.9616772417705095</v>
+        <v>1.03579759260205</v>
       </c>
       <c r="K3">
-        <v>1.043882498101154</v>
+        <v>1.068674235243351</v>
       </c>
       <c r="L3">
-        <v>0.9642726818865809</v>
+        <v>1.041687459924658</v>
       </c>
       <c r="M3">
-        <v>0.9499964462066012</v>
+        <v>1.062145805954679</v>
       </c>
       <c r="N3">
-        <v>0.975998073045506</v>
+        <v>1.03726854399119</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9480697701764164</v>
+        <v>1.024177629686275</v>
       </c>
       <c r="D4">
-        <v>1.036278510527107</v>
+        <v>1.063192081581097</v>
       </c>
       <c r="E4">
-        <v>0.9605116939689073</v>
+        <v>1.038460078286497</v>
       </c>
       <c r="F4">
-        <v>0.9477866456699066</v>
+        <v>1.05828491477438</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046740437524632</v>
+        <v>1.069410420342398</v>
       </c>
       <c r="J4">
-        <v>0.9689020691469848</v>
+        <v>1.04298245711629</v>
       </c>
       <c r="K4">
-        <v>1.045957947895093</v>
+        <v>1.072583271277216</v>
       </c>
       <c r="L4">
-        <v>0.9711112901787939</v>
+        <v>1.048115467378729</v>
       </c>
       <c r="M4">
-        <v>0.9585589514446176</v>
+        <v>1.067727324720933</v>
       </c>
       <c r="N4">
-        <v>0.9809410613017434</v>
+        <v>1.044463611837155</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9516012897444124</v>
+        <v>1.027637310342374</v>
       </c>
       <c r="D5">
-        <v>1.037348010134607</v>
+        <v>1.06501648692298</v>
       </c>
       <c r="E5">
-        <v>0.9635686183281642</v>
+        <v>1.041334419222253</v>
       </c>
       <c r="F5">
-        <v>0.951561565537919</v>
+        <v>1.060803105971611</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047419960782712</v>
+        <v>1.070281693721495</v>
       </c>
       <c r="J5">
-        <v>0.9718378609214938</v>
+        <v>1.045922727886068</v>
       </c>
       <c r="K5">
-        <v>1.046801803540369</v>
+        <v>1.074182256484126</v>
       </c>
       <c r="L5">
-        <v>0.9738913551292725</v>
+        <v>1.050745559848005</v>
       </c>
       <c r="M5">
-        <v>0.9620417033819825</v>
+        <v>1.070011554425456</v>
       </c>
       <c r="N5">
-        <v>0.9829491913701478</v>
+        <v>1.04740805812868</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9521876389011183</v>
+        <v>1.028213002588687</v>
       </c>
       <c r="D6">
-        <v>1.037525890958316</v>
+        <v>1.065320194045388</v>
       </c>
       <c r="E6">
-        <v>0.9640763086566992</v>
+        <v>1.041812768157768</v>
       </c>
       <c r="F6">
-        <v>0.9521885007685458</v>
+        <v>1.061222252200419</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047532517703928</v>
+        <v>1.070426450454144</v>
       </c>
       <c r="J6">
-        <v>0.9723251576172669</v>
+        <v>1.046411921190902</v>
       </c>
       <c r="K6">
-        <v>1.046941876955072</v>
+        <v>1.074448237620389</v>
       </c>
       <c r="L6">
-        <v>0.9743528744882703</v>
+        <v>1.051183117461289</v>
       </c>
       <c r="M6">
-        <v>0.9626199939054878</v>
+        <v>1.070391595092156</v>
       </c>
       <c r="N6">
-        <v>0.9832824830518806</v>
+        <v>1.047897946144118</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.948117409326048</v>
+        <v>1.024224212151578</v>
       </c>
       <c r="D7">
-        <v>1.036292916147255</v>
+        <v>1.063216637206989</v>
       </c>
       <c r="E7">
-        <v>0.9605529213478662</v>
+        <v>1.038498775445095</v>
       </c>
       <c r="F7">
-        <v>0.9478375565265249</v>
+        <v>1.0583188123583</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046749621741441</v>
+        <v>1.069422166409633</v>
       </c>
       <c r="J7">
-        <v>0.9689416815925983</v>
+        <v>1.043022050596593</v>
       </c>
       <c r="K7">
-        <v>1.045969333063018</v>
+        <v>1.072604806450118</v>
       </c>
       <c r="L7">
-        <v>0.9711487966046956</v>
+        <v>1.048150885929973</v>
       </c>
       <c r="M7">
-        <v>0.958605930143854</v>
+        <v>1.067758083991038</v>
       </c>
       <c r="N7">
-        <v>0.9809681586883445</v>
+        <v>1.044503261544741</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9300531156518174</v>
+        <v>1.006735746142633</v>
       </c>
       <c r="D8">
-        <v>1.030876778831852</v>
+        <v>1.054017489315257</v>
       </c>
       <c r="E8">
-        <v>0.9449390180407173</v>
+        <v>1.02397982781271</v>
       </c>
       <c r="F8">
-        <v>0.9285532631497441</v>
+        <v>1.045610672533908</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043238832221485</v>
+        <v>1.064987399211966</v>
       </c>
       <c r="J8">
-        <v>0.9539050356934012</v>
+        <v>1.028150346787618</v>
       </c>
       <c r="K8">
-        <v>1.041654137052942</v>
+        <v>1.064512289469164</v>
       </c>
       <c r="L8">
-        <v>0.9569203563984874</v>
+        <v>1.034844485963874</v>
       </c>
       <c r="M8">
-        <v>0.9407966580875472</v>
+        <v>1.056206326815077</v>
       </c>
       <c r="N8">
-        <v>0.9706791462092966</v>
+        <v>1.029610438210549</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8930398577475369</v>
+        <v>0.9720840538932169</v>
       </c>
       <c r="D9">
-        <v>1.020123398730872</v>
+        <v>1.035944223212911</v>
       </c>
       <c r="E9">
-        <v>0.9130712165389077</v>
+        <v>0.9952844544921747</v>
       </c>
       <c r="F9">
-        <v>0.8891374092708678</v>
+        <v>1.020566183387232</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035953550807466</v>
+        <v>1.056099465764256</v>
       </c>
       <c r="J9">
-        <v>0.9230306749823262</v>
+        <v>0.9986626279009923</v>
       </c>
       <c r="K9">
-        <v>1.032898211925196</v>
+        <v>1.048479857842862</v>
       </c>
       <c r="L9">
-        <v>0.9277519063341824</v>
+        <v>1.008454504265943</v>
       </c>
       <c r="M9">
-        <v>0.9043277656260154</v>
+        <v>1.033334173833278</v>
       </c>
       <c r="N9">
-        <v>0.9495417987863559</v>
+        <v>1.000080843380816</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8630943680278089</v>
+        <v>0.9454087636148214</v>
       </c>
       <c r="D10">
-        <v>1.011828839986465</v>
+        <v>1.022215232575167</v>
       </c>
       <c r="E10">
-        <v>0.8874209920141596</v>
+        <v>0.9732837281238113</v>
       </c>
       <c r="F10">
-        <v>0.8573030485785981</v>
+        <v>1.001445219163871</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030071075550541</v>
+        <v>1.049219488121638</v>
       </c>
       <c r="J10">
-        <v>0.8980328653911952</v>
+        <v>0.9759692114495144</v>
       </c>
       <c r="K10">
-        <v>1.025987755755196</v>
+        <v>1.036194643405588</v>
       </c>
       <c r="L10">
-        <v>0.9041711989993305</v>
+        <v>0.9881527095539786</v>
       </c>
       <c r="M10">
-        <v>0.8748349884789797</v>
+        <v>1.01578842866814</v>
       </c>
       <c r="N10">
-        <v>0.9324261969390026</v>
+        <v>0.9773551996750058</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8481975827990305</v>
+        <v>0.9326830817222268</v>
       </c>
       <c r="D11">
-        <v>1.007855034082892</v>
+        <v>1.015733563931834</v>
       </c>
       <c r="E11">
-        <v>0.8747089190498166</v>
+        <v>0.9628220153384566</v>
       </c>
       <c r="F11">
-        <v>0.8414736733546083</v>
+        <v>0.9923816564196497</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027174035915179</v>
+        <v>1.045938384569182</v>
       </c>
       <c r="J11">
-        <v>0.8856030181314977</v>
+        <v>0.9651516390531799</v>
       </c>
       <c r="K11">
-        <v>1.022630320880812</v>
+        <v>1.030364745139653</v>
       </c>
       <c r="L11">
-        <v>0.8924556507158827</v>
+        <v>0.9784808451920158</v>
       </c>
       <c r="M11">
-        <v>0.8601647635722406</v>
+        <v>1.007448687976833</v>
       </c>
       <c r="N11">
-        <v>0.9239176596316578</v>
+        <v>0.9665222650850758</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8422771023747065</v>
+        <v>0.9277395597097985</v>
       </c>
       <c r="D12">
-        <v>1.006305518476159</v>
+        <v>1.013228573808081</v>
       </c>
       <c r="E12">
-        <v>0.8696660878080462</v>
+        <v>0.9587645618273607</v>
       </c>
       <c r="F12">
-        <v>0.8351826508636664</v>
+        <v>0.9888718734066573</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026030444152717</v>
+        <v>1.044665105907833</v>
       </c>
       <c r="J12">
-        <v>0.8806652452713447</v>
+        <v>0.9609514706404413</v>
       </c>
       <c r="K12">
-        <v>1.021312903616977</v>
+        <v>1.028106649062711</v>
       </c>
       <c r="L12">
-        <v>0.8878032127834029</v>
+        <v>0.974726831626211</v>
       </c>
       <c r="M12">
-        <v>0.8543342569946364</v>
+        <v>1.004215421959268</v>
       </c>
       <c r="N12">
-        <v>0.92053824102834</v>
+        <v>0.9623161319514248</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8435667366750798</v>
+        <v>0.9288105659767482</v>
       </c>
       <c r="D13">
-        <v>1.00664157000218</v>
+        <v>1.013770642874796</v>
       </c>
       <c r="E13">
-        <v>0.8707640827303444</v>
+        <v>0.9596432777825428</v>
       </c>
       <c r="F13">
-        <v>0.8365530160830038</v>
+        <v>0.9896317171353308</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026279130398053</v>
+        <v>1.044940877868891</v>
       </c>
       <c r="J13">
-        <v>0.8817406889078839</v>
+        <v>0.9618613192832108</v>
       </c>
       <c r="K13">
-        <v>1.021599014337037</v>
+        <v>1.028595525855946</v>
       </c>
       <c r="L13">
-        <v>0.8888164375023956</v>
+        <v>0.9755399656949567</v>
       </c>
       <c r="M13">
-        <v>0.8556043021550496</v>
+        <v>1.004915578060016</v>
       </c>
       <c r="N13">
-        <v>0.9212742424200753</v>
+        <v>0.9632272726836282</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8477168441286718</v>
+        <v>0.9322791508036987</v>
       </c>
       <c r="D14">
-        <v>1.007728572080773</v>
+        <v>1.015528605191267</v>
       </c>
       <c r="E14">
-        <v>0.8742992424068651</v>
+        <v>0.9624903417630788</v>
       </c>
       <c r="F14">
-        <v>0.8409628524318428</v>
+        <v>0.9920946355968033</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027080997834031</v>
+        <v>1.045834311590567</v>
       </c>
       <c r="J14">
-        <v>0.8852020190354251</v>
+        <v>0.964808398733229</v>
       </c>
       <c r="K14">
-        <v>1.022522975588556</v>
+        <v>1.030180091360448</v>
       </c>
       <c r="L14">
-        <v>0.8920777914784859</v>
+        <v>0.9781740355172209</v>
       </c>
       <c r="M14">
-        <v>0.859691334288418</v>
+        <v>1.007184358279759</v>
       </c>
       <c r="N14">
-        <v>0.9236432009088476</v>
+        <v>0.9661785373245002</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8502187716825276</v>
+        <v>0.9343861155214641</v>
       </c>
       <c r="D15">
-        <v>1.008387955935512</v>
+        <v>1.01659823869647</v>
       </c>
       <c r="E15">
-        <v>0.8764317268050268</v>
+        <v>0.9642206760006254</v>
       </c>
       <c r="F15">
-        <v>0.8436213352445359</v>
+        <v>0.9935922422889257</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027565532658065</v>
+        <v>1.046377232966266</v>
       </c>
       <c r="J15">
-        <v>0.8872890547242047</v>
+        <v>0.9665988826545184</v>
       </c>
       <c r="K15">
-        <v>1.023082344061181</v>
+        <v>1.031143553165053</v>
       </c>
       <c r="L15">
-        <v>0.8940444573661195</v>
+        <v>0.9797745376988408</v>
       </c>
       <c r="M15">
-        <v>0.8621552165337429</v>
+        <v>1.008563413787565</v>
       </c>
       <c r="N15">
-        <v>0.9250716722780064</v>
+        <v>0.9679715639383293</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8640351370078773</v>
+        <v>0.9462254459479579</v>
       </c>
       <c r="D16">
-        <v>1.012083316261533</v>
+        <v>1.022632779657243</v>
       </c>
       <c r="E16">
-        <v>0.8882248956550214</v>
+        <v>0.9739559165161796</v>
       </c>
       <c r="F16">
-        <v>0.8583027866273762</v>
+        <v>1.002028238926158</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030254855870659</v>
+        <v>1.049430166070529</v>
       </c>
       <c r="J16">
-        <v>0.8988180533266179</v>
+        <v>0.9766636741538135</v>
       </c>
       <c r="K16">
-        <v>1.026201729682437</v>
+        <v>1.036569558262426</v>
       </c>
       <c r="L16">
-        <v>0.904911465695611</v>
+        <v>0.9887737694920018</v>
       </c>
       <c r="M16">
-        <v>0.875761458097575</v>
+        <v>1.016324398822998</v>
       </c>
       <c r="N16">
-        <v>0.932963739023289</v>
+        <v>0.9780506485960013</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8721302906503637</v>
+        <v>0.9533129910581815</v>
       </c>
       <c r="D17">
-        <v>1.014289853655074</v>
+        <v>1.026264118524813</v>
       </c>
       <c r="E17">
-        <v>0.8951476248070924</v>
+        <v>0.9797933185410297</v>
       </c>
       <c r="F17">
-        <v>0.866906055602255</v>
+        <v>1.007094537970033</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031839637528631</v>
+        <v>1.051258744037091</v>
       </c>
       <c r="J17">
-        <v>0.9055751597831466</v>
+        <v>0.9826915443031156</v>
       </c>
       <c r="K17">
-        <v>1.028051884692722</v>
+        <v>1.039826797668334</v>
       </c>
       <c r="L17">
-        <v>0.9112830349539963</v>
+        <v>0.9941651696599115</v>
       </c>
       <c r="M17">
-        <v>0.8837336984996198</v>
+        <v>1.02097930729369</v>
       </c>
       <c r="N17">
-        <v>0.9375899091899904</v>
+        <v>0.9840870790123214</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8766741504083041</v>
+        <v>0.9573369326913767</v>
       </c>
       <c r="D18">
-        <v>1.015541377123146</v>
+        <v>1.028331773591517</v>
       </c>
       <c r="E18">
-        <v>0.8990374777049259</v>
+        <v>0.9831104666724212</v>
       </c>
       <c r="F18">
-        <v>0.8717358218072577</v>
+        <v>1.009976041695311</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032731527527362</v>
+        <v>1.052296926374302</v>
       </c>
       <c r="J18">
-        <v>0.9093683589373598</v>
+        <v>0.9861145698803003</v>
       </c>
       <c r="K18">
-        <v>1.029097132138531</v>
+        <v>1.041678749769782</v>
       </c>
       <c r="L18">
-        <v>0.914860652918164</v>
+        <v>0.99722724625077</v>
       </c>
       <c r="M18">
-        <v>0.8882087074446984</v>
+        <v>1.023624769193428</v>
       </c>
       <c r="N18">
-        <v>0.940187028799745</v>
+        <v>0.9875149656784524</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8781955381414621</v>
+        <v>0.958691327513351</v>
       </c>
       <c r="D19">
-        <v>1.015962463427796</v>
+        <v>1.029028659055858</v>
       </c>
       <c r="E19">
-        <v>0.9003405349091089</v>
+        <v>0.9842274345416024</v>
       </c>
       <c r="F19">
-        <v>0.8733530752723037</v>
+        <v>1.010946721338688</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033030474557613</v>
+        <v>1.052646335248213</v>
       </c>
       <c r="J19">
-        <v>0.9106384449408841</v>
+        <v>0.9872668068309213</v>
       </c>
       <c r="K19">
-        <v>1.029448140002774</v>
+        <v>1.042302489951204</v>
       </c>
       <c r="L19">
-        <v>0.9160586959934031</v>
+        <v>0.998258053477469</v>
       </c>
       <c r="M19">
-        <v>0.8897070715137886</v>
+        <v>1.024515593374265</v>
       </c>
       <c r="N19">
-        <v>0.9410566476473766</v>
+        <v>0.9886688389377067</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8712807110534997</v>
+        <v>0.952564200582752</v>
       </c>
       <c r="D20">
-        <v>1.014056878575986</v>
+        <v>1.025879831769969</v>
       </c>
       <c r="E20">
-        <v>0.8944206500315477</v>
+        <v>0.9791762845886314</v>
       </c>
       <c r="F20">
-        <v>0.8660030813572324</v>
+        <v>1.006558740303879</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031673051342623</v>
+        <v>1.051065548884875</v>
       </c>
       <c r="J20">
-        <v>0.9048659582077799</v>
+        <v>0.9820546277823754</v>
       </c>
       <c r="K20">
-        <v>1.027856977487237</v>
+        <v>1.039482384307754</v>
       </c>
       <c r="L20">
-        <v>0.9106142085208169</v>
+        <v>0.993595450819343</v>
       </c>
       <c r="M20">
-        <v>0.8828970050642222</v>
+        <v>1.020487234303323</v>
       </c>
       <c r="N20">
-        <v>0.9371043453336471</v>
+        <v>0.9834492579970663</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8465064743990972</v>
+        <v>0.9312641125477774</v>
       </c>
       <c r="D21">
-        <v>1.007410675791274</v>
+        <v>1.015013781334102</v>
       </c>
       <c r="E21">
-        <v>0.8732679452685833</v>
+        <v>0.961656990102468</v>
       </c>
       <c r="F21">
-        <v>0.8396767410831291</v>
+        <v>0.9913735676377929</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026846890542791</v>
+        <v>1.045572812247</v>
       </c>
       <c r="J21">
-        <v>0.8841924538383316</v>
+        <v>0.9639459069697359</v>
       </c>
       <c r="K21">
-        <v>1.022252997751532</v>
+        <v>1.029716188446373</v>
       </c>
       <c r="L21">
-        <v>0.8911265093111357</v>
+        <v>0.9774031090978286</v>
       </c>
       <c r="M21">
-        <v>0.8584993652787419</v>
+        <v>1.006520234398323</v>
       </c>
       <c r="N21">
-        <v>0.9229522278209203</v>
+        <v>0.9653148207237739</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8285937468065588</v>
+        <v>0.9165866949117553</v>
       </c>
       <c r="D22">
-        <v>1.002791403854535</v>
+        <v>1.007605175387058</v>
       </c>
       <c r="E22">
-        <v>0.8580323966722402</v>
+        <v>0.9496251728043841</v>
       </c>
       <c r="F22">
-        <v>0.8206413639610438</v>
+        <v>0.980977749386819</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023407453135732</v>
+        <v>1.041796638282134</v>
       </c>
       <c r="J22">
-        <v>0.8692597492928587</v>
+        <v>0.9514808098314577</v>
       </c>
       <c r="K22">
-        <v>1.018307764571226</v>
+        <v>1.023027462934694</v>
       </c>
       <c r="L22">
-        <v>0.8770599752067881</v>
+        <v>0.9662652747379672</v>
       </c>
       <c r="M22">
-        <v>0.8408582002443027</v>
+        <v>0.9969356998643832</v>
       </c>
       <c r="N22">
-        <v>0.9127339572860681</v>
+        <v>0.9528320217177926</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8383598512941249</v>
+        <v>0.9245068094582042</v>
       </c>
       <c r="D23">
-        <v>1.005289844478185</v>
+        <v>1.011594534802103</v>
       </c>
       <c r="E23">
-        <v>0.8663325449628987</v>
+        <v>0.956113335375496</v>
       </c>
       <c r="F23">
-        <v>0.8310200834832298</v>
+        <v>0.9865802006706222</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025276555146184</v>
+        <v>1.043833014287765</v>
       </c>
       <c r="J23">
-        <v>0.8773990818562442</v>
+        <v>0.9582055532253539</v>
       </c>
       <c r="K23">
-        <v>1.020446831478274</v>
+        <v>1.02663217390339</v>
       </c>
       <c r="L23">
-        <v>0.884726255012671</v>
+        <v>0.9722730341391181</v>
       </c>
       <c r="M23">
-        <v>0.8504764643784472</v>
+        <v>1.002103179103768</v>
       </c>
       <c r="N23">
-        <v>0.918303098895054</v>
+        <v>0.9595663150186472</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8716651426818808</v>
+        <v>0.9529028841585326</v>
       </c>
       <c r="D24">
-        <v>1.014162258632852</v>
+        <v>1.026053629100782</v>
       </c>
       <c r="E24">
-        <v>0.8947495907526343</v>
+        <v>0.9794553645063143</v>
       </c>
       <c r="F24">
-        <v>0.8664116716157045</v>
+        <v>1.006801069784751</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031748423841398</v>
+        <v>1.051152932556181</v>
       </c>
       <c r="J24">
-        <v>0.905186868154169</v>
+        <v>0.9823427077549669</v>
       </c>
       <c r="K24">
-        <v>1.027945151419951</v>
+        <v>1.039638156890696</v>
       </c>
       <c r="L24">
-        <v>0.9109168462830759</v>
+        <v>0.9938531355317588</v>
       </c>
       <c r="M24">
-        <v>0.8832756052926877</v>
+        <v>1.020709794485065</v>
       </c>
       <c r="N24">
-        <v>0.9373240599417528</v>
+        <v>0.9837377470762625</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9033709997297052</v>
+        <v>0.9815843796113676</v>
       </c>
       <c r="D25">
-        <v>1.023073066068404</v>
+        <v>1.040875238135882</v>
       </c>
       <c r="E25">
-        <v>0.9219486684471015</v>
+        <v>1.003140257595605</v>
       </c>
       <c r="F25">
-        <v>0.9001291778345704</v>
+        <v>1.027411688842201</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037991264261894</v>
+        <v>1.058545021086281</v>
       </c>
       <c r="J25">
-        <v>0.9316535803558423</v>
+        <v>1.006747804050131</v>
       </c>
       <c r="K25">
-        <v>1.035323458076017</v>
+        <v>1.05287050606913</v>
       </c>
       <c r="L25">
-        <v>0.9358928902065634</v>
+        <v>1.015690019919879</v>
       </c>
       <c r="M25">
-        <v>0.9145047072191018</v>
+        <v>1.039598870969667</v>
       </c>
       <c r="N25">
-        <v>0.9554460132551448</v>
+        <v>1.008177501407469</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002002075589615</v>
+        <v>0.9923653149077156</v>
       </c>
       <c r="D2">
-        <v>1.051535301357227</v>
+        <v>1.030231537876954</v>
       </c>
       <c r="E2">
-        <v>1.020053549046161</v>
+        <v>0.9998884087463898</v>
       </c>
       <c r="F2">
-        <v>1.042177869468887</v>
+        <v>1.001437906527429</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063779672711006</v>
+        <v>1.043067945453026</v>
       </c>
       <c r="J2">
-        <v>1.024123069374343</v>
+        <v>1.014776800939857</v>
       </c>
       <c r="K2">
-        <v>1.062320488858586</v>
+        <v>1.041285172678634</v>
       </c>
       <c r="L2">
-        <v>1.031240400413408</v>
+        <v>1.011349298430884</v>
       </c>
       <c r="M2">
-        <v>1.053079283670038</v>
+        <v>1.012877245311483</v>
       </c>
       <c r="N2">
-        <v>1.025577441601412</v>
+        <v>1.008902132171061</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015726660486365</v>
+        <v>0.9961857914275737</v>
       </c>
       <c r="D3">
-        <v>1.058741594104173</v>
+        <v>1.032606923371793</v>
       </c>
       <c r="E3">
-        <v>1.031441676135708</v>
+        <v>1.002879378154661</v>
       </c>
       <c r="F3">
-        <v>1.052139268990343</v>
+        <v>1.006127673700086</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067273224369786</v>
+        <v>1.044030378664393</v>
       </c>
       <c r="J3">
-        <v>1.03579759260205</v>
+        <v>1.0167809784499</v>
       </c>
       <c r="K3">
-        <v>1.068674235243351</v>
+        <v>1.042838922411839</v>
       </c>
       <c r="L3">
-        <v>1.041687459924658</v>
+        <v>1.013475548897317</v>
       </c>
       <c r="M3">
-        <v>1.062145805954679</v>
+        <v>1.016682745622581</v>
       </c>
       <c r="N3">
-        <v>1.03726854399119</v>
+        <v>1.00957721123476</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024177629686275</v>
+        <v>0.9986121048036819</v>
       </c>
       <c r="D4">
-        <v>1.063192081581097</v>
+        <v>1.034117758196584</v>
       </c>
       <c r="E4">
-        <v>1.038460078286497</v>
+        <v>1.004784863982231</v>
       </c>
       <c r="F4">
-        <v>1.05828491477438</v>
+        <v>1.00910673293697</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.069410420342398</v>
+        <v>1.04463293101988</v>
       </c>
       <c r="J4">
-        <v>1.04298245711629</v>
+        <v>1.018051379836302</v>
       </c>
       <c r="K4">
-        <v>1.072583271277216</v>
+        <v>1.043821137390137</v>
       </c>
       <c r="L4">
-        <v>1.048115467378729</v>
+        <v>1.014825880918899</v>
       </c>
       <c r="M4">
-        <v>1.067727324720933</v>
+        <v>1.019096476327567</v>
       </c>
       <c r="N4">
-        <v>1.044463611837155</v>
+        <v>1.010004969831299</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027637310342374</v>
+        <v>0.9996215100249237</v>
       </c>
       <c r="D5">
-        <v>1.06501648692298</v>
+        <v>1.034746779366497</v>
       </c>
       <c r="E5">
-        <v>1.041334419222253</v>
+        <v>1.005578991645121</v>
       </c>
       <c r="F5">
-        <v>1.060803105971611</v>
+        <v>1.010346301890574</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.070281693721495</v>
+        <v>1.044881492061326</v>
       </c>
       <c r="J5">
-        <v>1.045922727886068</v>
+        <v>1.018579296306805</v>
       </c>
       <c r="K5">
-        <v>1.074182256484126</v>
+        <v>1.044228622030304</v>
       </c>
       <c r="L5">
-        <v>1.050745559848005</v>
+        <v>1.015387623575848</v>
       </c>
       <c r="M5">
-        <v>1.070011554425456</v>
+        <v>1.020099930112685</v>
       </c>
       <c r="N5">
-        <v>1.04740805812868</v>
+        <v>1.010182684808999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028213002588687</v>
+        <v>0.9997903807804197</v>
       </c>
       <c r="D6">
-        <v>1.065320194045388</v>
+        <v>1.034852039012491</v>
       </c>
       <c r="E6">
-        <v>1.041812768157768</v>
+        <v>1.005711928310986</v>
       </c>
       <c r="F6">
-        <v>1.061222252200419</v>
+        <v>1.01055369194035</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.070426450454144</v>
+        <v>1.044922950306949</v>
       </c>
       <c r="J6">
-        <v>1.046411921190902</v>
+        <v>1.018667579321327</v>
       </c>
       <c r="K6">
-        <v>1.074448237620389</v>
+        <v>1.044296724605734</v>
       </c>
       <c r="L6">
-        <v>1.051183117461289</v>
+        <v>1.015481599199689</v>
       </c>
       <c r="M6">
-        <v>1.070391595092156</v>
+        <v>1.020267763644817</v>
       </c>
       <c r="N6">
-        <v>1.047897946144118</v>
+        <v>1.010212401476475</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024224212151578</v>
+        <v>0.9986256337959387</v>
       </c>
       <c r="D7">
-        <v>1.063216637206989</v>
+        <v>1.034126187130002</v>
       </c>
       <c r="E7">
-        <v>1.038498775445095</v>
+        <v>1.004795502142873</v>
       </c>
       <c r="F7">
-        <v>1.0583188123583</v>
+        <v>1.009123345918096</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069422166409633</v>
+        <v>1.044636270865795</v>
       </c>
       <c r="J7">
-        <v>1.043022050596593</v>
+        <v>1.018058457869513</v>
       </c>
       <c r="K7">
-        <v>1.072604806450118</v>
+        <v>1.043826603450235</v>
       </c>
       <c r="L7">
-        <v>1.048150885929973</v>
+        <v>1.014833410064109</v>
       </c>
       <c r="M7">
-        <v>1.067758083991038</v>
+        <v>1.019109928357533</v>
       </c>
       <c r="N7">
-        <v>1.044503261544741</v>
+        <v>1.010007352705889</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006735746142633</v>
+        <v>0.9936661569480988</v>
       </c>
       <c r="D8">
-        <v>1.054017489315257</v>
+        <v>1.031039820111748</v>
       </c>
       <c r="E8">
-        <v>1.02397982781271</v>
+        <v>1.000905536879504</v>
       </c>
       <c r="F8">
-        <v>1.045610672533908</v>
+        <v>1.00303462239127</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.064987399211966</v>
+        <v>1.043397440851509</v>
       </c>
       <c r="J8">
-        <v>1.028150346787618</v>
+        <v>1.015459699605706</v>
       </c>
       <c r="K8">
-        <v>1.064512289469164</v>
+        <v>1.041815132218867</v>
       </c>
       <c r="L8">
-        <v>1.034844485963874</v>
+        <v>1.012073256048684</v>
       </c>
       <c r="M8">
-        <v>1.056206326815077</v>
+        <v>1.014173644099223</v>
       </c>
       <c r="N8">
-        <v>1.029610438210549</v>
+        <v>1.009132188647894</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9720840538932169</v>
+        <v>0.9845599075446518</v>
       </c>
       <c r="D9">
-        <v>1.035944223212911</v>
+        <v>1.025394098330419</v>
       </c>
       <c r="E9">
-        <v>0.9952844544921747</v>
+        <v>0.9938121230995007</v>
       </c>
       <c r="F9">
-        <v>1.020566183387232</v>
+        <v>0.9918580365113424</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056099465764256</v>
+        <v>1.041055659217182</v>
       </c>
       <c r="J9">
-        <v>0.9986626279009923</v>
+        <v>1.010669929463162</v>
       </c>
       <c r="K9">
-        <v>1.048479857842862</v>
+        <v>1.038088184234253</v>
       </c>
       <c r="L9">
-        <v>1.008454504265943</v>
+        <v>1.007006398479939</v>
       </c>
       <c r="M9">
-        <v>1.033334173833278</v>
+        <v>1.005084607236492</v>
       </c>
       <c r="N9">
-        <v>1.000080843380816</v>
+        <v>1.00751803179112</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9454087636148214</v>
+        <v>0.9782182142644017</v>
       </c>
       <c r="D10">
-        <v>1.022215232575167</v>
+        <v>1.021481457005111</v>
       </c>
       <c r="E10">
-        <v>0.9732837281238113</v>
+        <v>0.9889078788110028</v>
       </c>
       <c r="F10">
-        <v>1.001445219163871</v>
+        <v>0.9840732643380015</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049219488121638</v>
+        <v>1.039381704404226</v>
       </c>
       <c r="J10">
-        <v>0.9759692114495144</v>
+        <v>1.007323506742116</v>
       </c>
       <c r="K10">
-        <v>1.036194643405588</v>
+        <v>1.035473394644326</v>
       </c>
       <c r="L10">
-        <v>0.9881527095539786</v>
+        <v>1.003480335192831</v>
       </c>
       <c r="M10">
-        <v>1.01578842866814</v>
+        <v>0.9987361609517791</v>
       </c>
       <c r="N10">
-        <v>0.9773551996750058</v>
+        <v>1.006389675261004</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9326830817222268</v>
+        <v>0.975402172154213</v>
       </c>
       <c r="D11">
-        <v>1.015733563931834</v>
+        <v>1.019749668334371</v>
       </c>
       <c r="E11">
-        <v>0.9628220153384566</v>
+        <v>0.9867391896734482</v>
       </c>
       <c r="F11">
-        <v>0.9923816564196497</v>
+        <v>0.9806152989658077</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045938384569182</v>
+        <v>1.038628676171331</v>
       </c>
       <c r="J11">
-        <v>0.9651516390531799</v>
+        <v>1.005835301649294</v>
       </c>
       <c r="K11">
-        <v>1.030364745139653</v>
+        <v>1.03430850427395</v>
       </c>
       <c r="L11">
-        <v>0.9784808451920158</v>
+        <v>1.001915594608034</v>
       </c>
       <c r="M11">
-        <v>1.007448687976833</v>
+        <v>0.9959122812766401</v>
       </c>
       <c r="N11">
-        <v>0.9665222650850758</v>
+        <v>1.005887769890467</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9277395597097985</v>
+        <v>0.9743451180438129</v>
       </c>
       <c r="D12">
-        <v>1.013228573808081</v>
+        <v>1.019100551434547</v>
       </c>
       <c r="E12">
-        <v>0.9587645618273607</v>
+        <v>0.9859265434735581</v>
       </c>
       <c r="F12">
-        <v>0.9888718734066573</v>
+        <v>0.9793170433317259</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044665105907833</v>
+        <v>1.038344600258886</v>
       </c>
       <c r="J12">
-        <v>0.9609514706404413</v>
+        <v>1.005276371950107</v>
       </c>
       <c r="K12">
-        <v>1.028106649062711</v>
+        <v>1.033870741220285</v>
       </c>
       <c r="L12">
-        <v>0.974726831626211</v>
+        <v>1.001328428466766</v>
       </c>
       <c r="M12">
-        <v>1.004215421959268</v>
+        <v>0.9948515213377602</v>
       </c>
       <c r="N12">
-        <v>0.9623161319514248</v>
+        <v>1.005699254645136</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9288105659767482</v>
+        <v>0.974572368631378</v>
       </c>
       <c r="D13">
-        <v>1.013770642874796</v>
+        <v>1.019240057534414</v>
       </c>
       <c r="E13">
-        <v>0.9596432777825428</v>
+        <v>0.9861011854107514</v>
       </c>
       <c r="F13">
-        <v>0.9896317171353308</v>
+        <v>0.9795961608576808</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044940877868891</v>
+        <v>1.03840573536085</v>
       </c>
       <c r="J13">
-        <v>0.9618613192832108</v>
+        <v>1.005396546611018</v>
       </c>
       <c r="K13">
-        <v>1.028595525855946</v>
+        <v>1.033964875070674</v>
       </c>
       <c r="L13">
-        <v>0.9755399656949567</v>
+        <v>1.001454651163467</v>
       </c>
       <c r="M13">
-        <v>1.004915578060016</v>
+        <v>0.9950796037648746</v>
       </c>
       <c r="N13">
-        <v>0.9632272726836282</v>
+        <v>1.005739787576174</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9322791508036987</v>
+        <v>0.9753150243258102</v>
       </c>
       <c r="D14">
-        <v>1.015528605191267</v>
+        <v>1.019696132771094</v>
       </c>
       <c r="E14">
-        <v>0.9624903417630788</v>
+        <v>0.9866721628089367</v>
       </c>
       <c r="F14">
-        <v>0.9920946355968033</v>
+        <v>0.9805082709109515</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045834311590567</v>
+        <v>1.038605284258476</v>
       </c>
       <c r="J14">
-        <v>0.964808398733229</v>
+        <v>1.005789227228333</v>
       </c>
       <c r="K14">
-        <v>1.030180091360448</v>
+        <v>1.034272423063374</v>
       </c>
       <c r="L14">
-        <v>0.9781740355172209</v>
+        <v>1.001867182204544</v>
       </c>
       <c r="M14">
-        <v>1.007184358279759</v>
+        <v>0.9958248436797891</v>
       </c>
       <c r="N14">
-        <v>0.9661785373245002</v>
+        <v>1.005872230204947</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9343861155214641</v>
+        <v>0.9757711183687287</v>
       </c>
       <c r="D15">
-        <v>1.01659823869647</v>
+        <v>1.019976353772062</v>
       </c>
       <c r="E15">
-        <v>0.9642206760006254</v>
+        <v>0.9870230103205919</v>
       </c>
       <c r="F15">
-        <v>0.9935922422889257</v>
+        <v>0.9810683990654634</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046377232966266</v>
+        <v>1.038727650077732</v>
       </c>
       <c r="J15">
-        <v>0.9665988826545184</v>
+        <v>1.00603034859747</v>
       </c>
       <c r="K15">
-        <v>1.031143553165053</v>
+        <v>1.034461236557408</v>
       </c>
       <c r="L15">
-        <v>0.9797745376988408</v>
+        <v>1.002120559691675</v>
       </c>
       <c r="M15">
-        <v>1.008563413787565</v>
+        <v>0.996282422867878</v>
       </c>
       <c r="N15">
-        <v>0.9679715639383293</v>
+        <v>1.005953553559085</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9462254459479579</v>
+        <v>0.9784035856636064</v>
       </c>
       <c r="D16">
-        <v>1.022632779657243</v>
+        <v>1.021595580823444</v>
       </c>
       <c r="E16">
-        <v>0.9739559165161796</v>
+        <v>0.9890508300872043</v>
       </c>
       <c r="F16">
-        <v>1.002028238926158</v>
+        <v>0.9843008619518316</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049430166070529</v>
+        <v>1.039431075316974</v>
       </c>
       <c r="J16">
-        <v>0.9766636741538135</v>
+        <v>1.007421426884177</v>
       </c>
       <c r="K16">
-        <v>1.036569558262426</v>
+        <v>1.035550002608352</v>
       </c>
       <c r="L16">
-        <v>0.9887737694920018</v>
+        <v>1.003583361447398</v>
       </c>
       <c r="M16">
-        <v>1.016324398822998</v>
+        <v>0.9989219442971177</v>
       </c>
       <c r="N16">
-        <v>0.9780506485960013</v>
+        <v>1.00642269737784</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9533129910581815</v>
+        <v>0.980035747480679</v>
       </c>
       <c r="D17">
-        <v>1.026264118524813</v>
+        <v>1.022601073568544</v>
       </c>
       <c r="E17">
-        <v>0.9797933185410297</v>
+        <v>0.9903105282752469</v>
       </c>
       <c r="F17">
-        <v>1.007094537970033</v>
+        <v>0.9863046815833277</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051258744037091</v>
+        <v>1.0398646763849</v>
       </c>
       <c r="J17">
-        <v>0.9826915443031156</v>
+        <v>1.008283346653918</v>
       </c>
       <c r="K17">
-        <v>1.039826797668334</v>
+        <v>1.036224098432604</v>
       </c>
       <c r="L17">
-        <v>0.9941651696599115</v>
+        <v>1.00449060909662</v>
       </c>
       <c r="M17">
-        <v>1.02097930729369</v>
+        <v>1.000557177447475</v>
       </c>
       <c r="N17">
-        <v>0.9840870790123214</v>
+        <v>1.00671335511701</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9573369326913767</v>
+        <v>0.9809810386079886</v>
       </c>
       <c r="D18">
-        <v>1.028331773591517</v>
+        <v>1.023183948187414</v>
       </c>
       <c r="E18">
-        <v>0.9831104666724212</v>
+        <v>0.9910409581658504</v>
       </c>
       <c r="F18">
-        <v>1.009976041695311</v>
+        <v>0.9874651226090392</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052296926374302</v>
+        <v>1.040114877491865</v>
       </c>
       <c r="J18">
-        <v>0.9861145698803003</v>
+        <v>1.008782327592578</v>
       </c>
       <c r="K18">
-        <v>1.041678749769782</v>
+        <v>1.036614146506111</v>
       </c>
       <c r="L18">
-        <v>0.99722724625077</v>
+        <v>1.00501614930447</v>
       </c>
       <c r="M18">
-        <v>1.023624769193428</v>
+        <v>1.001503790058082</v>
       </c>
       <c r="N18">
-        <v>0.9875149656784524</v>
+        <v>1.006881611669394</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.958691327513351</v>
+        <v>0.9813022338792549</v>
       </c>
       <c r="D19">
-        <v>1.029028659055858</v>
+        <v>1.023382086732664</v>
       </c>
       <c r="E19">
-        <v>0.9842274345416024</v>
+        <v>0.9912892907168054</v>
       </c>
       <c r="F19">
-        <v>1.010946721338688</v>
+        <v>0.9878594074547964</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052646335248213</v>
+        <v>1.040199733627587</v>
       </c>
       <c r="J19">
-        <v>0.9872668068309213</v>
+        <v>1.008951836605962</v>
       </c>
       <c r="K19">
-        <v>1.042302489951204</v>
+        <v>1.036746614899839</v>
       </c>
       <c r="L19">
-        <v>0.998258053477469</v>
+        <v>1.005194734618473</v>
       </c>
       <c r="M19">
-        <v>1.024515593374265</v>
+        <v>1.00182535782648</v>
       </c>
       <c r="N19">
-        <v>0.9886688389377067</v>
+        <v>1.006938768302047</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.952564200582752</v>
+        <v>0.9798613308779881</v>
       </c>
       <c r="D20">
-        <v>1.025879831769969</v>
+        <v>1.022493568802063</v>
       </c>
       <c r="E20">
-        <v>0.9791762845886314</v>
+        <v>0.990175824782935</v>
       </c>
       <c r="F20">
-        <v>1.006558740303879</v>
+        <v>0.9860905597924234</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051065548884875</v>
+        <v>1.039818436437855</v>
       </c>
       <c r="J20">
-        <v>0.9820546277823754</v>
+        <v>1.008191261779751</v>
       </c>
       <c r="K20">
-        <v>1.039482384307754</v>
+        <v>1.036152100324513</v>
       </c>
       <c r="L20">
-        <v>0.993595450819343</v>
+        <v>1.004393648498092</v>
       </c>
       <c r="M20">
-        <v>1.020487234303323</v>
+        <v>1.000382480320784</v>
       </c>
       <c r="N20">
-        <v>0.9834492579970663</v>
+        <v>1.006682303196298</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9312641125477774</v>
+        <v>0.9750966401853047</v>
       </c>
       <c r="D21">
-        <v>1.015013781334102</v>
+        <v>1.019561993280256</v>
       </c>
       <c r="E21">
-        <v>0.961656990102468</v>
+        <v>0.9865042228145546</v>
       </c>
       <c r="F21">
-        <v>0.9913735676377929</v>
+        <v>0.9802400646295518</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045572812247</v>
+        <v>1.038546643751364</v>
       </c>
       <c r="J21">
-        <v>0.9639459069697359</v>
+        <v>1.005673764328581</v>
       </c>
       <c r="K21">
-        <v>1.029716188446373</v>
+        <v>1.034181999182512</v>
       </c>
       <c r="L21">
-        <v>0.9774031090978286</v>
+        <v>1.00174586850437</v>
       </c>
       <c r="M21">
-        <v>1.006520234398323</v>
+        <v>0.9956057209678817</v>
       </c>
       <c r="N21">
-        <v>0.9653148207237739</v>
+        <v>1.005833287417062</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9165866949117553</v>
+        <v>0.9720366686646386</v>
       </c>
       <c r="D22">
-        <v>1.007605175387058</v>
+        <v>1.017684818255534</v>
       </c>
       <c r="E22">
-        <v>0.9496251728043841</v>
+        <v>0.9841544986927471</v>
       </c>
       <c r="F22">
-        <v>0.980977749386819</v>
+        <v>0.9764813102845962</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041796638282134</v>
+        <v>1.037721675683987</v>
       </c>
       <c r="J22">
-        <v>0.9514808098314577</v>
+        <v>1.004055226660832</v>
       </c>
       <c r="K22">
-        <v>1.023027462934694</v>
+        <v>1.032913891939954</v>
       </c>
       <c r="L22">
-        <v>0.9662652747379672</v>
+        <v>1.000046531925776</v>
       </c>
       <c r="M22">
-        <v>0.9969356998643832</v>
+        <v>0.9925335317615308</v>
       </c>
       <c r="N22">
-        <v>0.9528320217177926</v>
+        <v>1.005287367333742</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9245068094582042</v>
+        <v>0.9736650896354171</v>
       </c>
       <c r="D23">
-        <v>1.011594534802103</v>
+        <v>1.018683236812562</v>
       </c>
       <c r="E23">
-        <v>0.956113335375496</v>
+        <v>0.9854041530617779</v>
       </c>
       <c r="F23">
-        <v>0.9865802006706222</v>
+        <v>0.9784817656666843</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043833014287765</v>
+        <v>1.038161455135226</v>
       </c>
       <c r="J23">
-        <v>0.9582055532253539</v>
+        <v>1.004916717056962</v>
       </c>
       <c r="K23">
-        <v>1.02663217390339</v>
+        <v>1.03358898578016</v>
       </c>
       <c r="L23">
-        <v>0.9722730341391181</v>
+        <v>1.000950748044629</v>
       </c>
       <c r="M23">
-        <v>1.002103179103768</v>
+        <v>0.9941688887809843</v>
       </c>
       <c r="N23">
-        <v>0.9595663150186472</v>
+        <v>1.005577947299705</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9529028841585326</v>
+        <v>0.9799401629656763</v>
       </c>
       <c r="D24">
-        <v>1.026053629100782</v>
+        <v>1.022542156727206</v>
       </c>
       <c r="E24">
-        <v>0.9794553645063143</v>
+        <v>0.9902367048534496</v>
       </c>
       <c r="F24">
-        <v>1.006801069784751</v>
+        <v>0.9861873379736824</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051152932556181</v>
+        <v>1.039839338648035</v>
       </c>
       <c r="J24">
-        <v>0.9823427077549669</v>
+        <v>1.008232882578703</v>
       </c>
       <c r="K24">
-        <v>1.039638156890696</v>
+        <v>1.036184642864346</v>
       </c>
       <c r="L24">
-        <v>0.9938531355317588</v>
+        <v>1.004437472055701</v>
       </c>
       <c r="M24">
-        <v>1.020709794485065</v>
+        <v>1.000461440613266</v>
       </c>
       <c r="N24">
-        <v>0.9837377470762625</v>
+        <v>1.006696338169694</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9815843796113676</v>
+        <v>0.9869599799046784</v>
       </c>
       <c r="D25">
-        <v>1.040875238135882</v>
+        <v>1.026879153159118</v>
       </c>
       <c r="E25">
-        <v>1.003140257595605</v>
+        <v>0.9956757077968676</v>
       </c>
       <c r="F25">
-        <v>1.027411688842201</v>
+        <v>0.994803738292407</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058545021086281</v>
+        <v>1.041680480474357</v>
       </c>
       <c r="J25">
-        <v>1.006747804050131</v>
+        <v>1.011934305525876</v>
       </c>
       <c r="K25">
-        <v>1.05287050606913</v>
+        <v>1.039074057398415</v>
       </c>
       <c r="L25">
-        <v>1.015690019919879</v>
+        <v>1.008341525801713</v>
       </c>
       <c r="M25">
-        <v>1.039598870969667</v>
+        <v>1.007483258686835</v>
       </c>
       <c r="N25">
-        <v>1.008177501407469</v>
+        <v>1.007944244527726</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9923653149077156</v>
+        <v>1.020165877422784</v>
       </c>
       <c r="D2">
-        <v>1.030231537876954</v>
+        <v>1.034471823813151</v>
       </c>
       <c r="E2">
-        <v>0.9998884087463898</v>
+        <v>1.021209936365017</v>
       </c>
       <c r="F2">
-        <v>1.001437906527429</v>
+        <v>1.032719374532076</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043067945453026</v>
+        <v>1.033717567685232</v>
       </c>
       <c r="J2">
-        <v>1.014776800939857</v>
+        <v>1.025364526300644</v>
       </c>
       <c r="K2">
-        <v>1.041285172678634</v>
+        <v>1.037271201087062</v>
       </c>
       <c r="L2">
-        <v>1.011349298430884</v>
+        <v>1.024047940473862</v>
       </c>
       <c r="M2">
-        <v>1.012877245311483</v>
+        <v>1.035523794200081</v>
       </c>
       <c r="N2">
-        <v>1.008902132171061</v>
+        <v>1.012530274150747</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9961857914275737</v>
+        <v>1.02097605718743</v>
       </c>
       <c r="D3">
-        <v>1.032606923371793</v>
+        <v>1.034978831644508</v>
       </c>
       <c r="E3">
-        <v>1.002879378154661</v>
+        <v>1.021893646607948</v>
       </c>
       <c r="F3">
-        <v>1.006127673700086</v>
+        <v>1.033786552614012</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044030378664393</v>
+        <v>1.033872777047784</v>
       </c>
       <c r="J3">
-        <v>1.0167809784499</v>
+        <v>1.025812503273786</v>
       </c>
       <c r="K3">
-        <v>1.042838922411839</v>
+        <v>1.037588209032668</v>
       </c>
       <c r="L3">
-        <v>1.013475548897317</v>
+        <v>1.024538391050495</v>
       </c>
       <c r="M3">
-        <v>1.016682745622581</v>
+        <v>1.036399112437202</v>
       </c>
       <c r="N3">
-        <v>1.00957721123476</v>
+        <v>1.012679966279229</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9986121048036819</v>
+        <v>1.021500889404716</v>
       </c>
       <c r="D4">
-        <v>1.034117758196584</v>
+        <v>1.035307139807149</v>
       </c>
       <c r="E4">
-        <v>1.004784863982231</v>
+        <v>1.022336957486079</v>
       </c>
       <c r="F4">
-        <v>1.00910673293697</v>
+        <v>1.034477980019807</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04463293101988</v>
+        <v>1.033972224898809</v>
       </c>
       <c r="J4">
-        <v>1.018051379836302</v>
+        <v>1.026102318233085</v>
       </c>
       <c r="K4">
-        <v>1.043821137390137</v>
+        <v>1.037792857941158</v>
       </c>
       <c r="L4">
-        <v>1.014825880918899</v>
+        <v>1.0248559728654</v>
       </c>
       <c r="M4">
-        <v>1.019096476327567</v>
+        <v>1.0369657998536</v>
       </c>
       <c r="N4">
-        <v>1.010004969831299</v>
+        <v>1.012776766674737</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9996215100249237</v>
+        <v>1.021721669041984</v>
       </c>
       <c r="D5">
-        <v>1.034746779366497</v>
+        <v>1.035445216201757</v>
       </c>
       <c r="E5">
-        <v>1.005578991645121</v>
+        <v>1.022523540266834</v>
       </c>
       <c r="F5">
-        <v>1.010346301890574</v>
+        <v>1.034768868606797</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044881492061326</v>
+        <v>1.034013796768048</v>
       </c>
       <c r="J5">
-        <v>1.018579296306805</v>
+        <v>1.026224141934905</v>
       </c>
       <c r="K5">
-        <v>1.044228622030304</v>
+        <v>1.037878777026058</v>
       </c>
       <c r="L5">
-        <v>1.015387623575848</v>
+        <v>1.024989537503933</v>
       </c>
       <c r="M5">
-        <v>1.020099930112685</v>
+        <v>1.037204105591703</v>
       </c>
       <c r="N5">
-        <v>1.010182684808999</v>
+        <v>1.012817446690182</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9997903807804197</v>
+        <v>1.02175874709114</v>
       </c>
       <c r="D6">
-        <v>1.034852039012491</v>
+        <v>1.035468403044729</v>
       </c>
       <c r="E6">
-        <v>1.005711928310986</v>
+        <v>1.022554880888857</v>
       </c>
       <c r="F6">
-        <v>1.01055369194035</v>
+        <v>1.034817722513041</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044922950306949</v>
+        <v>1.034020763008523</v>
       </c>
       <c r="J6">
-        <v>1.018667579321327</v>
+        <v>1.026244595788477</v>
       </c>
       <c r="K6">
-        <v>1.044296724605734</v>
+        <v>1.037893196419656</v>
       </c>
       <c r="L6">
-        <v>1.015481599199689</v>
+        <v>1.025011966681212</v>
       </c>
       <c r="M6">
-        <v>1.020267763644817</v>
+        <v>1.03724412227031</v>
       </c>
       <c r="N6">
-        <v>1.010212401476475</v>
+        <v>1.012824276159938</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9986256337959387</v>
+        <v>1.02150383892411</v>
       </c>
       <c r="D7">
-        <v>1.034126187130002</v>
+        <v>1.035308984574401</v>
       </c>
       <c r="E7">
-        <v>1.004795502142873</v>
+        <v>1.022339449772083</v>
       </c>
       <c r="F7">
-        <v>1.009123345918096</v>
+        <v>1.034481866053582</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044636270865795</v>
+        <v>1.033972781312354</v>
       </c>
       <c r="J7">
-        <v>1.018058457869513</v>
+        <v>1.026103946105704</v>
       </c>
       <c r="K7">
-        <v>1.043826603450235</v>
+        <v>1.037794006450872</v>
       </c>
       <c r="L7">
-        <v>1.014833410064109</v>
+        <v>1.024857757354958</v>
       </c>
       <c r="M7">
-        <v>1.019109928357533</v>
+        <v>1.036968983831348</v>
       </c>
       <c r="N7">
-        <v>1.010007352705889</v>
+        <v>1.012777310302035</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9936661569480988</v>
+        <v>1.02043955804878</v>
       </c>
       <c r="D8">
-        <v>1.031039820111748</v>
+        <v>1.034643118633423</v>
       </c>
       <c r="E8">
-        <v>1.000905536879504</v>
+        <v>1.021440811121135</v>
       </c>
       <c r="F8">
-        <v>1.00303462239127</v>
+        <v>1.033079847099957</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043397440851509</v>
+        <v>1.033770224541198</v>
       </c>
       <c r="J8">
-        <v>1.015459699605706</v>
+        <v>1.025515933183862</v>
       </c>
       <c r="K8">
-        <v>1.041815132218867</v>
+        <v>1.037378433298817</v>
       </c>
       <c r="L8">
-        <v>1.012073256048684</v>
+        <v>1.024213642704889</v>
       </c>
       <c r="M8">
-        <v>1.014173644099223</v>
+        <v>1.035819549799632</v>
       </c>
       <c r="N8">
-        <v>1.009132188647894</v>
+        <v>1.012580875573124</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9845599075446518</v>
+        <v>1.018568757047853</v>
       </c>
       <c r="D9">
-        <v>1.025394098330419</v>
+        <v>1.033471699431563</v>
       </c>
       <c r="E9">
-        <v>0.9938121230995007</v>
+        <v>1.019864297772714</v>
       </c>
       <c r="F9">
-        <v>0.9918580365113424</v>
+        <v>1.0306161851209</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041055659217182</v>
+        <v>1.033405795169621</v>
       </c>
       <c r="J9">
-        <v>1.010669929463162</v>
+        <v>1.024479397252429</v>
       </c>
       <c r="K9">
-        <v>1.038088184234253</v>
+        <v>1.036642546969375</v>
       </c>
       <c r="L9">
-        <v>1.007006398479939</v>
+        <v>1.023080426629315</v>
       </c>
       <c r="M9">
-        <v>1.005084607236492</v>
+        <v>1.033796426200675</v>
       </c>
       <c r="N9">
-        <v>1.00751803179112</v>
+        <v>1.012234287652907</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9782182142644017</v>
+        <v>1.017324736253417</v>
       </c>
       <c r="D10">
-        <v>1.021481457005111</v>
+        <v>1.032692156229339</v>
       </c>
       <c r="E10">
-        <v>0.9889078788110028</v>
+        <v>1.018818097445319</v>
       </c>
       <c r="F10">
-        <v>0.9840732643380015</v>
+        <v>1.028978424172869</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039381704404226</v>
+        <v>1.033157841179647</v>
       </c>
       <c r="J10">
-        <v>1.007323506742116</v>
+        <v>1.023788180472377</v>
       </c>
       <c r="K10">
-        <v>1.035473394644326</v>
+        <v>1.036149615120622</v>
       </c>
       <c r="L10">
-        <v>1.003480335192831</v>
+        <v>1.022326229508256</v>
       </c>
       <c r="M10">
-        <v>0.9987361609517791</v>
+        <v>1.032449299034644</v>
       </c>
       <c r="N10">
-        <v>1.006389675261004</v>
+        <v>1.012002954083287</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.975402172154213</v>
+        <v>1.016786834296415</v>
       </c>
       <c r="D11">
-        <v>1.019749668334371</v>
+        <v>1.032354961665597</v>
       </c>
       <c r="E11">
-        <v>0.9867391896734482</v>
+        <v>1.018366242863165</v>
       </c>
       <c r="F11">
-        <v>0.9806152989658077</v>
+        <v>1.028270377586822</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038628676171331</v>
+        <v>1.033049296687816</v>
       </c>
       <c r="J11">
-        <v>1.005835301649294</v>
+        <v>1.023488843692351</v>
       </c>
       <c r="K11">
-        <v>1.03430850427395</v>
+        <v>1.035935630792385</v>
       </c>
       <c r="L11">
-        <v>1.001915594608034</v>
+        <v>1.021999972775257</v>
       </c>
       <c r="M11">
-        <v>0.9959122812766401</v>
+        <v>1.031866374673862</v>
       </c>
       <c r="N11">
-        <v>1.005887769890467</v>
+        <v>1.011902723950424</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9743451180438129</v>
+        <v>1.016587150312988</v>
       </c>
       <c r="D12">
-        <v>1.019100551434547</v>
+        <v>1.032229767503323</v>
       </c>
       <c r="E12">
-        <v>0.9859265434735581</v>
+        <v>1.018198579506582</v>
       </c>
       <c r="F12">
-        <v>0.9793170433317259</v>
+        <v>1.028007545935096</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038344600258886</v>
+        <v>1.033008802002832</v>
       </c>
       <c r="J12">
-        <v>1.005276371950107</v>
+        <v>1.02337765244758</v>
       </c>
       <c r="K12">
-        <v>1.033870741220285</v>
+        <v>1.035856067394311</v>
       </c>
       <c r="L12">
-        <v>1.001328428466766</v>
+        <v>1.021878835142881</v>
       </c>
       <c r="M12">
-        <v>0.9948515213377602</v>
+        <v>1.031649910203106</v>
       </c>
       <c r="N12">
-        <v>1.005699254645136</v>
+        <v>1.01186548523199</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.974572368631378</v>
+        <v>1.016629977898115</v>
       </c>
       <c r="D13">
-        <v>1.019240057534414</v>
+        <v>1.032256619560616</v>
       </c>
       <c r="E13">
-        <v>0.9861011854107514</v>
+        <v>1.018234535893965</v>
       </c>
       <c r="F13">
-        <v>0.9795961608576808</v>
+        <v>1.028063916582648</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03840573536085</v>
+        <v>1.033017496223182</v>
       </c>
       <c r="J13">
-        <v>1.005396546611018</v>
+        <v>1.023401503521496</v>
       </c>
       <c r="K13">
-        <v>1.033964875070674</v>
+        <v>1.035873137617106</v>
       </c>
       <c r="L13">
-        <v>1.001454651163467</v>
+        <v>1.02190481735522</v>
       </c>
       <c r="M13">
-        <v>0.9950796037648746</v>
+        <v>1.031696339855583</v>
       </c>
       <c r="N13">
-        <v>1.005739787576174</v>
+        <v>1.011873473454503</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9753150243258102</v>
+        <v>1.016770325965737</v>
       </c>
       <c r="D14">
-        <v>1.019696132771094</v>
+        <v>1.032344611945873</v>
       </c>
       <c r="E14">
-        <v>0.9866721628089367</v>
+        <v>1.01835238016663</v>
       </c>
       <c r="F14">
-        <v>0.9805082709109515</v>
+        <v>1.028248648400429</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038605284258476</v>
+        <v>1.033045952979716</v>
       </c>
       <c r="J14">
-        <v>1.005789227228333</v>
+        <v>1.023479652669584</v>
       </c>
       <c r="K14">
-        <v>1.034272423063374</v>
+        <v>1.035929055683541</v>
       </c>
       <c r="L14">
-        <v>1.001867182204544</v>
+        <v>1.021989958501326</v>
       </c>
       <c r="M14">
-        <v>0.9958248436797891</v>
+        <v>1.031848480432252</v>
       </c>
       <c r="N14">
-        <v>1.005872230204947</v>
+        <v>1.011899645963193</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9757711183687287</v>
+        <v>1.016856814557617</v>
       </c>
       <c r="D15">
-        <v>1.019976353772062</v>
+        <v>1.032398834291972</v>
       </c>
       <c r="E15">
-        <v>0.9870230103205919</v>
+        <v>1.018425011226337</v>
       </c>
       <c r="F15">
-        <v>0.9810683990654634</v>
+        <v>1.028362490108893</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038727650077732</v>
+        <v>1.033063462768282</v>
       </c>
       <c r="J15">
-        <v>1.00603034859747</v>
+        <v>1.023527802409711</v>
       </c>
       <c r="K15">
-        <v>1.034461236557408</v>
+        <v>1.035963498075097</v>
       </c>
       <c r="L15">
-        <v>1.002120559691675</v>
+        <v>1.022042423254139</v>
       </c>
       <c r="M15">
-        <v>0.996282422867878</v>
+        <v>1.031942227186579</v>
       </c>
       <c r="N15">
-        <v>1.005953553559085</v>
+        <v>1.011915770557722</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9784035856636064</v>
+        <v>1.017360451326403</v>
       </c>
       <c r="D16">
-        <v>1.021595580823444</v>
+        <v>1.032714542318014</v>
       </c>
       <c r="E16">
-        <v>0.9890508300872043</v>
+        <v>1.018848110070527</v>
       </c>
       <c r="F16">
-        <v>0.9843008619518316</v>
+        <v>1.029025438455529</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039431075316974</v>
+        <v>1.033165020141784</v>
       </c>
       <c r="J16">
-        <v>1.007421426884177</v>
+        <v>1.023808045815513</v>
       </c>
       <c r="K16">
-        <v>1.035550002608352</v>
+        <v>1.036163805254166</v>
       </c>
       <c r="L16">
-        <v>1.003583361447398</v>
+        <v>1.022347888847407</v>
       </c>
       <c r="M16">
-        <v>0.9989219442971177</v>
+        <v>1.032487994111477</v>
       </c>
       <c r="N16">
-        <v>1.00642269737784</v>
+        <v>1.012009604772963</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.980035747480679</v>
+        <v>1.017676575827102</v>
       </c>
       <c r="D17">
-        <v>1.022601073568544</v>
+        <v>1.032912673423332</v>
       </c>
       <c r="E17">
-        <v>0.9903105282752469</v>
+        <v>1.01911381979001</v>
       </c>
       <c r="F17">
-        <v>0.9863046815833277</v>
+        <v>1.029441587514098</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0398646763849</v>
+        <v>1.03322840927963</v>
       </c>
       <c r="J17">
-        <v>1.008283346653918</v>
+        <v>1.023983826393708</v>
       </c>
       <c r="K17">
-        <v>1.036224098432604</v>
+        <v>1.036289308559606</v>
       </c>
       <c r="L17">
-        <v>1.00449060909662</v>
+        <v>1.022539584706715</v>
       </c>
       <c r="M17">
-        <v>1.000557177447475</v>
+        <v>1.032830444497338</v>
       </c>
       <c r="N17">
-        <v>1.00671335511701</v>
+        <v>1.01206844840664</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9809810386079886</v>
+        <v>1.017861039829536</v>
       </c>
       <c r="D18">
-        <v>1.023183948187414</v>
+        <v>1.033028273856039</v>
       </c>
       <c r="E18">
-        <v>0.9910409581658504</v>
+        <v>1.019268915298693</v>
       </c>
       <c r="F18">
-        <v>0.9874651226090392</v>
+        <v>1.029684427711864</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040114877491865</v>
+        <v>1.033265269311298</v>
       </c>
       <c r="J18">
-        <v>1.008782327592578</v>
+        <v>1.024086352747881</v>
       </c>
       <c r="K18">
-        <v>1.036614146506111</v>
+        <v>1.036362460173805</v>
       </c>
       <c r="L18">
-        <v>1.00501614930447</v>
+        <v>1.022651428026359</v>
       </c>
       <c r="M18">
-        <v>1.001503790058082</v>
+        <v>1.03303022763873</v>
       </c>
       <c r="N18">
-        <v>1.006881611669394</v>
+        <v>1.012102764973333</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9813022338792549</v>
+        <v>1.017923949782083</v>
       </c>
       <c r="D19">
-        <v>1.023382086732664</v>
+        <v>1.033067696309915</v>
       </c>
       <c r="E19">
-        <v>0.9912892907168054</v>
+        <v>1.019321817723343</v>
       </c>
       <c r="F19">
-        <v>0.9878594074547964</v>
+        <v>1.029767248148984</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040199733627587</v>
+        <v>1.033277818310112</v>
       </c>
       <c r="J19">
-        <v>1.008951836605962</v>
+        <v>1.024121310961645</v>
       </c>
       <c r="K19">
-        <v>1.036746614899839</v>
+        <v>1.036387394067118</v>
       </c>
       <c r="L19">
-        <v>1.005194734618473</v>
+        <v>1.022689568821598</v>
       </c>
       <c r="M19">
-        <v>1.00182535782648</v>
+        <v>1.033098354881377</v>
       </c>
       <c r="N19">
-        <v>1.006938768302047</v>
+        <v>1.012114465017694</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9798613308779881</v>
+        <v>1.017642651002366</v>
       </c>
       <c r="D20">
-        <v>1.022493568802063</v>
+        <v>1.032891412309459</v>
       </c>
       <c r="E20">
-        <v>0.990175824782935</v>
+        <v>1.01908530010383</v>
       </c>
       <c r="F20">
-        <v>0.9860905597924234</v>
+        <v>1.02939692753348</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039818436437855</v>
+        <v>1.033221619989009</v>
       </c>
       <c r="J20">
-        <v>1.008191261779751</v>
+        <v>1.023964967153753</v>
       </c>
       <c r="K20">
-        <v>1.036152100324513</v>
+        <v>1.0362758486473</v>
       </c>
       <c r="L20">
-        <v>1.004393648498092</v>
+        <v>1.022519014405203</v>
       </c>
       <c r="M20">
-        <v>1.000382480320784</v>
+        <v>1.032793698913508</v>
       </c>
       <c r="N20">
-        <v>1.006682303196298</v>
+        <v>1.012062135651998</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9750966401853047</v>
+        <v>1.016728993723023</v>
       </c>
       <c r="D21">
-        <v>1.019561993280256</v>
+        <v>1.032318698850412</v>
       </c>
       <c r="E21">
-        <v>0.9865042228145546</v>
+        <v>1.018317673105584</v>
       </c>
       <c r="F21">
-        <v>0.9802400646295518</v>
+        <v>1.028194244829118</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038546643751364</v>
+        <v>1.033037578039066</v>
       </c>
       <c r="J21">
-        <v>1.005673764328581</v>
+        <v>1.023456639801611</v>
       </c>
       <c r="K21">
-        <v>1.034181999182512</v>
+        <v>1.035912591407364</v>
       </c>
       <c r="L21">
-        <v>1.00174586850437</v>
+        <v>1.021964885203178</v>
       </c>
       <c r="M21">
-        <v>0.9956057209678817</v>
+        <v>1.031803677172075</v>
       </c>
       <c r="N21">
-        <v>1.005833287417062</v>
+        <v>1.01189193905095</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9720366686646386</v>
+        <v>1.016155217363884</v>
       </c>
       <c r="D22">
-        <v>1.017684818255534</v>
+        <v>1.031958929814074</v>
       </c>
       <c r="E22">
-        <v>0.9841544986927471</v>
+        <v>1.017836052094975</v>
       </c>
       <c r="F22">
-        <v>0.9764813102845962</v>
+        <v>1.027439045103034</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037721675683987</v>
+        <v>1.032920843136309</v>
       </c>
       <c r="J22">
-        <v>1.004055226660832</v>
+        <v>1.023137010239642</v>
       </c>
       <c r="K22">
-        <v>1.032913891939954</v>
+        <v>1.035683734411277</v>
       </c>
       <c r="L22">
-        <v>1.000046531925776</v>
+        <v>1.021616764232641</v>
       </c>
       <c r="M22">
-        <v>0.9925335317615308</v>
+        <v>1.031181556442233</v>
       </c>
       <c r="N22">
-        <v>1.005287367333742</v>
+        <v>1.011784879069901</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9736650896354171</v>
+        <v>1.016459322473189</v>
       </c>
       <c r="D23">
-        <v>1.018683236812562</v>
+        <v>1.03214961934723</v>
       </c>
       <c r="E23">
-        <v>0.9854041530617779</v>
+        <v>1.018091271574994</v>
       </c>
       <c r="F23">
-        <v>0.9784817656666843</v>
+        <v>1.02783929808012</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038161455135226</v>
+        <v>1.032982823017321</v>
       </c>
       <c r="J23">
-        <v>1.004916717056962</v>
+        <v>1.02330645383222</v>
       </c>
       <c r="K23">
-        <v>1.03358898578016</v>
+        <v>1.035805099273166</v>
       </c>
       <c r="L23">
-        <v>1.000950748044629</v>
+        <v>1.021801282600103</v>
       </c>
       <c r="M23">
-        <v>0.9941688887809843</v>
+        <v>1.03151132138272</v>
       </c>
       <c r="N23">
-        <v>1.005577947299705</v>
+        <v>1.011841638254549</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9799401629656763</v>
+        <v>1.017657979942128</v>
       </c>
       <c r="D24">
-        <v>1.022542156727206</v>
+        <v>1.032901019187118</v>
       </c>
       <c r="E24">
-        <v>0.9902367048534496</v>
+        <v>1.019098186578026</v>
       </c>
       <c r="F24">
-        <v>0.9861873379736824</v>
+        <v>1.029417107124257</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039839338648035</v>
+        <v>1.03322468812884</v>
       </c>
       <c r="J24">
-        <v>1.008232882578703</v>
+        <v>1.02397348884339</v>
       </c>
       <c r="K24">
-        <v>1.036184642864346</v>
+        <v>1.036281930764183</v>
       </c>
       <c r="L24">
-        <v>1.004437472055701</v>
+        <v>1.022528309145336</v>
       </c>
       <c r="M24">
-        <v>1.000461440613266</v>
+        <v>1.032810302544939</v>
       </c>
       <c r="N24">
-        <v>1.006696338169694</v>
+        <v>1.012064988132461</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9869599799046784</v>
+        <v>1.019051849966111</v>
       </c>
       <c r="D25">
-        <v>1.026879153159118</v>
+        <v>1.033774300196419</v>
       </c>
       <c r="E25">
-        <v>0.9956757077968676</v>
+        <v>1.020271024053384</v>
       </c>
       <c r="F25">
-        <v>0.994803738292407</v>
+        <v>1.031252280142302</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041680480474357</v>
+        <v>1.033500893337683</v>
       </c>
       <c r="J25">
-        <v>1.011934305525876</v>
+        <v>1.024747405311682</v>
       </c>
       <c r="K25">
-        <v>1.039074057398415</v>
+        <v>1.036833209316908</v>
       </c>
       <c r="L25">
-        <v>1.008341525801713</v>
+        <v>1.023373169803165</v>
       </c>
       <c r="M25">
-        <v>1.007483258686835</v>
+        <v>1.034319170541572</v>
       </c>
       <c r="N25">
-        <v>1.007944244527726</v>
+        <v>1.012323939165588</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020165877422784</v>
+        <v>0.9923653149077151</v>
       </c>
       <c r="D2">
-        <v>1.034471823813151</v>
+        <v>1.030231537876954</v>
       </c>
       <c r="E2">
-        <v>1.021209936365017</v>
+        <v>0.9998884087463894</v>
       </c>
       <c r="F2">
-        <v>1.032719374532076</v>
+        <v>1.001437906527429</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033717567685232</v>
+        <v>1.043067945453026</v>
       </c>
       <c r="J2">
-        <v>1.025364526300644</v>
+        <v>1.014776800939856</v>
       </c>
       <c r="K2">
-        <v>1.037271201087062</v>
+        <v>1.041285172678633</v>
       </c>
       <c r="L2">
-        <v>1.024047940473862</v>
+        <v>1.011349298430884</v>
       </c>
       <c r="M2">
-        <v>1.035523794200081</v>
+        <v>1.012877245311483</v>
       </c>
       <c r="N2">
-        <v>1.012530274150747</v>
+        <v>1.008902132171061</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02097605718743</v>
+        <v>0.9961857914275736</v>
       </c>
       <c r="D3">
-        <v>1.034978831644508</v>
+        <v>1.032606923371793</v>
       </c>
       <c r="E3">
-        <v>1.021893646607948</v>
+        <v>1.002879378154661</v>
       </c>
       <c r="F3">
-        <v>1.033786552614012</v>
+        <v>1.006127673700087</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033872777047784</v>
+        <v>1.044030378664393</v>
       </c>
       <c r="J3">
-        <v>1.025812503273786</v>
+        <v>1.0167809784499</v>
       </c>
       <c r="K3">
-        <v>1.037588209032668</v>
+        <v>1.042838922411839</v>
       </c>
       <c r="L3">
-        <v>1.024538391050495</v>
+        <v>1.013475548897317</v>
       </c>
       <c r="M3">
-        <v>1.036399112437202</v>
+        <v>1.016682745622582</v>
       </c>
       <c r="N3">
-        <v>1.012679966279229</v>
+        <v>1.00957721123476</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021500889404716</v>
+        <v>0.9986121048036817</v>
       </c>
       <c r="D4">
-        <v>1.035307139807149</v>
+        <v>1.034117758196584</v>
       </c>
       <c r="E4">
-        <v>1.022336957486079</v>
+        <v>1.004784863982231</v>
       </c>
       <c r="F4">
-        <v>1.034477980019807</v>
+        <v>1.00910673293697</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033972224898809</v>
+        <v>1.04463293101988</v>
       </c>
       <c r="J4">
-        <v>1.026102318233085</v>
+        <v>1.018051379836301</v>
       </c>
       <c r="K4">
-        <v>1.037792857941158</v>
+        <v>1.043821137390137</v>
       </c>
       <c r="L4">
-        <v>1.0248559728654</v>
+        <v>1.014825880918899</v>
       </c>
       <c r="M4">
-        <v>1.0369657998536</v>
+        <v>1.019096476327567</v>
       </c>
       <c r="N4">
-        <v>1.012776766674737</v>
+        <v>1.010004969831299</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021721669041984</v>
+        <v>0.9996215100249228</v>
       </c>
       <c r="D5">
-        <v>1.035445216201757</v>
+        <v>1.034746779366497</v>
       </c>
       <c r="E5">
-        <v>1.022523540266834</v>
+        <v>1.00557899164512</v>
       </c>
       <c r="F5">
-        <v>1.034768868606797</v>
+        <v>1.010346301890573</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034013796768048</v>
+        <v>1.044881492061326</v>
       </c>
       <c r="J5">
-        <v>1.026224141934905</v>
+        <v>1.018579296306804</v>
       </c>
       <c r="K5">
-        <v>1.037878777026058</v>
+        <v>1.044228622030304</v>
       </c>
       <c r="L5">
-        <v>1.024989537503933</v>
+        <v>1.015387623575847</v>
       </c>
       <c r="M5">
-        <v>1.037204105591703</v>
+        <v>1.020099930112685</v>
       </c>
       <c r="N5">
-        <v>1.012817446690182</v>
+        <v>1.010182684808999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02175874709114</v>
+        <v>0.9997903807804193</v>
       </c>
       <c r="D6">
-        <v>1.035468403044729</v>
+        <v>1.034852039012491</v>
       </c>
       <c r="E6">
-        <v>1.022554880888857</v>
+        <v>1.005711928310985</v>
       </c>
       <c r="F6">
-        <v>1.034817722513041</v>
+        <v>1.010553691940349</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034020763008523</v>
+        <v>1.044922950306949</v>
       </c>
       <c r="J6">
-        <v>1.026244595788477</v>
+        <v>1.018667579321327</v>
       </c>
       <c r="K6">
-        <v>1.037893196419656</v>
+        <v>1.044296724605734</v>
       </c>
       <c r="L6">
-        <v>1.025011966681212</v>
+        <v>1.015481599199689</v>
       </c>
       <c r="M6">
-        <v>1.03724412227031</v>
+        <v>1.020267763644816</v>
       </c>
       <c r="N6">
-        <v>1.012824276159938</v>
+        <v>1.010212401476475</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02150383892411</v>
+        <v>0.9986256337959379</v>
       </c>
       <c r="D7">
-        <v>1.035308984574401</v>
+        <v>1.034126187130002</v>
       </c>
       <c r="E7">
-        <v>1.022339449772083</v>
+        <v>1.004795502142872</v>
       </c>
       <c r="F7">
-        <v>1.034481866053582</v>
+        <v>1.009123345918096</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033972781312354</v>
+        <v>1.044636270865795</v>
       </c>
       <c r="J7">
-        <v>1.026103946105704</v>
+        <v>1.018058457869513</v>
       </c>
       <c r="K7">
-        <v>1.037794006450872</v>
+        <v>1.043826603450235</v>
       </c>
       <c r="L7">
-        <v>1.024857757354958</v>
+        <v>1.014833410064108</v>
       </c>
       <c r="M7">
-        <v>1.036968983831348</v>
+        <v>1.019109928357533</v>
       </c>
       <c r="N7">
-        <v>1.012777310302035</v>
+        <v>1.010007352705889</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02043955804878</v>
+        <v>0.9936661569480985</v>
       </c>
       <c r="D8">
-        <v>1.034643118633423</v>
+        <v>1.031039820111748</v>
       </c>
       <c r="E8">
-        <v>1.021440811121135</v>
+        <v>1.000905536879504</v>
       </c>
       <c r="F8">
-        <v>1.033079847099957</v>
+        <v>1.003034622391269</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033770224541198</v>
+        <v>1.043397440851509</v>
       </c>
       <c r="J8">
-        <v>1.025515933183862</v>
+        <v>1.015459699605706</v>
       </c>
       <c r="K8">
-        <v>1.037378433298817</v>
+        <v>1.041815132218867</v>
       </c>
       <c r="L8">
-        <v>1.024213642704889</v>
+        <v>1.012073256048684</v>
       </c>
       <c r="M8">
-        <v>1.035819549799632</v>
+        <v>1.014173644099223</v>
       </c>
       <c r="N8">
-        <v>1.012580875573124</v>
+        <v>1.009132188647893</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018568757047853</v>
+        <v>0.9845599075446514</v>
       </c>
       <c r="D9">
-        <v>1.033471699431563</v>
+        <v>1.025394098330419</v>
       </c>
       <c r="E9">
-        <v>1.019864297772714</v>
+        <v>0.9938121230995003</v>
       </c>
       <c r="F9">
-        <v>1.0306161851209</v>
+        <v>0.9918580365113417</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033405795169621</v>
+        <v>1.041055659217182</v>
       </c>
       <c r="J9">
-        <v>1.024479397252429</v>
+        <v>1.010669929463162</v>
       </c>
       <c r="K9">
-        <v>1.036642546969375</v>
+        <v>1.038088184234253</v>
       </c>
       <c r="L9">
-        <v>1.023080426629315</v>
+        <v>1.007006398479939</v>
       </c>
       <c r="M9">
-        <v>1.033796426200675</v>
+        <v>1.005084607236492</v>
       </c>
       <c r="N9">
-        <v>1.012234287652907</v>
+        <v>1.00751803179112</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017324736253417</v>
+        <v>0.9782182142644016</v>
       </c>
       <c r="D10">
-        <v>1.032692156229339</v>
+        <v>1.021481457005111</v>
       </c>
       <c r="E10">
-        <v>1.018818097445319</v>
+        <v>0.9889078788110027</v>
       </c>
       <c r="F10">
-        <v>1.028978424172869</v>
+        <v>0.9840732643380015</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033157841179647</v>
+        <v>1.039381704404226</v>
       </c>
       <c r="J10">
-        <v>1.023788180472377</v>
+        <v>1.007323506742116</v>
       </c>
       <c r="K10">
-        <v>1.036149615120622</v>
+        <v>1.035473394644326</v>
       </c>
       <c r="L10">
-        <v>1.022326229508256</v>
+        <v>1.003480335192831</v>
       </c>
       <c r="M10">
-        <v>1.032449299034644</v>
+        <v>0.9987361609517791</v>
       </c>
       <c r="N10">
-        <v>1.012002954083287</v>
+        <v>1.006389675261004</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016786834296415</v>
+        <v>0.9754021721542128</v>
       </c>
       <c r="D11">
-        <v>1.032354961665597</v>
+        <v>1.019749668334371</v>
       </c>
       <c r="E11">
-        <v>1.018366242863165</v>
+        <v>0.986739189673448</v>
       </c>
       <c r="F11">
-        <v>1.028270377586822</v>
+        <v>0.9806152989658076</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033049296687816</v>
+        <v>1.03862867617133</v>
       </c>
       <c r="J11">
-        <v>1.023488843692351</v>
+        <v>1.005835301649294</v>
       </c>
       <c r="K11">
-        <v>1.035935630792385</v>
+        <v>1.034308504273949</v>
       </c>
       <c r="L11">
-        <v>1.021999972775257</v>
+        <v>1.001915594608034</v>
       </c>
       <c r="M11">
-        <v>1.031866374673862</v>
+        <v>0.99591228127664</v>
       </c>
       <c r="N11">
-        <v>1.011902723950424</v>
+        <v>1.005887769890467</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016587150312988</v>
+        <v>0.9743451180438123</v>
       </c>
       <c r="D12">
-        <v>1.032229767503323</v>
+        <v>1.019100551434547</v>
       </c>
       <c r="E12">
-        <v>1.018198579506582</v>
+        <v>0.9859265434735572</v>
       </c>
       <c r="F12">
-        <v>1.028007545935096</v>
+        <v>0.9793170433317251</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033008802002832</v>
+        <v>1.038344600258885</v>
       </c>
       <c r="J12">
-        <v>1.02337765244758</v>
+        <v>1.005276371950107</v>
       </c>
       <c r="K12">
-        <v>1.035856067394311</v>
+        <v>1.033870741220284</v>
       </c>
       <c r="L12">
-        <v>1.021878835142881</v>
+        <v>1.001328428466765</v>
       </c>
       <c r="M12">
-        <v>1.031649910203106</v>
+        <v>0.9948515213377593</v>
       </c>
       <c r="N12">
-        <v>1.01186548523199</v>
+        <v>1.005699254645136</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016629977898115</v>
+        <v>0.9745723686313775</v>
       </c>
       <c r="D13">
-        <v>1.032256619560616</v>
+        <v>1.019240057534414</v>
       </c>
       <c r="E13">
-        <v>1.018234535893965</v>
+        <v>0.9861011854107509</v>
       </c>
       <c r="F13">
-        <v>1.028063916582648</v>
+        <v>0.9795961608576803</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033017496223182</v>
+        <v>1.03840573536085</v>
       </c>
       <c r="J13">
-        <v>1.023401503521496</v>
+        <v>1.005396546611017</v>
       </c>
       <c r="K13">
-        <v>1.035873137617106</v>
+        <v>1.033964875070674</v>
       </c>
       <c r="L13">
-        <v>1.02190481735522</v>
+        <v>1.001454651163466</v>
       </c>
       <c r="M13">
-        <v>1.031696339855583</v>
+        <v>0.995079603764874</v>
       </c>
       <c r="N13">
-        <v>1.011873473454503</v>
+        <v>1.005739787576174</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016770325965737</v>
+        <v>0.9753150243258096</v>
       </c>
       <c r="D14">
-        <v>1.032344611945873</v>
+        <v>1.019696132771094</v>
       </c>
       <c r="E14">
-        <v>1.01835238016663</v>
+        <v>0.986672162808936</v>
       </c>
       <c r="F14">
-        <v>1.028248648400429</v>
+        <v>0.9805082709109515</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033045952979716</v>
+        <v>1.038605284258476</v>
       </c>
       <c r="J14">
-        <v>1.023479652669584</v>
+        <v>1.005789227228333</v>
       </c>
       <c r="K14">
-        <v>1.035929055683541</v>
+        <v>1.034272423063374</v>
       </c>
       <c r="L14">
-        <v>1.021989958501326</v>
+        <v>1.001867182204543</v>
       </c>
       <c r="M14">
-        <v>1.031848480432252</v>
+        <v>0.9958248436797889</v>
       </c>
       <c r="N14">
-        <v>1.011899645963193</v>
+        <v>1.005872230204947</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016856814557617</v>
+        <v>0.9757711183687277</v>
       </c>
       <c r="D15">
-        <v>1.032398834291972</v>
+        <v>1.019976353772062</v>
       </c>
       <c r="E15">
-        <v>1.018425011226337</v>
+        <v>0.987023010320591</v>
       </c>
       <c r="F15">
-        <v>1.028362490108893</v>
+        <v>0.9810683990654626</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033063462768282</v>
+        <v>1.038727650077731</v>
       </c>
       <c r="J15">
-        <v>1.023527802409711</v>
+        <v>1.006030348597469</v>
       </c>
       <c r="K15">
-        <v>1.035963498075097</v>
+        <v>1.034461236557408</v>
       </c>
       <c r="L15">
-        <v>1.022042423254139</v>
+        <v>1.002120559691674</v>
       </c>
       <c r="M15">
-        <v>1.031942227186579</v>
+        <v>0.9962824228678773</v>
       </c>
       <c r="N15">
-        <v>1.011915770557722</v>
+        <v>1.005953553559084</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017360451326403</v>
+        <v>0.9784035856636059</v>
       </c>
       <c r="D16">
-        <v>1.032714542318014</v>
+        <v>1.021595580823444</v>
       </c>
       <c r="E16">
-        <v>1.018848110070527</v>
+        <v>0.9890508300872035</v>
       </c>
       <c r="F16">
-        <v>1.029025438455529</v>
+        <v>0.9843008619518311</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033165020141784</v>
+        <v>1.039431075316974</v>
       </c>
       <c r="J16">
-        <v>1.023808045815513</v>
+        <v>1.007421426884177</v>
       </c>
       <c r="K16">
-        <v>1.036163805254166</v>
+        <v>1.035550002608351</v>
       </c>
       <c r="L16">
-        <v>1.022347888847407</v>
+        <v>1.003583361447397</v>
       </c>
       <c r="M16">
-        <v>1.032487994111477</v>
+        <v>0.998921944297117</v>
       </c>
       <c r="N16">
-        <v>1.012009604772963</v>
+        <v>1.006422697377839</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017676575827102</v>
+        <v>0.9800357474806788</v>
       </c>
       <c r="D17">
-        <v>1.032912673423332</v>
+        <v>1.022601073568544</v>
       </c>
       <c r="E17">
-        <v>1.01911381979001</v>
+        <v>0.9903105282752466</v>
       </c>
       <c r="F17">
-        <v>1.029441587514098</v>
+        <v>0.9863046815833273</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03322840927963</v>
+        <v>1.0398646763849</v>
       </c>
       <c r="J17">
-        <v>1.023983826393708</v>
+        <v>1.008283346653917</v>
       </c>
       <c r="K17">
-        <v>1.036289308559606</v>
+        <v>1.036224098432604</v>
       </c>
       <c r="L17">
-        <v>1.022539584706715</v>
+        <v>1.00449060909662</v>
       </c>
       <c r="M17">
-        <v>1.032830444497338</v>
+        <v>1.000557177447474</v>
       </c>
       <c r="N17">
-        <v>1.01206844840664</v>
+        <v>1.00671335511701</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017861039829536</v>
+        <v>0.9809810386079878</v>
       </c>
       <c r="D18">
-        <v>1.033028273856039</v>
+        <v>1.023183948187414</v>
       </c>
       <c r="E18">
-        <v>1.019268915298693</v>
+        <v>0.9910409581658495</v>
       </c>
       <c r="F18">
-        <v>1.029684427711864</v>
+        <v>0.9874651226090378</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033265269311298</v>
+        <v>1.040114877491864</v>
       </c>
       <c r="J18">
-        <v>1.024086352747881</v>
+        <v>1.008782327592577</v>
       </c>
       <c r="K18">
-        <v>1.036362460173805</v>
+        <v>1.03661414650611</v>
       </c>
       <c r="L18">
-        <v>1.022651428026359</v>
+        <v>1.005016149304469</v>
       </c>
       <c r="M18">
-        <v>1.03303022763873</v>
+        <v>1.001503790058081</v>
       </c>
       <c r="N18">
-        <v>1.012102764973333</v>
+        <v>1.006881611669394</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017923949782083</v>
+        <v>0.9813022338792546</v>
       </c>
       <c r="D19">
-        <v>1.033067696309915</v>
+        <v>1.023382086732664</v>
       </c>
       <c r="E19">
-        <v>1.019321817723343</v>
+        <v>0.9912892907168052</v>
       </c>
       <c r="F19">
-        <v>1.029767248148984</v>
+        <v>0.9878594074547969</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033277818310112</v>
+        <v>1.040199733627587</v>
       </c>
       <c r="J19">
-        <v>1.024121310961645</v>
+        <v>1.008951836605961</v>
       </c>
       <c r="K19">
-        <v>1.036387394067118</v>
+        <v>1.036746614899839</v>
       </c>
       <c r="L19">
-        <v>1.022689568821598</v>
+        <v>1.005194734618473</v>
       </c>
       <c r="M19">
-        <v>1.033098354881377</v>
+        <v>1.00182535782648</v>
       </c>
       <c r="N19">
-        <v>1.012114465017694</v>
+        <v>1.006938768302046</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017642651002366</v>
+        <v>0.9798613308779875</v>
       </c>
       <c r="D20">
-        <v>1.032891412309459</v>
+        <v>1.022493568802063</v>
       </c>
       <c r="E20">
-        <v>1.01908530010383</v>
+        <v>0.9901758247829344</v>
       </c>
       <c r="F20">
-        <v>1.02939692753348</v>
+        <v>0.9860905597924229</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033221619989009</v>
+        <v>1.039818436437855</v>
       </c>
       <c r="J20">
-        <v>1.023964967153753</v>
+        <v>1.008191261779751</v>
       </c>
       <c r="K20">
-        <v>1.0362758486473</v>
+        <v>1.036152100324513</v>
       </c>
       <c r="L20">
-        <v>1.022519014405203</v>
+        <v>1.004393648498091</v>
       </c>
       <c r="M20">
-        <v>1.032793698913508</v>
+        <v>1.000382480320783</v>
       </c>
       <c r="N20">
-        <v>1.012062135651998</v>
+        <v>1.006682303196298</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016728993723023</v>
+        <v>0.9750966401853048</v>
       </c>
       <c r="D21">
-        <v>1.032318698850412</v>
+        <v>1.019561993280257</v>
       </c>
       <c r="E21">
-        <v>1.018317673105584</v>
+        <v>0.986504222814555</v>
       </c>
       <c r="F21">
-        <v>1.028194244829118</v>
+        <v>0.9802400646295518</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033037578039066</v>
+        <v>1.038546643751364</v>
       </c>
       <c r="J21">
-        <v>1.023456639801611</v>
+        <v>1.005673764328581</v>
       </c>
       <c r="K21">
-        <v>1.035912591407364</v>
+        <v>1.034181999182513</v>
       </c>
       <c r="L21">
-        <v>1.021964885203178</v>
+        <v>1.00174586850437</v>
       </c>
       <c r="M21">
-        <v>1.031803677172075</v>
+        <v>0.9956057209678817</v>
       </c>
       <c r="N21">
-        <v>1.01189193905095</v>
+        <v>1.005833287417062</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016155217363884</v>
+        <v>0.9720366686646382</v>
       </c>
       <c r="D22">
-        <v>1.031958929814074</v>
+        <v>1.017684818255534</v>
       </c>
       <c r="E22">
-        <v>1.017836052094975</v>
+        <v>0.9841544986927466</v>
       </c>
       <c r="F22">
-        <v>1.027439045103034</v>
+        <v>0.9764813102845955</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032920843136309</v>
+        <v>1.037721675683987</v>
       </c>
       <c r="J22">
-        <v>1.023137010239642</v>
+        <v>1.004055226660831</v>
       </c>
       <c r="K22">
-        <v>1.035683734411277</v>
+        <v>1.032913891939954</v>
       </c>
       <c r="L22">
-        <v>1.021616764232641</v>
+        <v>1.000046531925776</v>
       </c>
       <c r="M22">
-        <v>1.031181556442233</v>
+        <v>0.9925335317615303</v>
       </c>
       <c r="N22">
-        <v>1.011784879069901</v>
+        <v>1.005287367333741</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016459322473189</v>
+        <v>0.9736650896354165</v>
       </c>
       <c r="D23">
-        <v>1.03214961934723</v>
+        <v>1.018683236812561</v>
       </c>
       <c r="E23">
-        <v>1.018091271574994</v>
+        <v>0.9854041530617772</v>
       </c>
       <c r="F23">
-        <v>1.02783929808012</v>
+        <v>0.9784817656666835</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032982823017321</v>
+        <v>1.038161455135226</v>
       </c>
       <c r="J23">
-        <v>1.02330645383222</v>
+        <v>1.004916717056962</v>
       </c>
       <c r="K23">
-        <v>1.035805099273166</v>
+        <v>1.033588985780159</v>
       </c>
       <c r="L23">
-        <v>1.021801282600103</v>
+        <v>1.000950748044628</v>
       </c>
       <c r="M23">
-        <v>1.03151132138272</v>
+        <v>0.9941688887809838</v>
       </c>
       <c r="N23">
-        <v>1.011841638254549</v>
+        <v>1.005577947299704</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017657979942128</v>
+        <v>0.9799401629656754</v>
       </c>
       <c r="D24">
-        <v>1.032901019187118</v>
+        <v>1.022542156727206</v>
       </c>
       <c r="E24">
-        <v>1.019098186578026</v>
+        <v>0.9902367048534489</v>
       </c>
       <c r="F24">
-        <v>1.029417107124257</v>
+        <v>0.9861873379736819</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03322468812884</v>
+        <v>1.039839338648034</v>
       </c>
       <c r="J24">
-        <v>1.02397348884339</v>
+        <v>1.008232882578703</v>
       </c>
       <c r="K24">
-        <v>1.036281930764183</v>
+        <v>1.036184642864346</v>
       </c>
       <c r="L24">
-        <v>1.022528309145336</v>
+        <v>1.0044374720557</v>
       </c>
       <c r="M24">
-        <v>1.032810302544939</v>
+        <v>1.000461440613266</v>
       </c>
       <c r="N24">
-        <v>1.012064988132461</v>
+        <v>1.006696338169694</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019051849966111</v>
+        <v>0.9869599799046773</v>
       </c>
       <c r="D25">
-        <v>1.033774300196419</v>
+        <v>1.026879153159117</v>
       </c>
       <c r="E25">
-        <v>1.020271024053384</v>
+        <v>0.9956757077968668</v>
       </c>
       <c r="F25">
-        <v>1.031252280142302</v>
+        <v>0.9948037382924063</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033500893337683</v>
+        <v>1.041680480474356</v>
       </c>
       <c r="J25">
-        <v>1.024747405311682</v>
+        <v>1.011934305525876</v>
       </c>
       <c r="K25">
-        <v>1.036833209316908</v>
+        <v>1.039074057398415</v>
       </c>
       <c r="L25">
-        <v>1.023373169803165</v>
+        <v>1.008341525801711</v>
       </c>
       <c r="M25">
-        <v>1.034319170541572</v>
+        <v>1.007483258686834</v>
       </c>
       <c r="N25">
-        <v>1.012323939165588</v>
+        <v>1.007944244527726</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9923653149077151</v>
+        <v>0.9949213003666397</v>
       </c>
       <c r="D2">
-        <v>1.030231537876954</v>
+        <v>1.045221933050624</v>
       </c>
       <c r="E2">
-        <v>0.9998884087463894</v>
+        <v>1.016228615976386</v>
       </c>
       <c r="F2">
-        <v>1.001437906527429</v>
+        <v>1.038033658298526</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043067945453026</v>
+        <v>1.06051950768971</v>
       </c>
       <c r="J2">
-        <v>1.014776800939856</v>
+        <v>1.017254982883099</v>
       </c>
       <c r="K2">
-        <v>1.041285172678633</v>
+        <v>1.05608525300626</v>
       </c>
       <c r="L2">
-        <v>1.011349298430884</v>
+        <v>1.027466397073317</v>
       </c>
       <c r="M2">
-        <v>1.012877245311483</v>
+        <v>1.048987382629279</v>
       </c>
       <c r="N2">
-        <v>1.008902132171061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009033118942842</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047342585953695</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.050727290959578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9961857914275736</v>
+        <v>1.000697190377599</v>
       </c>
       <c r="D3">
-        <v>1.032606923371793</v>
+        <v>1.047756748971139</v>
       </c>
       <c r="E3">
-        <v>1.002879378154661</v>
+        <v>1.02060551975519</v>
       </c>
       <c r="F3">
-        <v>1.006127673700087</v>
+        <v>1.041549105438737</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044030378664393</v>
+        <v>1.061420127485</v>
       </c>
       <c r="J3">
-        <v>1.0167809784499</v>
+        <v>1.021168867307553</v>
       </c>
       <c r="K3">
-        <v>1.042838922411839</v>
+        <v>1.057812971025133</v>
       </c>
       <c r="L3">
-        <v>1.013475548897317</v>
+        <v>1.030981366607517</v>
       </c>
       <c r="M3">
-        <v>1.016682745622582</v>
+        <v>1.051676588103931</v>
       </c>
       <c r="N3">
-        <v>1.00957721123476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010407732886356</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049470888768693</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.051946277126413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9986121048036817</v>
+        <v>1.004347776652303</v>
       </c>
       <c r="D4">
-        <v>1.034117758196584</v>
+        <v>1.049361360160591</v>
       </c>
       <c r="E4">
-        <v>1.004784863982231</v>
+        <v>1.023377768979607</v>
       </c>
       <c r="F4">
-        <v>1.00910673293697</v>
+        <v>1.043775413836107</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04463293101988</v>
+        <v>1.061975069642759</v>
       </c>
       <c r="J4">
-        <v>1.018051379836301</v>
+        <v>1.023640915964112</v>
       </c>
       <c r="K4">
-        <v>1.043821137390137</v>
+        <v>1.058898416193014</v>
       </c>
       <c r="L4">
-        <v>1.014825880918899</v>
+        <v>1.033202000531017</v>
       </c>
       <c r="M4">
-        <v>1.019096476327567</v>
+        <v>1.053372726310639</v>
       </c>
       <c r="N4">
-        <v>1.010004969831299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011275151574614</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050813250790952</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.052714635732416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9996215100249228</v>
+        <v>1.005864101913951</v>
       </c>
       <c r="D5">
-        <v>1.034746779366497</v>
+        <v>1.050030699000577</v>
       </c>
       <c r="E5">
-        <v>1.00557899164512</v>
+        <v>1.0245306660398</v>
       </c>
       <c r="F5">
-        <v>1.010346301890573</v>
+        <v>1.044700841014876</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044881492061326</v>
+        <v>1.062203254011736</v>
       </c>
       <c r="J5">
-        <v>1.018579296306804</v>
+        <v>1.024667702994967</v>
       </c>
       <c r="K5">
-        <v>1.044228622030304</v>
+        <v>1.059350166520984</v>
       </c>
       <c r="L5">
-        <v>1.015387623575847</v>
+        <v>1.034124363876999</v>
       </c>
       <c r="M5">
-        <v>1.020099930112685</v>
+        <v>1.054076272571726</v>
       </c>
       <c r="N5">
-        <v>1.010182684808999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011636166661037</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.05137005245863</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.053041097488525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9997903807804193</v>
+        <v>1.006119352470206</v>
       </c>
       <c r="D6">
-        <v>1.034852039012491</v>
+        <v>1.050146292236054</v>
       </c>
       <c r="E6">
-        <v>1.005711928310985</v>
+        <v>1.024724911348043</v>
       </c>
       <c r="F6">
-        <v>1.010553691940349</v>
+        <v>1.044856384458709</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044922950306949</v>
+        <v>1.062242911774636</v>
       </c>
       <c r="J6">
-        <v>1.018667579321327</v>
+        <v>1.024841054182127</v>
       </c>
       <c r="K6">
-        <v>1.044296724605734</v>
+        <v>1.059429227594861</v>
       </c>
       <c r="L6">
-        <v>1.015481599199689</v>
+        <v>1.034279963996858</v>
       </c>
       <c r="M6">
-        <v>1.020267763644816</v>
+        <v>1.05419461036181</v>
       </c>
       <c r="N6">
-        <v>1.010212401476475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011698239100563</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.05146370749443</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.053105591907098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9986256337959379</v>
+        <v>1.004372894053396</v>
       </c>
       <c r="D7">
-        <v>1.034126187130002</v>
+        <v>1.049380051270057</v>
       </c>
       <c r="E7">
-        <v>1.004795502142872</v>
+        <v>1.023397080551824</v>
       </c>
       <c r="F7">
-        <v>1.009123345918096</v>
+        <v>1.043789808328999</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044636270865795</v>
+        <v>1.061982669609839</v>
       </c>
       <c r="J7">
-        <v>1.018058457869513</v>
+        <v>1.023659348373281</v>
       </c>
       <c r="K7">
-        <v>1.043826603450235</v>
+        <v>1.058914093080404</v>
       </c>
       <c r="L7">
-        <v>1.014833410064108</v>
+        <v>1.033218182484393</v>
       </c>
       <c r="M7">
-        <v>1.019109928357533</v>
+        <v>1.053384130575356</v>
       </c>
       <c r="N7">
-        <v>1.010007352705889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011284732772692</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050822276375036</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.052745487165113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936661569480985</v>
+        <v>0.9968975943570086</v>
       </c>
       <c r="D8">
-        <v>1.031039820111748</v>
+        <v>1.046097329520719</v>
       </c>
       <c r="E8">
-        <v>1.000905536879504</v>
+        <v>1.017725024394085</v>
       </c>
       <c r="F8">
-        <v>1.003034622391269</v>
+        <v>1.039233649960488</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043397440851509</v>
+        <v>1.060834858620897</v>
       </c>
       <c r="J8">
-        <v>1.015459699605706</v>
+        <v>1.018596175166015</v>
       </c>
       <c r="K8">
-        <v>1.041815132218867</v>
+        <v>1.056687090630558</v>
       </c>
       <c r="L8">
-        <v>1.012073256048684</v>
+        <v>1.028670134568235</v>
       </c>
       <c r="M8">
-        <v>1.014173644099223</v>
+        <v>1.049907161239293</v>
       </c>
       <c r="N8">
-        <v>1.009132188647893</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009508413956062</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048070521870783</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.051175357314801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9845599075446514</v>
+        <v>0.9830085854452287</v>
       </c>
       <c r="D9">
-        <v>1.025394098330419</v>
+        <v>1.040014798448678</v>
       </c>
       <c r="E9">
-        <v>0.9938121230995003</v>
+        <v>1.007238121123294</v>
       </c>
       <c r="F9">
-        <v>0.9918580365113417</v>
+        <v>1.030813119465369</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041055659217182</v>
+        <v>1.058586888938517</v>
       </c>
       <c r="J9">
-        <v>1.010669929463162</v>
+        <v>1.009175959719968</v>
       </c>
       <c r="K9">
-        <v>1.038088184234253</v>
+        <v>1.052490388738788</v>
       </c>
       <c r="L9">
-        <v>1.007006398479939</v>
+        <v>1.020214846352213</v>
       </c>
       <c r="M9">
-        <v>1.005084607236492</v>
+        <v>1.043425301982716</v>
       </c>
       <c r="N9">
-        <v>1.00751803179112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.006192259967156</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042940600139748</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.048204974656395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9782182142644016</v>
+        <v>0.9732825440445924</v>
       </c>
       <c r="D10">
-        <v>1.021481457005111</v>
+        <v>1.035799655192661</v>
       </c>
       <c r="E10">
-        <v>0.9889078788110027</v>
+        <v>0.9999526663461373</v>
       </c>
       <c r="F10">
-        <v>0.9840732643380015</v>
+        <v>1.024994582348788</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039381704404226</v>
+        <v>1.05696002748101</v>
       </c>
       <c r="J10">
-        <v>1.007323506742116</v>
+        <v>1.002597811001586</v>
       </c>
       <c r="K10">
-        <v>1.035473394644326</v>
+        <v>1.049551281303071</v>
       </c>
       <c r="L10">
-        <v>1.003480335192831</v>
+        <v>1.014322775469307</v>
       </c>
       <c r="M10">
-        <v>0.9987361609517791</v>
+        <v>1.038926754789806</v>
       </c>
       <c r="N10">
-        <v>1.006389675261004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.003891164670565</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039431683850558</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.046143462777338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9754021721542128</v>
+        <v>0.9695259631788016</v>
       </c>
       <c r="D11">
-        <v>1.019749668334371</v>
+        <v>1.034279495021967</v>
       </c>
       <c r="E11">
-        <v>0.986739189673448</v>
+        <v>0.9972716157393852</v>
       </c>
       <c r="F11">
-        <v>0.9806152989658076</v>
+        <v>1.023067510252577</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03862867617133</v>
+        <v>1.056427982138922</v>
       </c>
       <c r="J11">
-        <v>1.005835301649294</v>
+        <v>1.000223844267202</v>
       </c>
       <c r="K11">
-        <v>1.034308504273949</v>
+        <v>1.048582664602862</v>
       </c>
       <c r="L11">
-        <v>1.001915594608034</v>
+        <v>1.012245169468235</v>
       </c>
       <c r="M11">
-        <v>0.99591228127664</v>
+        <v>1.037567135274681</v>
       </c>
       <c r="N11">
-        <v>1.005887769890467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.003206285189034</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.038791750693603</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.045491007382087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9743451180438123</v>
+        <v>0.9683027269647801</v>
       </c>
       <c r="D12">
-        <v>1.019100551434547</v>
+        <v>1.033814137845069</v>
       </c>
       <c r="E12">
-        <v>0.9859265434735572</v>
+        <v>0.996439611542544</v>
       </c>
       <c r="F12">
-        <v>0.9793170433317251</v>
+        <v>1.022559417184824</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038344600258885</v>
+        <v>1.056290106312236</v>
       </c>
       <c r="J12">
-        <v>1.005276371950107</v>
+        <v>0.9995119063370463</v>
       </c>
       <c r="K12">
-        <v>1.033870741220284</v>
+        <v>1.048320972091449</v>
       </c>
       <c r="L12">
-        <v>1.001328428466765</v>
+        <v>1.011635342346212</v>
       </c>
       <c r="M12">
-        <v>0.9948515213377593</v>
+        <v>1.03726681143624</v>
       </c>
       <c r="N12">
-        <v>1.005699254645136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00307430293226</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03888055293738</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.045305987085774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9745723686313775</v>
+        <v>0.9689721395174518</v>
       </c>
       <c r="D13">
-        <v>1.019240057534414</v>
+        <v>1.034148130581984</v>
       </c>
       <c r="E13">
-        <v>0.9861011854107509</v>
+        <v>0.9969937066384617</v>
       </c>
       <c r="F13">
-        <v>0.9795961608576803</v>
+        <v>1.023128762765721</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03840573536085</v>
+        <v>1.056461254665419</v>
       </c>
       <c r="J13">
-        <v>1.005396546611017</v>
+        <v>1.000052615217528</v>
       </c>
       <c r="K13">
-        <v>1.033964875070674</v>
+        <v>1.048607160056837</v>
       </c>
       <c r="L13">
-        <v>1.001454651163466</v>
+        <v>1.012134501662611</v>
       </c>
       <c r="M13">
-        <v>0.995079603764874</v>
+        <v>1.037783280302132</v>
       </c>
       <c r="N13">
-        <v>1.005739787576174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.003369722467109</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039565533342696</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.045505867945417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9753150243258096</v>
+        <v>0.9702930675416935</v>
       </c>
       <c r="D14">
-        <v>1.019696132771094</v>
+        <v>1.034743076259593</v>
       </c>
       <c r="E14">
-        <v>0.986672162808936</v>
+        <v>0.998004506414603</v>
       </c>
       <c r="F14">
-        <v>0.9805082709109515</v>
+        <v>1.024011512034261</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038605284258476</v>
+        <v>1.056719949610367</v>
       </c>
       <c r="J14">
-        <v>1.005789227228333</v>
+        <v>1.000993631657938</v>
       </c>
       <c r="K14">
-        <v>1.034272423063374</v>
+        <v>1.049054391753127</v>
       </c>
       <c r="L14">
-        <v>1.001867182204543</v>
+        <v>1.012981171602559</v>
       </c>
       <c r="M14">
-        <v>0.9958248436797889</v>
+        <v>1.038510775665364</v>
       </c>
       <c r="N14">
-        <v>1.005872230204947</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.003768373582449</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040313866670138</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.045823472060057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9757711183687277</v>
+        <v>0.9710313487243261</v>
       </c>
       <c r="D15">
-        <v>1.019976353772062</v>
+        <v>1.035068700885657</v>
       </c>
       <c r="E15">
-        <v>0.987023010320591</v>
+        <v>0.9985596535987376</v>
       </c>
       <c r="F15">
-        <v>0.9810683990654626</v>
+        <v>1.024471071688689</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038727650077731</v>
+        <v>1.056853920856261</v>
       </c>
       <c r="J15">
-        <v>1.006030348597469</v>
+        <v>1.001502239960148</v>
       </c>
       <c r="K15">
-        <v>1.034461236557408</v>
+        <v>1.049289820856672</v>
       </c>
       <c r="L15">
-        <v>1.002120559691674</v>
+        <v>1.013436704971272</v>
       </c>
       <c r="M15">
-        <v>0.9962824228678773</v>
+        <v>1.038876348721858</v>
       </c>
       <c r="N15">
-        <v>1.005953553559084</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.003961882877345</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040640335650545</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.045995712375492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9784035856636059</v>
+        <v>0.9750598774574477</v>
       </c>
       <c r="D16">
-        <v>1.021595580823444</v>
+        <v>1.036814040418077</v>
       </c>
       <c r="E16">
-        <v>0.9890508300872035</v>
+        <v>1.001568755621945</v>
       </c>
       <c r="F16">
-        <v>0.9843008619518311</v>
+        <v>1.026871114090107</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039431075316974</v>
+        <v>1.057540734363796</v>
       </c>
       <c r="J16">
-        <v>1.007421426884177</v>
+        <v>1.004219102427766</v>
       </c>
       <c r="K16">
-        <v>1.035550002608351</v>
+        <v>1.05051414288638</v>
       </c>
       <c r="L16">
-        <v>1.003583361447397</v>
+        <v>1.015873148704626</v>
       </c>
       <c r="M16">
-        <v>0.998921944297117</v>
+        <v>1.040736274483079</v>
       </c>
       <c r="N16">
-        <v>1.006422697377839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.004890480261345</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042071735238588</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.046864448424255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9800357474806788</v>
+        <v>0.9774528555902798</v>
       </c>
       <c r="D17">
-        <v>1.022601073568544</v>
+        <v>1.037839121620956</v>
       </c>
       <c r="E17">
-        <v>0.9903105282752466</v>
+        <v>1.003344610880574</v>
       </c>
       <c r="F17">
-        <v>0.9863046815833273</v>
+        <v>1.028243051979127</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0398646763849</v>
+        <v>1.057926969205755</v>
       </c>
       <c r="J17">
-        <v>1.008283346653917</v>
+        <v>1.005805937069103</v>
       </c>
       <c r="K17">
-        <v>1.036224098432604</v>
+        <v>1.051214700283054</v>
       </c>
       <c r="L17">
-        <v>1.00449060909662</v>
+        <v>1.017294249994904</v>
       </c>
       <c r="M17">
-        <v>1.000557177447474</v>
+        <v>1.041773359665993</v>
       </c>
       <c r="N17">
-        <v>1.00671335511701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.005392581619337</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042762610417918</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.04736230359309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9809810386079878</v>
+        <v>0.9786608786083744</v>
       </c>
       <c r="D18">
-        <v>1.023183948187414</v>
+        <v>1.03832448972825</v>
       </c>
       <c r="E18">
-        <v>0.9910409581658495</v>
+        <v>1.00420935235662</v>
       </c>
       <c r="F18">
-        <v>0.9874651226090378</v>
+        <v>1.028832068513837</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040114877491864</v>
+        <v>1.05808425865814</v>
       </c>
       <c r="J18">
-        <v>1.008782327592577</v>
+        <v>1.006555018818442</v>
       </c>
       <c r="K18">
-        <v>1.03661414650611</v>
+        <v>1.051512932385047</v>
       </c>
       <c r="L18">
-        <v>1.005016149304469</v>
+        <v>1.017955820329543</v>
       </c>
       <c r="M18">
-        <v>1.001503790058081</v>
+        <v>1.042171013640344</v>
       </c>
       <c r="N18">
-        <v>1.006881611669394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.005565401256189</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042839694455159</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.047561691967811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9813022338792546</v>
+        <v>0.9787708092211094</v>
       </c>
       <c r="D19">
-        <v>1.023382086732664</v>
+        <v>1.038312269653667</v>
       </c>
       <c r="E19">
-        <v>0.9912892907168052</v>
+        <v>1.004216380195469</v>
       </c>
       <c r="F19">
-        <v>0.9878594074547969</v>
+        <v>1.028678970291985</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040199733627587</v>
+        <v>1.058030646905522</v>
       </c>
       <c r="J19">
-        <v>1.008951836605961</v>
+        <v>1.006521059335286</v>
       </c>
       <c r="K19">
-        <v>1.036746614899839</v>
+        <v>1.051439725096218</v>
       </c>
       <c r="L19">
-        <v>1.005194734618473</v>
+        <v>1.017898573165189</v>
       </c>
       <c r="M19">
-        <v>1.00182535782648</v>
+        <v>1.041958380940107</v>
       </c>
       <c r="N19">
-        <v>1.006938768302046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.005444513884836</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.04234675761507</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.047516233582874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9798613308779875</v>
+        <v>0.9758272560422102</v>
       </c>
       <c r="D20">
-        <v>1.022493568802063</v>
+        <v>1.036914169102403</v>
       </c>
       <c r="E20">
-        <v>0.9901758247829344</v>
+        <v>1.001855357554307</v>
       </c>
       <c r="F20">
-        <v>0.9860905597924229</v>
+        <v>1.026508365646986</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039818436437855</v>
+        <v>1.057397145066829</v>
       </c>
       <c r="J20">
-        <v>1.008191261779751</v>
+        <v>1.004322883840804</v>
       </c>
       <c r="K20">
-        <v>1.036152100324513</v>
+        <v>1.050337564068903</v>
       </c>
       <c r="L20">
-        <v>1.004393648498091</v>
+        <v>1.015865661002725</v>
       </c>
       <c r="M20">
-        <v>1.000382480320783</v>
+        <v>1.040100580032642</v>
       </c>
       <c r="N20">
-        <v>1.006682303196298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.004504967285979</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040350104980732</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.046740849030808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9750966401853048</v>
+        <v>0.9683450834978811</v>
       </c>
       <c r="D21">
-        <v>1.019561993280257</v>
+        <v>1.033661348048146</v>
       </c>
       <c r="E21">
-        <v>0.986504222814555</v>
+        <v>0.996241833116989</v>
       </c>
       <c r="F21">
-        <v>0.9802400646295518</v>
+        <v>1.021985721494801</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038546643751364</v>
+        <v>1.056099874957892</v>
       </c>
       <c r="J21">
-        <v>1.005673764328581</v>
+        <v>0.9992286062661427</v>
       </c>
       <c r="K21">
-        <v>1.034181999182513</v>
+        <v>1.048031877102096</v>
       </c>
       <c r="L21">
-        <v>1.00174586850437</v>
+        <v>1.011294756641368</v>
       </c>
       <c r="M21">
-        <v>0.9956057209678817</v>
+        <v>1.036562205113022</v>
       </c>
       <c r="N21">
-        <v>1.005833287417062</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.002694893161408</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037508917015734</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.04511387234017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9720366686646382</v>
+        <v>0.9635371381186966</v>
       </c>
       <c r="D22">
-        <v>1.017684818255534</v>
+        <v>1.031583359904553</v>
       </c>
       <c r="E22">
-        <v>0.9841544986927466</v>
+        <v>0.9926549963226473</v>
       </c>
       <c r="F22">
-        <v>0.9764813102845955</v>
+        <v>1.019115903722062</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037721675683987</v>
+        <v>1.055259518771335</v>
       </c>
       <c r="J22">
-        <v>1.004055226660831</v>
+        <v>0.9959655458667859</v>
       </c>
       <c r="K22">
-        <v>1.032913891939954</v>
+        <v>1.046554077167409</v>
       </c>
       <c r="L22">
-        <v>1.000046531925776</v>
+        <v>1.008373377067494</v>
       </c>
       <c r="M22">
-        <v>0.9925335317615303</v>
+        <v>1.034317950124926</v>
       </c>
       <c r="N22">
-        <v>1.005287367333741</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.001539218189363</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035732730037387</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.044055709963044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9736650896354165</v>
+        <v>0.9660958321016918</v>
       </c>
       <c r="D23">
-        <v>1.018683236812561</v>
+        <v>1.032683765428548</v>
       </c>
       <c r="E23">
-        <v>0.9854041530617772</v>
+        <v>0.9945631617286343</v>
       </c>
       <c r="F23">
-        <v>0.9784817656666835</v>
+        <v>1.020645192937338</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038161455135226</v>
+        <v>1.055705948058382</v>
       </c>
       <c r="J23">
-        <v>1.004916717056962</v>
+        <v>0.9977009650017338</v>
       </c>
       <c r="K23">
-        <v>1.033588985780159</v>
+        <v>1.047335929231221</v>
       </c>
       <c r="L23">
-        <v>1.000950748044628</v>
+        <v>1.009927769606132</v>
       </c>
       <c r="M23">
-        <v>0.9941688887809838</v>
+        <v>1.035514859966426</v>
       </c>
       <c r="N23">
-        <v>1.005577947299704</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.002150286264693</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036680009613798</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.044598991891804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9799401629656754</v>
+        <v>0.9758837294899892</v>
       </c>
       <c r="D24">
-        <v>1.022542156727206</v>
+        <v>1.036920945112994</v>
       </c>
       <c r="E24">
-        <v>0.9902367048534489</v>
+        <v>1.001885173064829</v>
       </c>
       <c r="F24">
-        <v>0.9861873379736819</v>
+        <v>1.026514213537524</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039839338648034</v>
+        <v>1.057392181079963</v>
       </c>
       <c r="J24">
-        <v>1.008232882578703</v>
+        <v>1.00434279621201</v>
       </c>
       <c r="K24">
-        <v>1.036184642864346</v>
+        <v>1.050329292464139</v>
       </c>
       <c r="L24">
-        <v>1.0044374720557</v>
+        <v>1.015879263634381</v>
       </c>
       <c r="M24">
-        <v>1.000461440613266</v>
+        <v>1.040091177012581</v>
       </c>
       <c r="N24">
-        <v>1.006696338169694</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.004493867619547</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040301867864921</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.046707989475028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9869599799046773</v>
+        <v>0.9866968306339901</v>
       </c>
       <c r="D25">
-        <v>1.026879153159117</v>
+        <v>1.041635330110671</v>
       </c>
       <c r="E25">
-        <v>0.9956757077968668</v>
+        <v>1.010015985296694</v>
       </c>
       <c r="F25">
-        <v>0.9948037382924063</v>
+        <v>1.033039726927865</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041680480474356</v>
+        <v>1.059200539479702</v>
       </c>
       <c r="J25">
-        <v>1.011934305525876</v>
+        <v>1.011680346083793</v>
       </c>
       <c r="K25">
-        <v>1.039074057398415</v>
+        <v>1.053619950247621</v>
       </c>
       <c r="L25">
-        <v>1.008341525801711</v>
+        <v>1.022460780569605</v>
       </c>
       <c r="M25">
-        <v>1.007483258686834</v>
+        <v>1.045145914889474</v>
       </c>
       <c r="N25">
-        <v>1.007944244527726</v>
+        <v>1.007080032046574</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.044302344028466</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.049031766257778</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9949213003666397</v>
+        <v>0.9951575153681991</v>
       </c>
       <c r="D2">
-        <v>1.045221933050624</v>
+        <v>1.041981784378479</v>
       </c>
       <c r="E2">
-        <v>1.016228615976386</v>
+        <v>1.015985928268298</v>
       </c>
       <c r="F2">
-        <v>1.038033658298526</v>
+        <v>1.03672491455136</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.06051950768971</v>
+        <v>1.058890105529301</v>
       </c>
       <c r="J2">
-        <v>1.017254982883099</v>
+        <v>1.017484035348604</v>
       </c>
       <c r="K2">
-        <v>1.05608525300626</v>
+        <v>1.052885661958491</v>
       </c>
       <c r="L2">
-        <v>1.027466397073317</v>
+        <v>1.027226957050683</v>
       </c>
       <c r="M2">
-        <v>1.048987382629279</v>
+        <v>1.047695266959101</v>
       </c>
       <c r="N2">
-        <v>1.009033118942842</v>
+        <v>1.011311081844082</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047342585953695</v>
+        <v>1.046319971914138</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.050727290959578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.048473610646388</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026089821165317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000697190377599</v>
+        <v>1.000685712171794</v>
       </c>
       <c r="D3">
-        <v>1.047756748971139</v>
+        <v>1.044272593866305</v>
       </c>
       <c r="E3">
-        <v>1.02060551975519</v>
+        <v>1.020155841738771</v>
       </c>
       <c r="F3">
-        <v>1.041549105438737</v>
+        <v>1.040051377008893</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.061420127485</v>
+        <v>1.059661713031142</v>
       </c>
       <c r="J3">
-        <v>1.021168867307553</v>
+        <v>1.021157701420782</v>
       </c>
       <c r="K3">
-        <v>1.057812971025133</v>
+        <v>1.054368683475227</v>
       </c>
       <c r="L3">
-        <v>1.030981366607517</v>
+        <v>1.030537160130412</v>
       </c>
       <c r="M3">
-        <v>1.051676588103931</v>
+        <v>1.050196210262543</v>
       </c>
       <c r="N3">
-        <v>1.010407732886356</v>
+        <v>1.012341766548881</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049470888768693</v>
+        <v>1.04829928238728</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.051946277126413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.049519306040667</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026381370665992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004347776652303</v>
+        <v>1.004182420995479</v>
       </c>
       <c r="D4">
-        <v>1.049361360160591</v>
+        <v>1.045724073760067</v>
       </c>
       <c r="E4">
-        <v>1.023377768979607</v>
+        <v>1.022799069254261</v>
       </c>
       <c r="F4">
-        <v>1.043775413836107</v>
+        <v>1.042159466583266</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.061975069642759</v>
+        <v>1.060135522317545</v>
       </c>
       <c r="J4">
-        <v>1.023640915964112</v>
+        <v>1.023479741744389</v>
       </c>
       <c r="K4">
-        <v>1.058898416193014</v>
+        <v>1.05530027609523</v>
       </c>
       <c r="L4">
-        <v>1.033202000531017</v>
+        <v>1.03262990154842</v>
       </c>
       <c r="M4">
-        <v>1.053372726310639</v>
+        <v>1.051774358353671</v>
       </c>
       <c r="N4">
-        <v>1.011275151574614</v>
+        <v>1.012992664217672</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050813250790952</v>
+        <v>1.049548266414529</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.052714635732416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.050178966823359</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026561491083123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005864101913951</v>
+        <v>1.005635397717199</v>
       </c>
       <c r="D5">
-        <v>1.050030699000577</v>
+        <v>1.04633034897109</v>
       </c>
       <c r="E5">
-        <v>1.0245306660398</v>
+        <v>1.023898846684746</v>
       </c>
       <c r="F5">
-        <v>1.044700841014876</v>
+        <v>1.043036366263672</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.062203254011736</v>
+        <v>1.060330267845973</v>
       </c>
       <c r="J5">
-        <v>1.024667702994967</v>
+        <v>1.024444602082468</v>
       </c>
       <c r="K5">
-        <v>1.059350166520984</v>
+        <v>1.055688596556054</v>
       </c>
       <c r="L5">
-        <v>1.034124363876999</v>
+        <v>1.0334995523705</v>
       </c>
       <c r="M5">
-        <v>1.054076272571726</v>
+        <v>1.052429418359961</v>
       </c>
       <c r="N5">
-        <v>1.011636166661037</v>
+        <v>1.013263617208776</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.05137005245863</v>
+        <v>1.050066695906533</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.053041097488525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.050461298422053</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026636144870677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006119352470206</v>
+        <v>1.005879985589172</v>
       </c>
       <c r="D6">
-        <v>1.050146292236054</v>
+        <v>1.046435690323498</v>
       </c>
       <c r="E6">
-        <v>1.024724911348043</v>
+        <v>1.024084256924302</v>
       </c>
       <c r="F6">
-        <v>1.044856384458709</v>
+        <v>1.043184126148924</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.062242911774636</v>
+        <v>1.060364505490167</v>
       </c>
       <c r="J6">
-        <v>1.024841054182127</v>
+        <v>1.024607520433614</v>
       </c>
       <c r="K6">
-        <v>1.059429227594861</v>
+        <v>1.055757337669162</v>
       </c>
       <c r="L6">
-        <v>1.034279963996858</v>
+        <v>1.033646381751399</v>
       </c>
       <c r="M6">
-        <v>1.05419461036181</v>
+        <v>1.05253997327982</v>
       </c>
       <c r="N6">
-        <v>1.011698239100563</v>
+        <v>1.01331013713546</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05146370749443</v>
+        <v>1.050154191566638</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.053105591907098</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.050519372997335</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026649692507296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004372894053396</v>
+        <v>1.004224806898056</v>
       </c>
       <c r="D7">
-        <v>1.049380051270057</v>
+        <v>1.045747274334498</v>
       </c>
       <c r="E7">
-        <v>1.023397080551824</v>
+        <v>1.022832878050399</v>
       </c>
       <c r="F7">
-        <v>1.043789808328999</v>
+        <v>1.042183847368477</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.061982669609839</v>
+        <v>1.060145913131259</v>
       </c>
       <c r="J7">
-        <v>1.023659348373281</v>
+        <v>1.023515004267914</v>
       </c>
       <c r="K7">
-        <v>1.058914093080404</v>
+        <v>1.055320399022209</v>
       </c>
       <c r="L7">
-        <v>1.033218182484393</v>
+        <v>1.032660412806203</v>
       </c>
       <c r="M7">
-        <v>1.053384130575356</v>
+        <v>1.051795633671289</v>
       </c>
       <c r="N7">
-        <v>1.011284732772692</v>
+        <v>1.013032024430226</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050822276375036</v>
+        <v>1.049565104193832</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.052745487165113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.050214978730008</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026566714758056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9968975943570086</v>
+        <v>0.9971056754435657</v>
       </c>
       <c r="D8">
-        <v>1.046097329520719</v>
+        <v>1.042789347323146</v>
       </c>
       <c r="E8">
-        <v>1.017725024394085</v>
+        <v>1.017458895816616</v>
       </c>
       <c r="F8">
-        <v>1.039233649960488</v>
+        <v>1.037892208758454</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.060834858620897</v>
+        <v>1.059170813999228</v>
       </c>
       <c r="J8">
-        <v>1.018596175166015</v>
+        <v>1.018798170338717</v>
       </c>
       <c r="K8">
-        <v>1.056687090630558</v>
+        <v>1.05341930113855</v>
       </c>
       <c r="L8">
-        <v>1.028670134568235</v>
+        <v>1.028407456511219</v>
       </c>
       <c r="M8">
-        <v>1.049907161239293</v>
+        <v>1.048582249253095</v>
       </c>
       <c r="N8">
-        <v>1.009508413956062</v>
+        <v>1.011766303080923</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048070521870783</v>
+        <v>1.047021952986514</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.051175357314801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048875743391207</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02619746342276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9830085854452287</v>
+        <v>0.9838400952713852</v>
       </c>
       <c r="D9">
-        <v>1.040014798448678</v>
+        <v>1.037302045505534</v>
       </c>
       <c r="E9">
-        <v>1.007238121123294</v>
+        <v>1.007490040215652</v>
       </c>
       <c r="F9">
-        <v>1.030813119465369</v>
+        <v>1.029939101103642</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.058586888938517</v>
+        <v>1.057236756050729</v>
       </c>
       <c r="J9">
-        <v>1.009175959719968</v>
+        <v>1.009976697017685</v>
       </c>
       <c r="K9">
-        <v>1.052490388738788</v>
+        <v>1.049817584590623</v>
       </c>
       <c r="L9">
-        <v>1.020214846352213</v>
+        <v>1.020462754452333</v>
       </c>
       <c r="M9">
-        <v>1.043425301982716</v>
+        <v>1.042564419365841</v>
       </c>
       <c r="N9">
-        <v>1.006192259967156</v>
+        <v>1.009297106599474</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042940600139748</v>
+        <v>1.042259271246306</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.048204974656395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046325754732356</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025471258656472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9732825440445924</v>
+        <v>0.9746549321082109</v>
       </c>
       <c r="D10">
-        <v>1.035799655192661</v>
+        <v>1.033534701529277</v>
       </c>
       <c r="E10">
-        <v>0.9999526663461373</v>
+        <v>1.000652759483667</v>
       </c>
       <c r="F10">
-        <v>1.024994582348788</v>
+        <v>1.024508646235664</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05696002748101</v>
+        <v>1.055847329936035</v>
       </c>
       <c r="J10">
-        <v>1.002597811001586</v>
+        <v>1.003911510211654</v>
       </c>
       <c r="K10">
-        <v>1.049551281303071</v>
+        <v>1.047323771061741</v>
       </c>
       <c r="L10">
-        <v>1.014322775469307</v>
+        <v>1.015010238149814</v>
       </c>
       <c r="M10">
-        <v>1.038926754789806</v>
+        <v>1.038449053881047</v>
       </c>
       <c r="N10">
-        <v>1.003891164670565</v>
+        <v>1.007728972167805</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039431683850558</v>
+        <v>1.039053638474331</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.046143462777338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044580771933927</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024956541451291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9695259631788016</v>
+        <v>0.9712443185790965</v>
       </c>
       <c r="D11">
-        <v>1.034279495021967</v>
+        <v>1.03224028307678</v>
       </c>
       <c r="E11">
-        <v>0.9972716157393852</v>
+        <v>0.9982717559247677</v>
       </c>
       <c r="F11">
-        <v>1.023067510252577</v>
+        <v>1.022849141856832</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.056427982138922</v>
+        <v>1.055440797679761</v>
       </c>
       <c r="J11">
-        <v>1.000223844267202</v>
+        <v>1.001864304240926</v>
       </c>
       <c r="K11">
-        <v>1.048582664602862</v>
+        <v>1.046578772603876</v>
       </c>
       <c r="L11">
-        <v>1.012245169468235</v>
+        <v>1.013226338159145</v>
       </c>
       <c r="M11">
-        <v>1.037567135274681</v>
+        <v>1.037352648602482</v>
       </c>
       <c r="N11">
-        <v>1.003206285189034</v>
+        <v>1.007503147428362</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038791750693603</v>
+        <v>1.038622094312929</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.045491007382087</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044089652985916</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024811982651983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9683027269647801</v>
+        <v>0.9701633111609934</v>
       </c>
       <c r="D12">
-        <v>1.033814137845069</v>
+        <v>1.031865062233061</v>
       </c>
       <c r="E12">
-        <v>0.996439611542544</v>
+        <v>0.9975696311298274</v>
       </c>
       <c r="F12">
-        <v>1.022559417184824</v>
+        <v>1.022466647987378</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.056290106312236</v>
+        <v>1.055354721332093</v>
       </c>
       <c r="J12">
-        <v>0.9995119063370463</v>
+        <v>1.001286381297346</v>
       </c>
       <c r="K12">
-        <v>1.048320972091449</v>
+        <v>1.046406222984972</v>
       </c>
       <c r="L12">
-        <v>1.011635342346212</v>
+        <v>1.012743541765095</v>
       </c>
       <c r="M12">
-        <v>1.03726681143624</v>
+        <v>1.037175719249342</v>
       </c>
       <c r="N12">
-        <v>1.00307430293226</v>
+        <v>1.007530661288478</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03888055293738</v>
+        <v>1.038808524497484</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.045305987085774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04396766005645</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024774792390217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9689721395174518</v>
+        <v>0.9707929337632591</v>
       </c>
       <c r="D13">
-        <v>1.034148130581984</v>
+        <v>1.032182202645331</v>
       </c>
       <c r="E13">
-        <v>0.9969937066384617</v>
+        <v>0.9981025669254652</v>
       </c>
       <c r="F13">
-        <v>1.023128762765721</v>
+        <v>1.023041421479014</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.056461254665419</v>
+        <v>1.055519244783208</v>
       </c>
       <c r="J13">
-        <v>1.000052615217528</v>
+        <v>1.001789613977216</v>
       </c>
       <c r="K13">
-        <v>1.048607160056837</v>
+        <v>1.046675711988782</v>
       </c>
       <c r="L13">
-        <v>1.012134501662611</v>
+        <v>1.013222052829034</v>
       </c>
       <c r="M13">
-        <v>1.037783280302132</v>
+        <v>1.03769751034642</v>
       </c>
       <c r="N13">
-        <v>1.003369722467109</v>
+        <v>1.007717849543416</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039565533342696</v>
+        <v>1.03949773034279</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.045505867945417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.044155487791663</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024824466557306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9702930675416935</v>
+        <v>0.9720062436171599</v>
       </c>
       <c r="D14">
-        <v>1.034743076259593</v>
+        <v>1.032718745675262</v>
       </c>
       <c r="E14">
-        <v>0.998004506414603</v>
+        <v>0.9990330797342656</v>
       </c>
       <c r="F14">
-        <v>1.024011512034261</v>
+        <v>1.02387581521678</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.056719949610367</v>
+        <v>1.055747864346976</v>
       </c>
       <c r="J14">
-        <v>1.000993631657938</v>
+        <v>1.00262921065754</v>
       </c>
       <c r="K14">
-        <v>1.049054391753127</v>
+        <v>1.047065127560891</v>
       </c>
       <c r="L14">
-        <v>1.012981171602559</v>
+        <v>1.013990246654305</v>
       </c>
       <c r="M14">
-        <v>1.038510775665364</v>
+        <v>1.038377488116127</v>
       </c>
       <c r="N14">
-        <v>1.003768373582449</v>
+        <v>1.007922517409649</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040313866670138</v>
+        <v>1.040208514197268</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.045823472060057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.044432349546462</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024898466911234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9710313487243261</v>
+        <v>0.9726794971791654</v>
       </c>
       <c r="D15">
-        <v>1.035068700885657</v>
+        <v>1.033007235952424</v>
       </c>
       <c r="E15">
-        <v>0.9985596535987376</v>
+        <v>0.9995366114268656</v>
       </c>
       <c r="F15">
-        <v>1.024471071688689</v>
+        <v>1.024298188756839</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.056853920856261</v>
+        <v>1.055862050120937</v>
       </c>
       <c r="J15">
-        <v>1.001502239960148</v>
+        <v>1.003076452971575</v>
       </c>
       <c r="K15">
-        <v>1.049289820856672</v>
+        <v>1.047263795600782</v>
       </c>
       <c r="L15">
-        <v>1.013436704971272</v>
+        <v>1.014395295633425</v>
       </c>
       <c r="M15">
-        <v>1.038876348721858</v>
+        <v>1.038706510963271</v>
       </c>
       <c r="N15">
-        <v>1.003961882877345</v>
+        <v>1.008013208711915</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040640335650545</v>
+        <v>1.040506096864721</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.045995712375492</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044579170396032</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02493815795812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9750598774574477</v>
+        <v>0.9763467218477415</v>
       </c>
       <c r="D16">
-        <v>1.036814040418077</v>
+        <v>1.03452814401252</v>
       </c>
       <c r="E16">
-        <v>1.001568755621945</v>
+        <v>1.002244043812506</v>
       </c>
       <c r="F16">
-        <v>1.026871114090107</v>
+        <v>1.026453844329992</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.057540734363796</v>
+        <v>1.05642694598368</v>
       </c>
       <c r="J16">
-        <v>1.004219102427766</v>
+        <v>1.005451371181485</v>
       </c>
       <c r="K16">
-        <v>1.05051414288638</v>
+        <v>1.048265832225094</v>
       </c>
       <c r="L16">
-        <v>1.015873148704626</v>
+        <v>1.016536340224191</v>
       </c>
       <c r="M16">
-        <v>1.040736274483079</v>
+        <v>1.040326021784</v>
       </c>
       <c r="N16">
-        <v>1.004890480261345</v>
+        <v>1.008440420415092</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042071735238588</v>
+        <v>1.04174746441047</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.046864448424255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045291047164392</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025153781228036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9774528555902798</v>
+        <v>0.9785428905658304</v>
       </c>
       <c r="D17">
-        <v>1.037839121620956</v>
+        <v>1.035417472221787</v>
       </c>
       <c r="E17">
-        <v>1.003344610880574</v>
+        <v>1.003849890767148</v>
       </c>
       <c r="F17">
-        <v>1.028243051979127</v>
+        <v>1.027676771369098</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.057926969205755</v>
+        <v>1.056738905265193</v>
       </c>
       <c r="J17">
-        <v>1.005805937069103</v>
+        <v>1.006851359847895</v>
       </c>
       <c r="K17">
-        <v>1.051214700283054</v>
+        <v>1.048831751087294</v>
       </c>
       <c r="L17">
-        <v>1.017294249994904</v>
+        <v>1.017790752506843</v>
       </c>
       <c r="M17">
-        <v>1.041773359665993</v>
+        <v>1.041216325926563</v>
       </c>
       <c r="N17">
-        <v>1.005392581619337</v>
+        <v>1.008694449073627</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042762610417918</v>
+        <v>1.042322277340092</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04736230359309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.045693959373855</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025279331920241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9786608786083744</v>
+        <v>0.979650353249504</v>
       </c>
       <c r="D18">
-        <v>1.03832448972825</v>
+        <v>1.035823901581804</v>
       </c>
       <c r="E18">
-        <v>1.00420935235662</v>
+        <v>1.004619798727792</v>
       </c>
       <c r="F18">
-        <v>1.028832068513837</v>
+        <v>1.028169179043998</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05808425865814</v>
+        <v>1.056851755415803</v>
       </c>
       <c r="J18">
-        <v>1.006555018818442</v>
+        <v>1.007504819132412</v>
       </c>
       <c r="K18">
-        <v>1.051512932385047</v>
+        <v>1.049051648544086</v>
       </c>
       <c r="L18">
-        <v>1.017955820329543</v>
+        <v>1.018359262077986</v>
       </c>
       <c r="M18">
-        <v>1.042171013640344</v>
+        <v>1.041518767451833</v>
       </c>
       <c r="N18">
-        <v>1.005565401256189</v>
+        <v>1.008771428081857</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042839694455159</v>
+        <v>1.042323988969779</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.047561691967811</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045836822369992</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025331697844369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9787708092211094</v>
+        <v>0.9797431061907614</v>
       </c>
       <c r="D19">
-        <v>1.038312269653667</v>
+        <v>1.03578964451407</v>
       </c>
       <c r="E19">
-        <v>1.004216380195469</v>
+        <v>1.004600419554152</v>
       </c>
       <c r="F19">
-        <v>1.028678970291985</v>
+        <v>1.027972156951985</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.058030646905522</v>
+        <v>1.05678376587283</v>
       </c>
       <c r="J19">
-        <v>1.006521059335286</v>
+        <v>1.007454611437595</v>
       </c>
       <c r="K19">
-        <v>1.051439725096218</v>
+        <v>1.048956542274174</v>
       </c>
       <c r="L19">
-        <v>1.017898573165189</v>
+        <v>1.018276093601226</v>
       </c>
       <c r="M19">
-        <v>1.041958380940107</v>
+        <v>1.041262860614645</v>
       </c>
       <c r="N19">
-        <v>1.005444513884836</v>
+        <v>1.008669790771118</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04234675761507</v>
+        <v>1.041796657843088</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.047516233582874</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.045776509315498</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025311424051318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9758272560422102</v>
+        <v>0.9770022089996456</v>
       </c>
       <c r="D20">
-        <v>1.036914169102403</v>
+        <v>1.034520259819643</v>
       </c>
       <c r="E20">
-        <v>1.001855357554307</v>
+        <v>1.002392396099121</v>
       </c>
       <c r="F20">
-        <v>1.026508365646986</v>
+        <v>1.02589335894795</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.057397145066829</v>
+        <v>1.056215230207148</v>
       </c>
       <c r="J20">
-        <v>1.004322883840804</v>
+        <v>1.005449375696971</v>
       </c>
       <c r="K20">
-        <v>1.050337564068903</v>
+        <v>1.047982106613172</v>
       </c>
       <c r="L20">
-        <v>1.015865661002725</v>
+        <v>1.016393308148011</v>
       </c>
       <c r="M20">
-        <v>1.040100580032642</v>
+        <v>1.039495688818557</v>
       </c>
       <c r="N20">
-        <v>1.004504967285979</v>
+        <v>1.008059067001742</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040350104980732</v>
+        <v>1.039871397534467</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.046740849030808</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045091821371258</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025094074505439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9683450834978811</v>
+        <v>0.9702141734651949</v>
       </c>
       <c r="D21">
-        <v>1.033661348048146</v>
+        <v>1.031685441756266</v>
       </c>
       <c r="E21">
-        <v>0.996241833116989</v>
+        <v>0.9973557982834199</v>
       </c>
       <c r="F21">
-        <v>1.021985721494801</v>
+        <v>1.021819172272612</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.056099874957892</v>
+        <v>1.055144067709359</v>
       </c>
       <c r="J21">
-        <v>0.9992286062661427</v>
+        <v>1.001012260814887</v>
       </c>
       <c r="K21">
-        <v>1.048031877102096</v>
+        <v>1.046090400790674</v>
       </c>
       <c r="L21">
-        <v>1.011294756641368</v>
+        <v>1.012387439637925</v>
       </c>
       <c r="M21">
-        <v>1.036562205113022</v>
+        <v>1.036398637992993</v>
       </c>
       <c r="N21">
-        <v>1.002694893161408</v>
+        <v>1.00725561494869</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037508917015734</v>
+        <v>1.037379464055206</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.04511387234017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.043757866960129</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024697819175912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9635371381186966</v>
+        <v>0.9658578628259691</v>
       </c>
       <c r="D22">
-        <v>1.031583359904553</v>
+        <v>1.029879419393088</v>
       </c>
       <c r="E22">
-        <v>0.9926549963226473</v>
+        <v>0.9941462461958142</v>
       </c>
       <c r="F22">
-        <v>1.019115903722062</v>
+        <v>1.019244524571383</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.055259518771335</v>
+        <v>1.054450887226581</v>
       </c>
       <c r="J22">
-        <v>0.9959655458667859</v>
+        <v>0.9981733314318834</v>
       </c>
       <c r="K22">
-        <v>1.046554077167409</v>
+        <v>1.044881322307605</v>
       </c>
       <c r="L22">
-        <v>1.008373377067494</v>
+        <v>1.009834565916032</v>
       </c>
       <c r="M22">
-        <v>1.034317950124926</v>
+        <v>1.034444146715074</v>
       </c>
       <c r="N22">
-        <v>1.001539218189363</v>
+        <v>1.006738450587717</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035732730037387</v>
+        <v>1.035832606836566</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044055709963044</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.042888391104047</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024441963828724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9660958321016918</v>
+        <v>0.9681431717839756</v>
       </c>
       <c r="D23">
-        <v>1.032683765428548</v>
+        <v>1.030824425599532</v>
       </c>
       <c r="E23">
-        <v>0.9945631617286343</v>
+        <v>0.9958248760156659</v>
       </c>
       <c r="F23">
-        <v>1.020645192937338</v>
+        <v>1.020595991356082</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.055705948058382</v>
+        <v>1.054812613965911</v>
       </c>
       <c r="J23">
-        <v>0.9977009650017338</v>
+        <v>0.9996519034952097</v>
       </c>
       <c r="K23">
-        <v>1.047335929231221</v>
+        <v>1.045509751678383</v>
       </c>
       <c r="L23">
-        <v>1.009927769606132</v>
+        <v>1.011164758154158</v>
       </c>
       <c r="M23">
-        <v>1.035514859966426</v>
+        <v>1.035466561032736</v>
       </c>
       <c r="N23">
-        <v>1.002150286264693</v>
+        <v>1.006958985002264</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036680009613798</v>
+        <v>1.036641784041103</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.044598991891804</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.04332225197914</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024574657691983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9758837294899892</v>
+        <v>0.9770556361647638</v>
       </c>
       <c r="D24">
-        <v>1.036920945112994</v>
+        <v>1.034521549963859</v>
       </c>
       <c r="E24">
-        <v>1.001885173064829</v>
+        <v>1.002418236176812</v>
       </c>
       <c r="F24">
-        <v>1.026514213537524</v>
+        <v>1.025891795707119</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.057392181079963</v>
+        <v>1.056206977877145</v>
       </c>
       <c r="J24">
-        <v>1.00434279621201</v>
+        <v>1.005466443487355</v>
       </c>
       <c r="K24">
-        <v>1.050329292464139</v>
+        <v>1.04796838769149</v>
       </c>
       <c r="L24">
-        <v>1.015879263634381</v>
+        <v>1.016403017549084</v>
       </c>
       <c r="M24">
-        <v>1.040091177012581</v>
+        <v>1.039478983408831</v>
       </c>
       <c r="N24">
-        <v>1.004493867619547</v>
+        <v>1.008047341006169</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040301867864921</v>
+        <v>1.039817357377662</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.046707989475028</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.045052421576394</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025088869510434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9866968306339901</v>
+        <v>0.987336305180967</v>
       </c>
       <c r="D25">
-        <v>1.041635330110671</v>
+        <v>1.038759166459176</v>
       </c>
       <c r="E25">
-        <v>1.010015985296694</v>
+        <v>1.010109305096831</v>
       </c>
       <c r="F25">
-        <v>1.033039726927865</v>
+        <v>1.032029321384644</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.059200539479702</v>
+        <v>1.057763999533906</v>
       </c>
       <c r="J25">
-        <v>1.011680346083793</v>
+        <v>1.012297500481771</v>
       </c>
       <c r="K25">
-        <v>1.053619950247621</v>
+        <v>1.0507841812259</v>
       </c>
       <c r="L25">
-        <v>1.022460780569605</v>
+        <v>1.022552688242194</v>
       </c>
       <c r="M25">
-        <v>1.045145914889474</v>
+        <v>1.04414996791497</v>
       </c>
       <c r="N25">
-        <v>1.007080032046574</v>
+        <v>1.00991828919953</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044302344028466</v>
+        <v>1.043514122478367</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.049031766257778</v>
+        <v>1.047040148108569</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025669512733265</v>
       </c>
     </row>
   </sheetData>
